--- a/InputData/trans/BAADTbVT/BAU Avg Annual Dist Traveled by Veh Type.xlsx
+++ b/InputData/trans/BAADTbVT/BAU Avg Annual Dist Traveled by Veh Type.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MeganM\Documents\eps-us\InputData\trans\BAADTbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mmahajan\Documents\eps-us\InputData\trans\BAADTbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DCADB63-C92D-4086-9C71-9456BC42688E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1635" yWindow="1245" windowWidth="20265" windowHeight="15810"/>
+    <workbookView xWindow="-19310" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -45,7 +46,7 @@
     <definedName name="ti_tbl_69" localSheetId="10">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -5011,7 +5012,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="9">
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -6204,25 +6205,25 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="9" xfId="54" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="54" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="133" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="131" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="57" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="54" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="133" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="53" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="132" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="53" fillId="0" borderId="0" xfId="131" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="133" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="78" applyFont="1" applyFill="1" applyAlignment="1"/>
@@ -6244,177 +6245,177 @@
     <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="78" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="45" fillId="0" borderId="1" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="53" fillId="0" borderId="3" xfId="131" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="54" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="54" fillId="0" borderId="0" xfId="47" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="133" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="57" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="55" fillId="0" borderId="0" xfId="132" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="53" fillId="0" borderId="0" xfId="78" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0" xfId="78" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="154">
-    <cellStyle name="20% - Accent1 2" xfId="4"/>
-    <cellStyle name="20% - Accent2 2" xfId="5"/>
-    <cellStyle name="20% - Accent3 2" xfId="6"/>
-    <cellStyle name="20% - Accent4 2" xfId="7"/>
-    <cellStyle name="20% - Accent5 2" xfId="8"/>
-    <cellStyle name="20% - Accent6 2" xfId="9"/>
-    <cellStyle name="40% - Accent1 2" xfId="10"/>
-    <cellStyle name="40% - Accent2 2" xfId="11"/>
-    <cellStyle name="40% - Accent3 2" xfId="12"/>
-    <cellStyle name="40% - Accent4 2" xfId="13"/>
-    <cellStyle name="40% - Accent5 2" xfId="14"/>
-    <cellStyle name="40% - Accent6 2" xfId="15"/>
-    <cellStyle name="60% - Accent1 2" xfId="16"/>
-    <cellStyle name="60% - Accent2 2" xfId="17"/>
-    <cellStyle name="60% - Accent3 2" xfId="18"/>
-    <cellStyle name="60% - Accent4 2" xfId="19"/>
-    <cellStyle name="60% - Accent5 2" xfId="20"/>
-    <cellStyle name="60% - Accent6 2" xfId="21"/>
-    <cellStyle name="Accent1 2" xfId="22"/>
-    <cellStyle name="Accent2 2" xfId="23"/>
-    <cellStyle name="Accent3 2" xfId="24"/>
-    <cellStyle name="Accent4 2" xfId="25"/>
-    <cellStyle name="Accent5 2" xfId="26"/>
-    <cellStyle name="Accent6 2" xfId="27"/>
-    <cellStyle name="Bad 2" xfId="28"/>
-    <cellStyle name="Body: normal cell" xfId="29"/>
-    <cellStyle name="Body: normal cell 2" xfId="30"/>
-    <cellStyle name="Calculation 2" xfId="31"/>
-    <cellStyle name="Check Cell 2" xfId="32"/>
-    <cellStyle name="Column heading" xfId="33"/>
-    <cellStyle name="Comma 2" xfId="34"/>
-    <cellStyle name="Comma 2 2" xfId="35"/>
-    <cellStyle name="Comma 3" xfId="36"/>
-    <cellStyle name="Comma 4" xfId="37"/>
-    <cellStyle name="Comma 5" xfId="38"/>
-    <cellStyle name="Comma 6" xfId="39"/>
-    <cellStyle name="Comma 7" xfId="40"/>
-    <cellStyle name="Comma 8" xfId="41"/>
-    <cellStyle name="Corner heading" xfId="42"/>
-    <cellStyle name="Currency 2" xfId="43"/>
-    <cellStyle name="Currency 3" xfId="44"/>
-    <cellStyle name="Currency 3 2" xfId="45"/>
-    <cellStyle name="Data" xfId="46"/>
-    <cellStyle name="Data 2" xfId="47"/>
-    <cellStyle name="Data no deci" xfId="48"/>
-    <cellStyle name="Data Superscript" xfId="49"/>
-    <cellStyle name="Data_1-1A-Regular" xfId="50"/>
-    <cellStyle name="Explanatory Text 2" xfId="51"/>
-    <cellStyle name="Font: Calibri, 9pt regular" xfId="52"/>
-    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="53"/>
-    <cellStyle name="Footnotes: top row" xfId="54"/>
-    <cellStyle name="Footnotes: top row 2" xfId="55"/>
-    <cellStyle name="Good 2" xfId="56"/>
-    <cellStyle name="Header: bottom row" xfId="57"/>
-    <cellStyle name="Header: bottom row 2" xfId="58"/>
-    <cellStyle name="Heading 1 2" xfId="59"/>
-    <cellStyle name="Heading 2 2" xfId="60"/>
-    <cellStyle name="Heading 3 2" xfId="61"/>
-    <cellStyle name="Heading 4 2" xfId="62"/>
-    <cellStyle name="Hed Side" xfId="63"/>
-    <cellStyle name="Hed Side 2" xfId="64"/>
-    <cellStyle name="Hed Side bold" xfId="65"/>
-    <cellStyle name="Hed Side Indent" xfId="66"/>
-    <cellStyle name="Hed Side Regular" xfId="67"/>
-    <cellStyle name="Hed Side_1-1A-Regular" xfId="68"/>
-    <cellStyle name="Hed Top" xfId="69"/>
-    <cellStyle name="Hed Top - SECTION" xfId="70"/>
-    <cellStyle name="Hed Top_3-new4" xfId="71"/>
+    <cellStyle name="20% - Accent1 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
+    <cellStyle name="20% - Accent2 2" xfId="5" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
+    <cellStyle name="20% - Accent3 2" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="20% - Accent4 2" xfId="7" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
+    <cellStyle name="20% - Accent5 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
+    <cellStyle name="20% - Accent6 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
+    <cellStyle name="40% - Accent1 2" xfId="10" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
+    <cellStyle name="40% - Accent2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
+    <cellStyle name="40% - Accent3 2" xfId="12" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
+    <cellStyle name="40% - Accent4 2" xfId="13" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
+    <cellStyle name="40% - Accent5 2" xfId="14" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="40% - Accent6 2" xfId="15" xr:uid="{00000000-0005-0000-0000-00000B000000}"/>
+    <cellStyle name="60% - Accent1 2" xfId="16" xr:uid="{00000000-0005-0000-0000-00000C000000}"/>
+    <cellStyle name="60% - Accent2 2" xfId="17" xr:uid="{00000000-0005-0000-0000-00000D000000}"/>
+    <cellStyle name="60% - Accent3 2" xfId="18" xr:uid="{00000000-0005-0000-0000-00000E000000}"/>
+    <cellStyle name="60% - Accent4 2" xfId="19" xr:uid="{00000000-0005-0000-0000-00000F000000}"/>
+    <cellStyle name="60% - Accent5 2" xfId="20" xr:uid="{00000000-0005-0000-0000-000010000000}"/>
+    <cellStyle name="60% - Accent6 2" xfId="21" xr:uid="{00000000-0005-0000-0000-000011000000}"/>
+    <cellStyle name="Accent1 2" xfId="22" xr:uid="{00000000-0005-0000-0000-000012000000}"/>
+    <cellStyle name="Accent2 2" xfId="23" xr:uid="{00000000-0005-0000-0000-000013000000}"/>
+    <cellStyle name="Accent3 2" xfId="24" xr:uid="{00000000-0005-0000-0000-000014000000}"/>
+    <cellStyle name="Accent4 2" xfId="25" xr:uid="{00000000-0005-0000-0000-000015000000}"/>
+    <cellStyle name="Accent5 2" xfId="26" xr:uid="{00000000-0005-0000-0000-000016000000}"/>
+    <cellStyle name="Accent6 2" xfId="27" xr:uid="{00000000-0005-0000-0000-000017000000}"/>
+    <cellStyle name="Bad 2" xfId="28" xr:uid="{00000000-0005-0000-0000-000018000000}"/>
+    <cellStyle name="Body: normal cell" xfId="29" xr:uid="{00000000-0005-0000-0000-000019000000}"/>
+    <cellStyle name="Body: normal cell 2" xfId="30" xr:uid="{00000000-0005-0000-0000-00001A000000}"/>
+    <cellStyle name="Calculation 2" xfId="31" xr:uid="{00000000-0005-0000-0000-00001B000000}"/>
+    <cellStyle name="Check Cell 2" xfId="32" xr:uid="{00000000-0005-0000-0000-00001C000000}"/>
+    <cellStyle name="Column heading" xfId="33" xr:uid="{00000000-0005-0000-0000-00001D000000}"/>
+    <cellStyle name="Comma 2" xfId="34" xr:uid="{00000000-0005-0000-0000-00001E000000}"/>
+    <cellStyle name="Comma 2 2" xfId="35" xr:uid="{00000000-0005-0000-0000-00001F000000}"/>
+    <cellStyle name="Comma 3" xfId="36" xr:uid="{00000000-0005-0000-0000-000020000000}"/>
+    <cellStyle name="Comma 4" xfId="37" xr:uid="{00000000-0005-0000-0000-000021000000}"/>
+    <cellStyle name="Comma 5" xfId="38" xr:uid="{00000000-0005-0000-0000-000022000000}"/>
+    <cellStyle name="Comma 6" xfId="39" xr:uid="{00000000-0005-0000-0000-000023000000}"/>
+    <cellStyle name="Comma 7" xfId="40" xr:uid="{00000000-0005-0000-0000-000024000000}"/>
+    <cellStyle name="Comma 8" xfId="41" xr:uid="{00000000-0005-0000-0000-000025000000}"/>
+    <cellStyle name="Corner heading" xfId="42" xr:uid="{00000000-0005-0000-0000-000026000000}"/>
+    <cellStyle name="Currency 2" xfId="43" xr:uid="{00000000-0005-0000-0000-000027000000}"/>
+    <cellStyle name="Currency 3" xfId="44" xr:uid="{00000000-0005-0000-0000-000028000000}"/>
+    <cellStyle name="Currency 3 2" xfId="45" xr:uid="{00000000-0005-0000-0000-000029000000}"/>
+    <cellStyle name="Data" xfId="46" xr:uid="{00000000-0005-0000-0000-00002A000000}"/>
+    <cellStyle name="Data 2" xfId="47" xr:uid="{00000000-0005-0000-0000-00002B000000}"/>
+    <cellStyle name="Data no deci" xfId="48" xr:uid="{00000000-0005-0000-0000-00002C000000}"/>
+    <cellStyle name="Data Superscript" xfId="49" xr:uid="{00000000-0005-0000-0000-00002D000000}"/>
+    <cellStyle name="Data_1-1A-Regular" xfId="50" xr:uid="{00000000-0005-0000-0000-00002E000000}"/>
+    <cellStyle name="Explanatory Text 2" xfId="51" xr:uid="{00000000-0005-0000-0000-00002F000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular" xfId="52" xr:uid="{00000000-0005-0000-0000-000030000000}"/>
+    <cellStyle name="Font: Calibri, 9pt regular 2" xfId="53" xr:uid="{00000000-0005-0000-0000-000031000000}"/>
+    <cellStyle name="Footnotes: top row" xfId="54" xr:uid="{00000000-0005-0000-0000-000032000000}"/>
+    <cellStyle name="Footnotes: top row 2" xfId="55" xr:uid="{00000000-0005-0000-0000-000033000000}"/>
+    <cellStyle name="Good 2" xfId="56" xr:uid="{00000000-0005-0000-0000-000034000000}"/>
+    <cellStyle name="Header: bottom row" xfId="57" xr:uid="{00000000-0005-0000-0000-000035000000}"/>
+    <cellStyle name="Header: bottom row 2" xfId="58" xr:uid="{00000000-0005-0000-0000-000036000000}"/>
+    <cellStyle name="Heading 1 2" xfId="59" xr:uid="{00000000-0005-0000-0000-000037000000}"/>
+    <cellStyle name="Heading 2 2" xfId="60" xr:uid="{00000000-0005-0000-0000-000038000000}"/>
+    <cellStyle name="Heading 3 2" xfId="61" xr:uid="{00000000-0005-0000-0000-000039000000}"/>
+    <cellStyle name="Heading 4 2" xfId="62" xr:uid="{00000000-0005-0000-0000-00003A000000}"/>
+    <cellStyle name="Hed Side" xfId="63" xr:uid="{00000000-0005-0000-0000-00003B000000}"/>
+    <cellStyle name="Hed Side 2" xfId="64" xr:uid="{00000000-0005-0000-0000-00003C000000}"/>
+    <cellStyle name="Hed Side bold" xfId="65" xr:uid="{00000000-0005-0000-0000-00003D000000}"/>
+    <cellStyle name="Hed Side Indent" xfId="66" xr:uid="{00000000-0005-0000-0000-00003E000000}"/>
+    <cellStyle name="Hed Side Regular" xfId="67" xr:uid="{00000000-0005-0000-0000-00003F000000}"/>
+    <cellStyle name="Hed Side_1-1A-Regular" xfId="68" xr:uid="{00000000-0005-0000-0000-000040000000}"/>
+    <cellStyle name="Hed Top" xfId="69" xr:uid="{00000000-0005-0000-0000-000041000000}"/>
+    <cellStyle name="Hed Top - SECTION" xfId="70" xr:uid="{00000000-0005-0000-0000-000042000000}"/>
+    <cellStyle name="Hed Top_3-new4" xfId="71" xr:uid="{00000000-0005-0000-0000-000043000000}"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Hyperlink 2" xfId="72"/>
-    <cellStyle name="Input 2" xfId="73"/>
-    <cellStyle name="Linked Cell 2" xfId="74"/>
-    <cellStyle name="Neutral 2" xfId="75"/>
+    <cellStyle name="Hyperlink 2" xfId="72" xr:uid="{00000000-0005-0000-0000-000045000000}"/>
+    <cellStyle name="Input 2" xfId="73" xr:uid="{00000000-0005-0000-0000-000046000000}"/>
+    <cellStyle name="Linked Cell 2" xfId="74" xr:uid="{00000000-0005-0000-0000-000047000000}"/>
+    <cellStyle name="Neutral 2" xfId="75" xr:uid="{00000000-0005-0000-0000-000048000000}"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="76"/>
-    <cellStyle name="Normal 11" xfId="77"/>
-    <cellStyle name="Normal 2" xfId="2"/>
-    <cellStyle name="Normal 2 2" xfId="78"/>
-    <cellStyle name="Normal 2 3" xfId="79"/>
-    <cellStyle name="Normal 3" xfId="3"/>
-    <cellStyle name="Normal 3 2" xfId="80"/>
-    <cellStyle name="Normal 3 2 2" xfId="81"/>
-    <cellStyle name="Normal 3 2 2 2" xfId="82"/>
-    <cellStyle name="Normal 3 2 3" xfId="83"/>
-    <cellStyle name="Normal 3 3" xfId="84"/>
-    <cellStyle name="Normal 3 3 2" xfId="85"/>
-    <cellStyle name="Normal 3 3 2 2" xfId="86"/>
-    <cellStyle name="Normal 3 3 3" xfId="87"/>
-    <cellStyle name="Normal 3 4" xfId="88"/>
-    <cellStyle name="Normal 3 4 2" xfId="89"/>
-    <cellStyle name="Normal 3 5" xfId="90"/>
-    <cellStyle name="Normal 3 6" xfId="91"/>
-    <cellStyle name="Normal 3 7" xfId="92"/>
-    <cellStyle name="Normal 4" xfId="93"/>
-    <cellStyle name="Normal 4 2" xfId="94"/>
-    <cellStyle name="Normal 4 2 2" xfId="95"/>
-    <cellStyle name="Normal 4 2 2 2" xfId="96"/>
-    <cellStyle name="Normal 4 2 3" xfId="97"/>
-    <cellStyle name="Normal 4 3" xfId="98"/>
-    <cellStyle name="Normal 4 3 2" xfId="99"/>
-    <cellStyle name="Normal 4 3 2 2" xfId="100"/>
-    <cellStyle name="Normal 4 3 3" xfId="101"/>
-    <cellStyle name="Normal 4 4" xfId="102"/>
-    <cellStyle name="Normal 4 4 2" xfId="103"/>
-    <cellStyle name="Normal 4 5" xfId="104"/>
-    <cellStyle name="Normal 4 6" xfId="105"/>
-    <cellStyle name="Normal 4 7" xfId="106"/>
-    <cellStyle name="Normal 5" xfId="107"/>
-    <cellStyle name="Normal 5 2" xfId="108"/>
-    <cellStyle name="Normal 5 3" xfId="109"/>
-    <cellStyle name="Normal 6" xfId="110"/>
-    <cellStyle name="Normal 6 2" xfId="111"/>
-    <cellStyle name="Normal 7" xfId="112"/>
-    <cellStyle name="Normal 7 2" xfId="113"/>
-    <cellStyle name="Normal 8" xfId="114"/>
-    <cellStyle name="Normal 9" xfId="115"/>
-    <cellStyle name="Note 2" xfId="116"/>
-    <cellStyle name="Note 2 2" xfId="117"/>
-    <cellStyle name="Output 2" xfId="118"/>
-    <cellStyle name="Parent row" xfId="119"/>
-    <cellStyle name="Parent row 2" xfId="120"/>
-    <cellStyle name="Percent 2" xfId="121"/>
-    <cellStyle name="Percent 2 2" xfId="122"/>
-    <cellStyle name="Percent 3" xfId="123"/>
-    <cellStyle name="Percent 3 2" xfId="124"/>
-    <cellStyle name="Percent 4" xfId="125"/>
-    <cellStyle name="Reference" xfId="126"/>
-    <cellStyle name="Row heading" xfId="127"/>
-    <cellStyle name="Source Hed" xfId="128"/>
-    <cellStyle name="Source Letter" xfId="129"/>
-    <cellStyle name="Source Superscript" xfId="130"/>
-    <cellStyle name="Source Superscript 2" xfId="131"/>
-    <cellStyle name="Source Text" xfId="132"/>
-    <cellStyle name="Source Text 2" xfId="133"/>
-    <cellStyle name="State" xfId="134"/>
-    <cellStyle name="Superscript" xfId="135"/>
-    <cellStyle name="Table Data" xfId="136"/>
-    <cellStyle name="Table Head Top" xfId="137"/>
-    <cellStyle name="Table Hed Side" xfId="138"/>
-    <cellStyle name="Table title" xfId="139"/>
-    <cellStyle name="Table title 2" xfId="140"/>
-    <cellStyle name="Title 2" xfId="141"/>
-    <cellStyle name="Title Text" xfId="142"/>
-    <cellStyle name="Title Text 1" xfId="143"/>
-    <cellStyle name="Title Text 2" xfId="144"/>
-    <cellStyle name="Title-1" xfId="145"/>
-    <cellStyle name="Title-2" xfId="146"/>
-    <cellStyle name="Title-3" xfId="147"/>
-    <cellStyle name="Total 2" xfId="148"/>
-    <cellStyle name="Warning Text 2" xfId="149"/>
-    <cellStyle name="Wrap" xfId="150"/>
-    <cellStyle name="Wrap Bold" xfId="151"/>
-    <cellStyle name="Wrap Title" xfId="152"/>
-    <cellStyle name="Wrap_NTS99-~11" xfId="153"/>
+    <cellStyle name="Normal 10" xfId="76" xr:uid="{00000000-0005-0000-0000-00004A000000}"/>
+    <cellStyle name="Normal 11" xfId="77" xr:uid="{00000000-0005-0000-0000-00004B000000}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{00000000-0005-0000-0000-00004C000000}"/>
+    <cellStyle name="Normal 2 2" xfId="78" xr:uid="{00000000-0005-0000-0000-00004D000000}"/>
+    <cellStyle name="Normal 2 3" xfId="79" xr:uid="{00000000-0005-0000-0000-00004E000000}"/>
+    <cellStyle name="Normal 3" xfId="3" xr:uid="{00000000-0005-0000-0000-00004F000000}"/>
+    <cellStyle name="Normal 3 2" xfId="80" xr:uid="{00000000-0005-0000-0000-000050000000}"/>
+    <cellStyle name="Normal 3 2 2" xfId="81" xr:uid="{00000000-0005-0000-0000-000051000000}"/>
+    <cellStyle name="Normal 3 2 2 2" xfId="82" xr:uid="{00000000-0005-0000-0000-000052000000}"/>
+    <cellStyle name="Normal 3 2 3" xfId="83" xr:uid="{00000000-0005-0000-0000-000053000000}"/>
+    <cellStyle name="Normal 3 3" xfId="84" xr:uid="{00000000-0005-0000-0000-000054000000}"/>
+    <cellStyle name="Normal 3 3 2" xfId="85" xr:uid="{00000000-0005-0000-0000-000055000000}"/>
+    <cellStyle name="Normal 3 3 2 2" xfId="86" xr:uid="{00000000-0005-0000-0000-000056000000}"/>
+    <cellStyle name="Normal 3 3 3" xfId="87" xr:uid="{00000000-0005-0000-0000-000057000000}"/>
+    <cellStyle name="Normal 3 4" xfId="88" xr:uid="{00000000-0005-0000-0000-000058000000}"/>
+    <cellStyle name="Normal 3 4 2" xfId="89" xr:uid="{00000000-0005-0000-0000-000059000000}"/>
+    <cellStyle name="Normal 3 5" xfId="90" xr:uid="{00000000-0005-0000-0000-00005A000000}"/>
+    <cellStyle name="Normal 3 6" xfId="91" xr:uid="{00000000-0005-0000-0000-00005B000000}"/>
+    <cellStyle name="Normal 3 7" xfId="92" xr:uid="{00000000-0005-0000-0000-00005C000000}"/>
+    <cellStyle name="Normal 4" xfId="93" xr:uid="{00000000-0005-0000-0000-00005D000000}"/>
+    <cellStyle name="Normal 4 2" xfId="94" xr:uid="{00000000-0005-0000-0000-00005E000000}"/>
+    <cellStyle name="Normal 4 2 2" xfId="95" xr:uid="{00000000-0005-0000-0000-00005F000000}"/>
+    <cellStyle name="Normal 4 2 2 2" xfId="96" xr:uid="{00000000-0005-0000-0000-000060000000}"/>
+    <cellStyle name="Normal 4 2 3" xfId="97" xr:uid="{00000000-0005-0000-0000-000061000000}"/>
+    <cellStyle name="Normal 4 3" xfId="98" xr:uid="{00000000-0005-0000-0000-000062000000}"/>
+    <cellStyle name="Normal 4 3 2" xfId="99" xr:uid="{00000000-0005-0000-0000-000063000000}"/>
+    <cellStyle name="Normal 4 3 2 2" xfId="100" xr:uid="{00000000-0005-0000-0000-000064000000}"/>
+    <cellStyle name="Normal 4 3 3" xfId="101" xr:uid="{00000000-0005-0000-0000-000065000000}"/>
+    <cellStyle name="Normal 4 4" xfId="102" xr:uid="{00000000-0005-0000-0000-000066000000}"/>
+    <cellStyle name="Normal 4 4 2" xfId="103" xr:uid="{00000000-0005-0000-0000-000067000000}"/>
+    <cellStyle name="Normal 4 5" xfId="104" xr:uid="{00000000-0005-0000-0000-000068000000}"/>
+    <cellStyle name="Normal 4 6" xfId="105" xr:uid="{00000000-0005-0000-0000-000069000000}"/>
+    <cellStyle name="Normal 4 7" xfId="106" xr:uid="{00000000-0005-0000-0000-00006A000000}"/>
+    <cellStyle name="Normal 5" xfId="107" xr:uid="{00000000-0005-0000-0000-00006B000000}"/>
+    <cellStyle name="Normal 5 2" xfId="108" xr:uid="{00000000-0005-0000-0000-00006C000000}"/>
+    <cellStyle name="Normal 5 3" xfId="109" xr:uid="{00000000-0005-0000-0000-00006D000000}"/>
+    <cellStyle name="Normal 6" xfId="110" xr:uid="{00000000-0005-0000-0000-00006E000000}"/>
+    <cellStyle name="Normal 6 2" xfId="111" xr:uid="{00000000-0005-0000-0000-00006F000000}"/>
+    <cellStyle name="Normal 7" xfId="112" xr:uid="{00000000-0005-0000-0000-000070000000}"/>
+    <cellStyle name="Normal 7 2" xfId="113" xr:uid="{00000000-0005-0000-0000-000071000000}"/>
+    <cellStyle name="Normal 8" xfId="114" xr:uid="{00000000-0005-0000-0000-000072000000}"/>
+    <cellStyle name="Normal 9" xfId="115" xr:uid="{00000000-0005-0000-0000-000073000000}"/>
+    <cellStyle name="Note 2" xfId="116" xr:uid="{00000000-0005-0000-0000-000074000000}"/>
+    <cellStyle name="Note 2 2" xfId="117" xr:uid="{00000000-0005-0000-0000-000075000000}"/>
+    <cellStyle name="Output 2" xfId="118" xr:uid="{00000000-0005-0000-0000-000076000000}"/>
+    <cellStyle name="Parent row" xfId="119" xr:uid="{00000000-0005-0000-0000-000077000000}"/>
+    <cellStyle name="Parent row 2" xfId="120" xr:uid="{00000000-0005-0000-0000-000078000000}"/>
+    <cellStyle name="Percent 2" xfId="121" xr:uid="{00000000-0005-0000-0000-000079000000}"/>
+    <cellStyle name="Percent 2 2" xfId="122" xr:uid="{00000000-0005-0000-0000-00007A000000}"/>
+    <cellStyle name="Percent 3" xfId="123" xr:uid="{00000000-0005-0000-0000-00007B000000}"/>
+    <cellStyle name="Percent 3 2" xfId="124" xr:uid="{00000000-0005-0000-0000-00007C000000}"/>
+    <cellStyle name="Percent 4" xfId="125" xr:uid="{00000000-0005-0000-0000-00007D000000}"/>
+    <cellStyle name="Reference" xfId="126" xr:uid="{00000000-0005-0000-0000-00007E000000}"/>
+    <cellStyle name="Row heading" xfId="127" xr:uid="{00000000-0005-0000-0000-00007F000000}"/>
+    <cellStyle name="Source Hed" xfId="128" xr:uid="{00000000-0005-0000-0000-000080000000}"/>
+    <cellStyle name="Source Letter" xfId="129" xr:uid="{00000000-0005-0000-0000-000081000000}"/>
+    <cellStyle name="Source Superscript" xfId="130" xr:uid="{00000000-0005-0000-0000-000082000000}"/>
+    <cellStyle name="Source Superscript 2" xfId="131" xr:uid="{00000000-0005-0000-0000-000083000000}"/>
+    <cellStyle name="Source Text" xfId="132" xr:uid="{00000000-0005-0000-0000-000084000000}"/>
+    <cellStyle name="Source Text 2" xfId="133" xr:uid="{00000000-0005-0000-0000-000085000000}"/>
+    <cellStyle name="State" xfId="134" xr:uid="{00000000-0005-0000-0000-000086000000}"/>
+    <cellStyle name="Superscript" xfId="135" xr:uid="{00000000-0005-0000-0000-000087000000}"/>
+    <cellStyle name="Table Data" xfId="136" xr:uid="{00000000-0005-0000-0000-000088000000}"/>
+    <cellStyle name="Table Head Top" xfId="137" xr:uid="{00000000-0005-0000-0000-000089000000}"/>
+    <cellStyle name="Table Hed Side" xfId="138" xr:uid="{00000000-0005-0000-0000-00008A000000}"/>
+    <cellStyle name="Table title" xfId="139" xr:uid="{00000000-0005-0000-0000-00008B000000}"/>
+    <cellStyle name="Table title 2" xfId="140" xr:uid="{00000000-0005-0000-0000-00008C000000}"/>
+    <cellStyle name="Title 2" xfId="141" xr:uid="{00000000-0005-0000-0000-00008D000000}"/>
+    <cellStyle name="Title Text" xfId="142" xr:uid="{00000000-0005-0000-0000-00008E000000}"/>
+    <cellStyle name="Title Text 1" xfId="143" xr:uid="{00000000-0005-0000-0000-00008F000000}"/>
+    <cellStyle name="Title Text 2" xfId="144" xr:uid="{00000000-0005-0000-0000-000090000000}"/>
+    <cellStyle name="Title-1" xfId="145" xr:uid="{00000000-0005-0000-0000-000091000000}"/>
+    <cellStyle name="Title-2" xfId="146" xr:uid="{00000000-0005-0000-0000-000092000000}"/>
+    <cellStyle name="Title-3" xfId="147" xr:uid="{00000000-0005-0000-0000-000093000000}"/>
+    <cellStyle name="Total 2" xfId="148" xr:uid="{00000000-0005-0000-0000-000094000000}"/>
+    <cellStyle name="Warning Text 2" xfId="149" xr:uid="{00000000-0005-0000-0000-000095000000}"/>
+    <cellStyle name="Wrap" xfId="150" xr:uid="{00000000-0005-0000-0000-000096000000}"/>
+    <cellStyle name="Wrap Bold" xfId="151" xr:uid="{00000000-0005-0000-0000-000097000000}"/>
+    <cellStyle name="Wrap Title" xfId="152" xr:uid="{00000000-0005-0000-0000-000098000000}"/>
+    <cellStyle name="Wrap_NTS99-~11" xfId="153" xr:uid="{00000000-0005-0000-0000-000099000000}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -6667,6 +6668,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -6702,6 +6720,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -6877,16 +6912,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="2" max="2" width="51.59765625" customWidth="1"/>
+    <col min="2" max="2" width="51.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -7067,14 +7102,14 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
   <dimension ref="A1:C3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="33.86328125" customWidth="1"/>
+    <col min="1" max="1" width="33.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -7117,7 +7152,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0A00-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
@@ -7130,49 +7165,49 @@
       <selection pane="bottomRight" activeCell="AJ3" sqref="AJ3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="12.75"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="12.5"/>
   <cols>
-    <col min="1" max="1" width="37.73046875" style="39" customWidth="1"/>
-    <col min="2" max="33" width="8.73046875" style="39" customWidth="1"/>
-    <col min="34" max="16384" width="9.1328125" style="39"/>
+    <col min="1" max="1" width="37.7265625" style="39" customWidth="1"/>
+    <col min="2" max="33" width="8.7265625" style="39" customWidth="1"/>
+    <col min="34" max="16384" width="9.08984375" style="39"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="29" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
-      <c r="A1" s="101" t="s">
+      <c r="A1" s="88" t="s">
         <v>186</v>
       </c>
-      <c r="B1" s="101"/>
-      <c r="C1" s="101"/>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
-      <c r="I1" s="101"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="101"/>
-      <c r="O1" s="101"/>
-      <c r="P1" s="101"/>
-      <c r="Q1" s="101"/>
-      <c r="R1" s="101"/>
-      <c r="S1" s="101"/>
-      <c r="T1" s="101"/>
-      <c r="U1" s="101"/>
-      <c r="V1" s="101"/>
-      <c r="W1" s="101"/>
-      <c r="X1" s="101"/>
-      <c r="Y1" s="101"/>
-      <c r="Z1" s="101"/>
-      <c r="AA1" s="101"/>
-      <c r="AB1" s="101"/>
-      <c r="AC1" s="101"/>
-      <c r="AD1" s="101"/>
-      <c r="AE1" s="101"/>
-      <c r="AF1" s="101"/>
-      <c r="AG1" s="101"/>
+      <c r="B1" s="88"/>
+      <c r="C1" s="88"/>
+      <c r="D1" s="88"/>
+      <c r="E1" s="88"/>
+      <c r="F1" s="88"/>
+      <c r="G1" s="88"/>
+      <c r="H1" s="88"/>
+      <c r="I1" s="88"/>
+      <c r="J1" s="88"/>
+      <c r="K1" s="88"/>
+      <c r="L1" s="88"/>
+      <c r="M1" s="88"/>
+      <c r="N1" s="88"/>
+      <c r="O1" s="88"/>
+      <c r="P1" s="88"/>
+      <c r="Q1" s="88"/>
+      <c r="R1" s="88"/>
+      <c r="S1" s="88"/>
+      <c r="T1" s="88"/>
+      <c r="U1" s="88"/>
+      <c r="V1" s="88"/>
+      <c r="W1" s="88"/>
+      <c r="X1" s="88"/>
+      <c r="Y1" s="88"/>
+      <c r="Z1" s="88"/>
+      <c r="AA1" s="88"/>
+      <c r="AB1" s="88"/>
+      <c r="AC1" s="88"/>
+      <c r="AD1" s="88"/>
+      <c r="AE1" s="88"/>
+      <c r="AF1" s="88"/>
+      <c r="AG1" s="88"/>
       <c r="AI1" s="29" t="s">
         <v>187</v>
       </c>
@@ -9976,363 +10011,363 @@
       </c>
     </row>
     <row r="28" spans="1:36" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A28" s="102" t="s">
+      <c r="A28" s="89" t="s">
         <v>214</v>
       </c>
-      <c r="B28" s="102"/>
-      <c r="C28" s="102"/>
-      <c r="D28" s="102"/>
-      <c r="E28" s="102"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="102"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="102"/>
-      <c r="L28" s="102"/>
-      <c r="M28" s="102"/>
-      <c r="N28" s="102"/>
-      <c r="O28" s="102"/>
-      <c r="P28" s="102"/>
-      <c r="Q28" s="102"/>
-      <c r="R28" s="102"/>
-      <c r="S28" s="102"/>
-      <c r="T28" s="102"/>
-      <c r="U28" s="102"/>
-      <c r="V28" s="102"/>
-      <c r="W28" s="102"/>
-      <c r="X28" s="102"/>
-      <c r="Y28" s="102"/>
-      <c r="Z28" s="102"/>
+      <c r="B28" s="89"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="89"/>
+      <c r="E28" s="89"/>
+      <c r="F28" s="89"/>
+      <c r="G28" s="89"/>
+      <c r="H28" s="89"/>
+      <c r="I28" s="89"/>
+      <c r="J28" s="89"/>
+      <c r="K28" s="89"/>
+      <c r="L28" s="89"/>
+      <c r="M28" s="89"/>
+      <c r="N28" s="89"/>
+      <c r="O28" s="89"/>
+      <c r="P28" s="89"/>
+      <c r="Q28" s="89"/>
+      <c r="R28" s="89"/>
+      <c r="S28" s="89"/>
+      <c r="T28" s="89"/>
+      <c r="U28" s="89"/>
+      <c r="V28" s="89"/>
+      <c r="W28" s="89"/>
+      <c r="X28" s="89"/>
+      <c r="Y28" s="89"/>
+      <c r="Z28" s="89"/>
       <c r="AI28" s="39"/>
     </row>
     <row r="29" spans="1:36" s="34" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A29" s="103"/>
-      <c r="B29" s="103"/>
-      <c r="C29" s="103"/>
-      <c r="D29" s="103"/>
-      <c r="E29" s="103"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="103"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="103"/>
-      <c r="J29" s="103"/>
-      <c r="K29" s="103"/>
-      <c r="L29" s="103"/>
-      <c r="M29" s="103"/>
-      <c r="N29" s="103"/>
-      <c r="O29" s="103"/>
-      <c r="P29" s="103"/>
-      <c r="Q29" s="103"/>
-      <c r="R29" s="103"/>
-      <c r="S29" s="103"/>
-      <c r="T29" s="103"/>
-      <c r="U29" s="103"/>
-      <c r="V29" s="103"/>
-      <c r="W29" s="103"/>
-      <c r="X29" s="103"/>
-      <c r="Y29" s="103"/>
-      <c r="Z29" s="103"/>
+      <c r="A29" s="90"/>
+      <c r="B29" s="90"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="90"/>
+      <c r="E29" s="90"/>
+      <c r="F29" s="90"/>
+      <c r="G29" s="90"/>
+      <c r="H29" s="90"/>
+      <c r="I29" s="90"/>
+      <c r="J29" s="90"/>
+      <c r="K29" s="90"/>
+      <c r="L29" s="90"/>
+      <c r="M29" s="90"/>
+      <c r="N29" s="90"/>
+      <c r="O29" s="90"/>
+      <c r="P29" s="90"/>
+      <c r="Q29" s="90"/>
+      <c r="R29" s="90"/>
+      <c r="S29" s="90"/>
+      <c r="T29" s="90"/>
+      <c r="U29" s="90"/>
+      <c r="V29" s="90"/>
+      <c r="W29" s="90"/>
+      <c r="X29" s="90"/>
+      <c r="Y29" s="90"/>
+      <c r="Z29" s="90"/>
     </row>
     <row r="30" spans="1:36" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A30" s="104" t="s">
+      <c r="A30" s="91" t="s">
         <v>215</v>
       </c>
-      <c r="B30" s="104"/>
-      <c r="C30" s="104"/>
-      <c r="D30" s="104"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="104"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="104"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="104"/>
-      <c r="M30" s="104"/>
-      <c r="N30" s="104"/>
-      <c r="O30" s="104"/>
-      <c r="P30" s="104"/>
-      <c r="Q30" s="104"/>
-      <c r="R30" s="104"/>
-      <c r="S30" s="104"/>
-      <c r="T30" s="104"/>
-      <c r="U30" s="104"/>
-      <c r="V30" s="104"/>
-      <c r="W30" s="104"/>
-      <c r="X30" s="104"/>
-      <c r="Y30" s="104"/>
-      <c r="Z30" s="104"/>
+      <c r="B30" s="91"/>
+      <c r="C30" s="91"/>
+      <c r="D30" s="91"/>
+      <c r="E30" s="91"/>
+      <c r="F30" s="91"/>
+      <c r="G30" s="91"/>
+      <c r="H30" s="91"/>
+      <c r="I30" s="91"/>
+      <c r="J30" s="91"/>
+      <c r="K30" s="91"/>
+      <c r="L30" s="91"/>
+      <c r="M30" s="91"/>
+      <c r="N30" s="91"/>
+      <c r="O30" s="91"/>
+      <c r="P30" s="91"/>
+      <c r="Q30" s="91"/>
+      <c r="R30" s="91"/>
+      <c r="S30" s="91"/>
+      <c r="T30" s="91"/>
+      <c r="U30" s="91"/>
+      <c r="V30" s="91"/>
+      <c r="W30" s="91"/>
+      <c r="X30" s="91"/>
+      <c r="Y30" s="91"/>
+      <c r="Z30" s="91"/>
     </row>
     <row r="31" spans="1:36" s="56" customFormat="1" ht="38.25" customHeight="1">
-      <c r="A31" s="104" t="s">
+      <c r="A31" s="91" t="s">
         <v>216</v>
       </c>
-      <c r="B31" s="104"/>
-      <c r="C31" s="104"/>
-      <c r="D31" s="104"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="104"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="104"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="104"/>
-      <c r="N31" s="104"/>
-      <c r="O31" s="104"/>
-      <c r="P31" s="104"/>
-      <c r="Q31" s="104"/>
-      <c r="R31" s="104"/>
-      <c r="S31" s="104"/>
-      <c r="T31" s="104"/>
-      <c r="U31" s="104"/>
-      <c r="V31" s="104"/>
-      <c r="W31" s="104"/>
-      <c r="X31" s="104"/>
-      <c r="Y31" s="104"/>
-      <c r="Z31" s="104"/>
+      <c r="B31" s="91"/>
+      <c r="C31" s="91"/>
+      <c r="D31" s="91"/>
+      <c r="E31" s="91"/>
+      <c r="F31" s="91"/>
+      <c r="G31" s="91"/>
+      <c r="H31" s="91"/>
+      <c r="I31" s="91"/>
+      <c r="J31" s="91"/>
+      <c r="K31" s="91"/>
+      <c r="L31" s="91"/>
+      <c r="M31" s="91"/>
+      <c r="N31" s="91"/>
+      <c r="O31" s="91"/>
+      <c r="P31" s="91"/>
+      <c r="Q31" s="91"/>
+      <c r="R31" s="91"/>
+      <c r="S31" s="91"/>
+      <c r="T31" s="91"/>
+      <c r="U31" s="91"/>
+      <c r="V31" s="91"/>
+      <c r="W31" s="91"/>
+      <c r="X31" s="91"/>
+      <c r="Y31" s="91"/>
+      <c r="Z31" s="91"/>
     </row>
     <row r="32" spans="1:36" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A32" s="93" t="s">
+      <c r="A32" s="87" t="s">
         <v>217</v>
       </c>
-      <c r="B32" s="93"/>
-      <c r="C32" s="93"/>
-      <c r="D32" s="93"/>
-      <c r="E32" s="93"/>
-      <c r="F32" s="93"/>
-      <c r="G32" s="93"/>
-      <c r="H32" s="93"/>
-      <c r="I32" s="93"/>
-      <c r="J32" s="93"/>
-      <c r="K32" s="93"/>
-      <c r="L32" s="93"/>
-      <c r="M32" s="93"/>
-      <c r="N32" s="93"/>
-      <c r="O32" s="93"/>
-      <c r="P32" s="93"/>
-      <c r="Q32" s="93"/>
-      <c r="R32" s="93"/>
-      <c r="S32" s="93"/>
-      <c r="T32" s="93"/>
-      <c r="U32" s="93"/>
-      <c r="V32" s="93"/>
-      <c r="W32" s="93"/>
-      <c r="X32" s="93"/>
-      <c r="Y32" s="93"/>
-      <c r="Z32" s="93"/>
+      <c r="B32" s="87"/>
+      <c r="C32" s="87"/>
+      <c r="D32" s="87"/>
+      <c r="E32" s="87"/>
+      <c r="F32" s="87"/>
+      <c r="G32" s="87"/>
+      <c r="H32" s="87"/>
+      <c r="I32" s="87"/>
+      <c r="J32" s="87"/>
+      <c r="K32" s="87"/>
+      <c r="L32" s="87"/>
+      <c r="M32" s="87"/>
+      <c r="N32" s="87"/>
+      <c r="O32" s="87"/>
+      <c r="P32" s="87"/>
+      <c r="Q32" s="87"/>
+      <c r="R32" s="87"/>
+      <c r="S32" s="87"/>
+      <c r="T32" s="87"/>
+      <c r="U32" s="87"/>
+      <c r="V32" s="87"/>
+      <c r="W32" s="87"/>
+      <c r="X32" s="87"/>
+      <c r="Y32" s="87"/>
+      <c r="Z32" s="87"/>
     </row>
     <row r="33" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A33" s="93" t="s">
+      <c r="A33" s="87" t="s">
         <v>218</v>
       </c>
-      <c r="B33" s="93"/>
-      <c r="C33" s="93"/>
-      <c r="D33" s="93"/>
-      <c r="E33" s="93"/>
-      <c r="F33" s="93"/>
-      <c r="G33" s="93"/>
-      <c r="H33" s="93"/>
-      <c r="I33" s="93"/>
-      <c r="J33" s="93"/>
-      <c r="K33" s="93"/>
-      <c r="L33" s="93"/>
-      <c r="M33" s="93"/>
-      <c r="N33" s="93"/>
-      <c r="O33" s="93"/>
-      <c r="P33" s="93"/>
-      <c r="Q33" s="93"/>
-      <c r="R33" s="93"/>
-      <c r="S33" s="93"/>
-      <c r="T33" s="93"/>
-      <c r="U33" s="93"/>
-      <c r="V33" s="93"/>
-      <c r="W33" s="93"/>
-      <c r="X33" s="93"/>
-      <c r="Y33" s="93"/>
-      <c r="Z33" s="93"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="87"/>
+      <c r="D33" s="87"/>
+      <c r="E33" s="87"/>
+      <c r="F33" s="87"/>
+      <c r="G33" s="87"/>
+      <c r="H33" s="87"/>
+      <c r="I33" s="87"/>
+      <c r="J33" s="87"/>
+      <c r="K33" s="87"/>
+      <c r="L33" s="87"/>
+      <c r="M33" s="87"/>
+      <c r="N33" s="87"/>
+      <c r="O33" s="87"/>
+      <c r="P33" s="87"/>
+      <c r="Q33" s="87"/>
+      <c r="R33" s="87"/>
+      <c r="S33" s="87"/>
+      <c r="T33" s="87"/>
+      <c r="U33" s="87"/>
+      <c r="V33" s="87"/>
+      <c r="W33" s="87"/>
+      <c r="X33" s="87"/>
+      <c r="Y33" s="87"/>
+      <c r="Z33" s="87"/>
     </row>
     <row r="34" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A34" s="93" t="s">
+      <c r="A34" s="87" t="s">
         <v>219</v>
       </c>
-      <c r="B34" s="93"/>
-      <c r="C34" s="93"/>
-      <c r="D34" s="93"/>
-      <c r="E34" s="93"/>
-      <c r="F34" s="93"/>
-      <c r="G34" s="93"/>
-      <c r="H34" s="93"/>
-      <c r="I34" s="93"/>
-      <c r="J34" s="93"/>
-      <c r="K34" s="93"/>
-      <c r="L34" s="93"/>
-      <c r="M34" s="93"/>
-      <c r="N34" s="93"/>
-      <c r="O34" s="93"/>
-      <c r="P34" s="93"/>
-      <c r="Q34" s="93"/>
-      <c r="R34" s="93"/>
-      <c r="S34" s="93"/>
-      <c r="T34" s="93"/>
-      <c r="U34" s="93"/>
-      <c r="V34" s="93"/>
-      <c r="W34" s="93"/>
-      <c r="X34" s="93"/>
-      <c r="Y34" s="93"/>
-      <c r="Z34" s="93"/>
+      <c r="B34" s="87"/>
+      <c r="C34" s="87"/>
+      <c r="D34" s="87"/>
+      <c r="E34" s="87"/>
+      <c r="F34" s="87"/>
+      <c r="G34" s="87"/>
+      <c r="H34" s="87"/>
+      <c r="I34" s="87"/>
+      <c r="J34" s="87"/>
+      <c r="K34" s="87"/>
+      <c r="L34" s="87"/>
+      <c r="M34" s="87"/>
+      <c r="N34" s="87"/>
+      <c r="O34" s="87"/>
+      <c r="P34" s="87"/>
+      <c r="Q34" s="87"/>
+      <c r="R34" s="87"/>
+      <c r="S34" s="87"/>
+      <c r="T34" s="87"/>
+      <c r="U34" s="87"/>
+      <c r="V34" s="87"/>
+      <c r="W34" s="87"/>
+      <c r="X34" s="87"/>
+      <c r="Y34" s="87"/>
+      <c r="Z34" s="87"/>
     </row>
     <row r="35" spans="1:26" s="56" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A35" s="104" t="s">
+      <c r="A35" s="91" t="s">
         <v>220</v>
       </c>
-      <c r="B35" s="104"/>
-      <c r="C35" s="104"/>
-      <c r="D35" s="104"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="104"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="104"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="104"/>
-      <c r="K35" s="104"/>
-      <c r="L35" s="104"/>
-      <c r="M35" s="104"/>
-      <c r="N35" s="104"/>
-      <c r="O35" s="104"/>
-      <c r="P35" s="104"/>
-      <c r="Q35" s="104"/>
-      <c r="R35" s="104"/>
-      <c r="S35" s="104"/>
-      <c r="T35" s="104"/>
-      <c r="U35" s="104"/>
-      <c r="V35" s="104"/>
-      <c r="W35" s="104"/>
-      <c r="X35" s="104"/>
-      <c r="Y35" s="104"/>
-      <c r="Z35" s="104"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="91"/>
+      <c r="E35" s="91"/>
+      <c r="F35" s="91"/>
+      <c r="G35" s="91"/>
+      <c r="H35" s="91"/>
+      <c r="I35" s="91"/>
+      <c r="J35" s="91"/>
+      <c r="K35" s="91"/>
+      <c r="L35" s="91"/>
+      <c r="M35" s="91"/>
+      <c r="N35" s="91"/>
+      <c r="O35" s="91"/>
+      <c r="P35" s="91"/>
+      <c r="Q35" s="91"/>
+      <c r="R35" s="91"/>
+      <c r="S35" s="91"/>
+      <c r="T35" s="91"/>
+      <c r="U35" s="91"/>
+      <c r="V35" s="91"/>
+      <c r="W35" s="91"/>
+      <c r="X35" s="91"/>
+      <c r="Y35" s="91"/>
+      <c r="Z35" s="91"/>
     </row>
     <row r="36" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A36" s="105" t="s">
+      <c r="A36" s="92" t="s">
         <v>221</v>
       </c>
-      <c r="B36" s="105"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="105"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="105"/>
-      <c r="K36" s="105"/>
-      <c r="L36" s="105"/>
-      <c r="M36" s="105"/>
-      <c r="N36" s="105"/>
-      <c r="O36" s="105"/>
-      <c r="P36" s="105"/>
-      <c r="Q36" s="105"/>
-      <c r="R36" s="105"/>
-      <c r="S36" s="105"/>
-      <c r="T36" s="105"/>
-      <c r="U36" s="105"/>
-      <c r="V36" s="105"/>
-      <c r="W36" s="105"/>
-      <c r="X36" s="105"/>
-      <c r="Y36" s="105"/>
-      <c r="Z36" s="105"/>
+      <c r="B36" s="92"/>
+      <c r="C36" s="92"/>
+      <c r="D36" s="92"/>
+      <c r="E36" s="92"/>
+      <c r="F36" s="92"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="92"/>
+      <c r="I36" s="92"/>
+      <c r="J36" s="92"/>
+      <c r="K36" s="92"/>
+      <c r="L36" s="92"/>
+      <c r="M36" s="92"/>
+      <c r="N36" s="92"/>
+      <c r="O36" s="92"/>
+      <c r="P36" s="92"/>
+      <c r="Q36" s="92"/>
+      <c r="R36" s="92"/>
+      <c r="S36" s="92"/>
+      <c r="T36" s="92"/>
+      <c r="U36" s="92"/>
+      <c r="V36" s="92"/>
+      <c r="W36" s="92"/>
+      <c r="X36" s="92"/>
+      <c r="Y36" s="92"/>
+      <c r="Z36" s="92"/>
     </row>
     <row r="37" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A37" s="93" t="s">
+      <c r="A37" s="87" t="s">
         <v>222</v>
       </c>
-      <c r="B37" s="93"/>
-      <c r="C37" s="93"/>
-      <c r="D37" s="93"/>
-      <c r="E37" s="93"/>
-      <c r="F37" s="93"/>
-      <c r="G37" s="93"/>
-      <c r="H37" s="93"/>
-      <c r="I37" s="93"/>
-      <c r="J37" s="93"/>
-      <c r="K37" s="93"/>
-      <c r="L37" s="93"/>
-      <c r="M37" s="93"/>
-      <c r="N37" s="93"/>
-      <c r="O37" s="93"/>
-      <c r="P37" s="93"/>
-      <c r="Q37" s="93"/>
-      <c r="R37" s="93"/>
-      <c r="S37" s="93"/>
-      <c r="T37" s="93"/>
-      <c r="U37" s="93"/>
-      <c r="V37" s="93"/>
-      <c r="W37" s="93"/>
-      <c r="X37" s="93"/>
-      <c r="Y37" s="93"/>
-      <c r="Z37" s="93"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="87"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="87"/>
+      <c r="G37" s="87"/>
+      <c r="H37" s="87"/>
+      <c r="I37" s="87"/>
+      <c r="J37" s="87"/>
+      <c r="K37" s="87"/>
+      <c r="L37" s="87"/>
+      <c r="M37" s="87"/>
+      <c r="N37" s="87"/>
+      <c r="O37" s="87"/>
+      <c r="P37" s="87"/>
+      <c r="Q37" s="87"/>
+      <c r="R37" s="87"/>
+      <c r="S37" s="87"/>
+      <c r="T37" s="87"/>
+      <c r="U37" s="87"/>
+      <c r="V37" s="87"/>
+      <c r="W37" s="87"/>
+      <c r="X37" s="87"/>
+      <c r="Y37" s="87"/>
+      <c r="Z37" s="87"/>
     </row>
     <row r="38" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A38" s="93" t="s">
+      <c r="A38" s="87" t="s">
         <v>223</v>
       </c>
-      <c r="B38" s="93"/>
-      <c r="C38" s="93"/>
-      <c r="D38" s="93"/>
-      <c r="E38" s="93"/>
-      <c r="F38" s="93"/>
-      <c r="G38" s="93"/>
-      <c r="H38" s="93"/>
-      <c r="I38" s="93"/>
-      <c r="J38" s="93"/>
-      <c r="K38" s="93"/>
-      <c r="L38" s="93"/>
-      <c r="M38" s="93"/>
-      <c r="N38" s="93"/>
-      <c r="O38" s="93"/>
-      <c r="P38" s="93"/>
-      <c r="Q38" s="93"/>
-      <c r="R38" s="93"/>
-      <c r="S38" s="93"/>
-      <c r="T38" s="93"/>
-      <c r="U38" s="93"/>
-      <c r="V38" s="93"/>
-      <c r="W38" s="93"/>
-      <c r="X38" s="93"/>
-      <c r="Y38" s="93"/>
-      <c r="Z38" s="93"/>
+      <c r="B38" s="87"/>
+      <c r="C38" s="87"/>
+      <c r="D38" s="87"/>
+      <c r="E38" s="87"/>
+      <c r="F38" s="87"/>
+      <c r="G38" s="87"/>
+      <c r="H38" s="87"/>
+      <c r="I38" s="87"/>
+      <c r="J38" s="87"/>
+      <c r="K38" s="87"/>
+      <c r="L38" s="87"/>
+      <c r="M38" s="87"/>
+      <c r="N38" s="87"/>
+      <c r="O38" s="87"/>
+      <c r="P38" s="87"/>
+      <c r="Q38" s="87"/>
+      <c r="R38" s="87"/>
+      <c r="S38" s="87"/>
+      <c r="T38" s="87"/>
+      <c r="U38" s="87"/>
+      <c r="V38" s="87"/>
+      <c r="W38" s="87"/>
+      <c r="X38" s="87"/>
+      <c r="Y38" s="87"/>
+      <c r="Z38" s="87"/>
     </row>
     <row r="39" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A39" s="93" t="s">
+      <c r="A39" s="87" t="s">
         <v>224</v>
       </c>
-      <c r="B39" s="93"/>
-      <c r="C39" s="93"/>
-      <c r="D39" s="93"/>
-      <c r="E39" s="93"/>
-      <c r="F39" s="93"/>
-      <c r="G39" s="93"/>
-      <c r="H39" s="93"/>
-      <c r="I39" s="93"/>
-      <c r="J39" s="93"/>
-      <c r="K39" s="93"/>
-      <c r="L39" s="93"/>
-      <c r="M39" s="93"/>
-      <c r="N39" s="93"/>
-      <c r="O39" s="93"/>
-      <c r="P39" s="93"/>
-      <c r="Q39" s="93"/>
-      <c r="R39" s="93"/>
-      <c r="S39" s="93"/>
-      <c r="T39" s="93"/>
-      <c r="U39" s="93"/>
-      <c r="V39" s="93"/>
-      <c r="W39" s="93"/>
-      <c r="X39" s="93"/>
-      <c r="Y39" s="93"/>
-      <c r="Z39" s="93"/>
+      <c r="B39" s="87"/>
+      <c r="C39" s="87"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="87"/>
+      <c r="G39" s="87"/>
+      <c r="H39" s="87"/>
+      <c r="I39" s="87"/>
+      <c r="J39" s="87"/>
+      <c r="K39" s="87"/>
+      <c r="L39" s="87"/>
+      <c r="M39" s="87"/>
+      <c r="N39" s="87"/>
+      <c r="O39" s="87"/>
+      <c r="P39" s="87"/>
+      <c r="Q39" s="87"/>
+      <c r="R39" s="87"/>
+      <c r="S39" s="87"/>
+      <c r="T39" s="87"/>
+      <c r="U39" s="87"/>
+      <c r="V39" s="87"/>
+      <c r="W39" s="87"/>
+      <c r="X39" s="87"/>
+      <c r="Y39" s="87"/>
+      <c r="Z39" s="87"/>
     </row>
     <row r="40" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
       <c r="A40" s="94"/>
@@ -10601,1087 +10636,1133 @@
       <c r="Z48" s="100"/>
     </row>
     <row r="49" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A49" s="92" t="s">
+      <c r="A49" s="93" t="s">
         <v>232</v>
       </c>
-      <c r="B49" s="92"/>
-      <c r="C49" s="92"/>
-      <c r="D49" s="92"/>
-      <c r="E49" s="92"/>
-      <c r="F49" s="92"/>
-      <c r="G49" s="92"/>
-      <c r="H49" s="92"/>
-      <c r="I49" s="92"/>
-      <c r="J49" s="92"/>
-      <c r="K49" s="92"/>
-      <c r="L49" s="92"/>
-      <c r="M49" s="92"/>
-      <c r="N49" s="92"/>
-      <c r="O49" s="92"/>
-      <c r="P49" s="92"/>
-      <c r="Q49" s="92"/>
-      <c r="R49" s="92"/>
-      <c r="S49" s="92"/>
-      <c r="T49" s="92"/>
-      <c r="U49" s="92"/>
-      <c r="V49" s="92"/>
-      <c r="W49" s="92"/>
-      <c r="X49" s="92"/>
-      <c r="Y49" s="92"/>
-      <c r="Z49" s="92"/>
+      <c r="B49" s="93"/>
+      <c r="C49" s="93"/>
+      <c r="D49" s="93"/>
+      <c r="E49" s="93"/>
+      <c r="F49" s="93"/>
+      <c r="G49" s="93"/>
+      <c r="H49" s="93"/>
+      <c r="I49" s="93"/>
+      <c r="J49" s="93"/>
+      <c r="K49" s="93"/>
+      <c r="L49" s="93"/>
+      <c r="M49" s="93"/>
+      <c r="N49" s="93"/>
+      <c r="O49" s="93"/>
+      <c r="P49" s="93"/>
+      <c r="Q49" s="93"/>
+      <c r="R49" s="93"/>
+      <c r="S49" s="93"/>
+      <c r="T49" s="93"/>
+      <c r="U49" s="93"/>
+      <c r="V49" s="93"/>
+      <c r="W49" s="93"/>
+      <c r="X49" s="93"/>
+      <c r="Y49" s="93"/>
+      <c r="Z49" s="93"/>
     </row>
     <row r="50" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A50" s="92" t="s">
+      <c r="A50" s="93" t="s">
         <v>233</v>
       </c>
-      <c r="B50" s="92"/>
-      <c r="C50" s="92"/>
-      <c r="D50" s="92"/>
-      <c r="E50" s="92"/>
-      <c r="F50" s="92"/>
-      <c r="G50" s="92"/>
-      <c r="H50" s="92"/>
-      <c r="I50" s="92"/>
-      <c r="J50" s="92"/>
-      <c r="K50" s="92"/>
-      <c r="L50" s="92"/>
-      <c r="M50" s="92"/>
-      <c r="N50" s="92"/>
-      <c r="O50" s="92"/>
-      <c r="P50" s="92"/>
-      <c r="Q50" s="92"/>
-      <c r="R50" s="92"/>
-      <c r="S50" s="92"/>
-      <c r="T50" s="92"/>
-      <c r="U50" s="92"/>
-      <c r="V50" s="92"/>
-      <c r="W50" s="92"/>
-      <c r="X50" s="92"/>
-      <c r="Y50" s="92"/>
-      <c r="Z50" s="92"/>
+      <c r="B50" s="93"/>
+      <c r="C50" s="93"/>
+      <c r="D50" s="93"/>
+      <c r="E50" s="93"/>
+      <c r="F50" s="93"/>
+      <c r="G50" s="93"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="93"/>
+      <c r="J50" s="93"/>
+      <c r="K50" s="93"/>
+      <c r="L50" s="93"/>
+      <c r="M50" s="93"/>
+      <c r="N50" s="93"/>
+      <c r="O50" s="93"/>
+      <c r="P50" s="93"/>
+      <c r="Q50" s="93"/>
+      <c r="R50" s="93"/>
+      <c r="S50" s="93"/>
+      <c r="T50" s="93"/>
+      <c r="U50" s="93"/>
+      <c r="V50" s="93"/>
+      <c r="W50" s="93"/>
+      <c r="X50" s="93"/>
+      <c r="Y50" s="93"/>
+      <c r="Z50" s="93"/>
     </row>
     <row r="51" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A51" s="89" t="s">
+      <c r="A51" s="102" t="s">
         <v>234</v>
       </c>
-      <c r="B51" s="89"/>
-      <c r="C51" s="89"/>
-      <c r="D51" s="89"/>
-      <c r="E51" s="89"/>
-      <c r="F51" s="89"/>
-      <c r="G51" s="89"/>
-      <c r="H51" s="89"/>
-      <c r="I51" s="89"/>
-      <c r="J51" s="89"/>
-      <c r="K51" s="89"/>
-      <c r="L51" s="89"/>
-      <c r="M51" s="89"/>
-      <c r="N51" s="89"/>
-      <c r="O51" s="89"/>
-      <c r="P51" s="89"/>
-      <c r="Q51" s="89"/>
-      <c r="R51" s="89"/>
-      <c r="S51" s="89"/>
-      <c r="T51" s="89"/>
-      <c r="U51" s="89"/>
-      <c r="V51" s="89"/>
-      <c r="W51" s="89"/>
-      <c r="X51" s="89"/>
-      <c r="Y51" s="89"/>
-      <c r="Z51" s="89"/>
+      <c r="B51" s="102"/>
+      <c r="C51" s="102"/>
+      <c r="D51" s="102"/>
+      <c r="E51" s="102"/>
+      <c r="F51" s="102"/>
+      <c r="G51" s="102"/>
+      <c r="H51" s="102"/>
+      <c r="I51" s="102"/>
+      <c r="J51" s="102"/>
+      <c r="K51" s="102"/>
+      <c r="L51" s="102"/>
+      <c r="M51" s="102"/>
+      <c r="N51" s="102"/>
+      <c r="O51" s="102"/>
+      <c r="P51" s="102"/>
+      <c r="Q51" s="102"/>
+      <c r="R51" s="102"/>
+      <c r="S51" s="102"/>
+      <c r="T51" s="102"/>
+      <c r="U51" s="102"/>
+      <c r="V51" s="102"/>
+      <c r="W51" s="102"/>
+      <c r="X51" s="102"/>
+      <c r="Y51" s="102"/>
+      <c r="Z51" s="102"/>
     </row>
     <row r="52" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A52" s="87" t="s">
+      <c r="A52" s="101" t="s">
         <v>235</v>
       </c>
-      <c r="B52" s="87"/>
-      <c r="C52" s="87"/>
-      <c r="D52" s="87"/>
-      <c r="E52" s="87"/>
-      <c r="F52" s="87"/>
-      <c r="G52" s="87"/>
-      <c r="H52" s="87"/>
-      <c r="I52" s="87"/>
-      <c r="J52" s="87"/>
-      <c r="K52" s="87"/>
-      <c r="L52" s="87"/>
-      <c r="M52" s="87"/>
-      <c r="N52" s="87"/>
-      <c r="O52" s="87"/>
-      <c r="P52" s="87"/>
-      <c r="Q52" s="87"/>
-      <c r="R52" s="87"/>
-      <c r="S52" s="87"/>
-      <c r="T52" s="87"/>
-      <c r="U52" s="87"/>
-      <c r="V52" s="87"/>
-      <c r="W52" s="87"/>
-      <c r="X52" s="87"/>
-      <c r="Y52" s="87"/>
-      <c r="Z52" s="87"/>
+      <c r="B52" s="101"/>
+      <c r="C52" s="101"/>
+      <c r="D52" s="101"/>
+      <c r="E52" s="101"/>
+      <c r="F52" s="101"/>
+      <c r="G52" s="101"/>
+      <c r="H52" s="101"/>
+      <c r="I52" s="101"/>
+      <c r="J52" s="101"/>
+      <c r="K52" s="101"/>
+      <c r="L52" s="101"/>
+      <c r="M52" s="101"/>
+      <c r="N52" s="101"/>
+      <c r="O52" s="101"/>
+      <c r="P52" s="101"/>
+      <c r="Q52" s="101"/>
+      <c r="R52" s="101"/>
+      <c r="S52" s="101"/>
+      <c r="T52" s="101"/>
+      <c r="U52" s="101"/>
+      <c r="V52" s="101"/>
+      <c r="W52" s="101"/>
+      <c r="X52" s="101"/>
+      <c r="Y52" s="101"/>
+      <c r="Z52" s="101"/>
     </row>
     <row r="53" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A53" s="87" t="s">
+      <c r="A53" s="101" t="s">
         <v>236</v>
       </c>
-      <c r="B53" s="87"/>
-      <c r="C53" s="87"/>
-      <c r="D53" s="87"/>
-      <c r="E53" s="87"/>
-      <c r="F53" s="87"/>
-      <c r="G53" s="87"/>
-      <c r="H53" s="87"/>
-      <c r="I53" s="87"/>
-      <c r="J53" s="87"/>
-      <c r="K53" s="87"/>
-      <c r="L53" s="87"/>
-      <c r="M53" s="87"/>
-      <c r="N53" s="87"/>
-      <c r="O53" s="87"/>
-      <c r="P53" s="87"/>
-      <c r="Q53" s="87"/>
-      <c r="R53" s="87"/>
-      <c r="S53" s="87"/>
-      <c r="T53" s="87"/>
-      <c r="U53" s="87"/>
-      <c r="V53" s="87"/>
-      <c r="W53" s="87"/>
-      <c r="X53" s="87"/>
-      <c r="Y53" s="87"/>
-      <c r="Z53" s="87"/>
+      <c r="B53" s="101"/>
+      <c r="C53" s="101"/>
+      <c r="D53" s="101"/>
+      <c r="E53" s="101"/>
+      <c r="F53" s="101"/>
+      <c r="G53" s="101"/>
+      <c r="H53" s="101"/>
+      <c r="I53" s="101"/>
+      <c r="J53" s="101"/>
+      <c r="K53" s="101"/>
+      <c r="L53" s="101"/>
+      <c r="M53" s="101"/>
+      <c r="N53" s="101"/>
+      <c r="O53" s="101"/>
+      <c r="P53" s="101"/>
+      <c r="Q53" s="101"/>
+      <c r="R53" s="101"/>
+      <c r="S53" s="101"/>
+      <c r="T53" s="101"/>
+      <c r="U53" s="101"/>
+      <c r="V53" s="101"/>
+      <c r="W53" s="101"/>
+      <c r="X53" s="101"/>
+      <c r="Y53" s="101"/>
+      <c r="Z53" s="101"/>
     </row>
     <row r="54" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A54" s="91" t="s">
+      <c r="A54" s="103" t="s">
         <v>237</v>
       </c>
-      <c r="B54" s="91"/>
-      <c r="C54" s="91"/>
-      <c r="D54" s="91"/>
-      <c r="E54" s="91"/>
-      <c r="F54" s="91"/>
-      <c r="G54" s="91"/>
-      <c r="H54" s="91"/>
-      <c r="I54" s="91"/>
-      <c r="J54" s="91"/>
-      <c r="K54" s="91"/>
-      <c r="L54" s="91"/>
-      <c r="M54" s="91"/>
-      <c r="N54" s="91"/>
-      <c r="O54" s="91"/>
-      <c r="P54" s="91"/>
-      <c r="Q54" s="91"/>
-      <c r="R54" s="91"/>
-      <c r="S54" s="91"/>
-      <c r="T54" s="91"/>
-      <c r="U54" s="91"/>
-      <c r="V54" s="91"/>
-      <c r="W54" s="91"/>
-      <c r="X54" s="91"/>
-      <c r="Y54" s="91"/>
-      <c r="Z54" s="91"/>
+      <c r="B54" s="103"/>
+      <c r="C54" s="103"/>
+      <c r="D54" s="103"/>
+      <c r="E54" s="103"/>
+      <c r="F54" s="103"/>
+      <c r="G54" s="103"/>
+      <c r="H54" s="103"/>
+      <c r="I54" s="103"/>
+      <c r="J54" s="103"/>
+      <c r="K54" s="103"/>
+      <c r="L54" s="103"/>
+      <c r="M54" s="103"/>
+      <c r="N54" s="103"/>
+      <c r="O54" s="103"/>
+      <c r="P54" s="103"/>
+      <c r="Q54" s="103"/>
+      <c r="R54" s="103"/>
+      <c r="S54" s="103"/>
+      <c r="T54" s="103"/>
+      <c r="U54" s="103"/>
+      <c r="V54" s="103"/>
+      <c r="W54" s="103"/>
+      <c r="X54" s="103"/>
+      <c r="Y54" s="103"/>
+      <c r="Z54" s="103"/>
     </row>
     <row r="55" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A55" s="90" t="s">
+      <c r="A55" s="104" t="s">
         <v>238</v>
       </c>
-      <c r="B55" s="90"/>
-      <c r="C55" s="90"/>
-      <c r="D55" s="90"/>
-      <c r="E55" s="90"/>
-      <c r="F55" s="90"/>
-      <c r="G55" s="90"/>
-      <c r="H55" s="90"/>
-      <c r="I55" s="90"/>
-      <c r="J55" s="90"/>
-      <c r="K55" s="90"/>
-      <c r="L55" s="90"/>
-      <c r="M55" s="90"/>
-      <c r="N55" s="90"/>
-      <c r="O55" s="90"/>
-      <c r="P55" s="90"/>
-      <c r="Q55" s="90"/>
-      <c r="R55" s="90"/>
-      <c r="S55" s="90"/>
-      <c r="T55" s="90"/>
-      <c r="U55" s="90"/>
-      <c r="V55" s="90"/>
-      <c r="W55" s="90"/>
-      <c r="X55" s="90"/>
-      <c r="Y55" s="90"/>
-      <c r="Z55" s="90"/>
+      <c r="B55" s="104"/>
+      <c r="C55" s="104"/>
+      <c r="D55" s="104"/>
+      <c r="E55" s="104"/>
+      <c r="F55" s="104"/>
+      <c r="G55" s="104"/>
+      <c r="H55" s="104"/>
+      <c r="I55" s="104"/>
+      <c r="J55" s="104"/>
+      <c r="K55" s="104"/>
+      <c r="L55" s="104"/>
+      <c r="M55" s="104"/>
+      <c r="N55" s="104"/>
+      <c r="O55" s="104"/>
+      <c r="P55" s="104"/>
+      <c r="Q55" s="104"/>
+      <c r="R55" s="104"/>
+      <c r="S55" s="104"/>
+      <c r="T55" s="104"/>
+      <c r="U55" s="104"/>
+      <c r="V55" s="104"/>
+      <c r="W55" s="104"/>
+      <c r="X55" s="104"/>
+      <c r="Y55" s="104"/>
+      <c r="Z55" s="104"/>
     </row>
     <row r="56" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A56" s="89" t="s">
+      <c r="A56" s="102" t="s">
         <v>239</v>
       </c>
-      <c r="B56" s="89"/>
-      <c r="C56" s="89"/>
-      <c r="D56" s="89"/>
-      <c r="E56" s="89"/>
-      <c r="F56" s="89"/>
-      <c r="G56" s="89"/>
-      <c r="H56" s="89"/>
-      <c r="I56" s="89"/>
-      <c r="J56" s="89"/>
-      <c r="K56" s="89"/>
-      <c r="L56" s="89"/>
-      <c r="M56" s="89"/>
-      <c r="N56" s="89"/>
-      <c r="O56" s="89"/>
-      <c r="P56" s="89"/>
-      <c r="Q56" s="89"/>
-      <c r="R56" s="89"/>
-      <c r="S56" s="89"/>
-      <c r="T56" s="89"/>
-      <c r="U56" s="89"/>
-      <c r="V56" s="89"/>
-      <c r="W56" s="89"/>
-      <c r="X56" s="89"/>
-      <c r="Y56" s="89"/>
-      <c r="Z56" s="89"/>
+      <c r="B56" s="102"/>
+      <c r="C56" s="102"/>
+      <c r="D56" s="102"/>
+      <c r="E56" s="102"/>
+      <c r="F56" s="102"/>
+      <c r="G56" s="102"/>
+      <c r="H56" s="102"/>
+      <c r="I56" s="102"/>
+      <c r="J56" s="102"/>
+      <c r="K56" s="102"/>
+      <c r="L56" s="102"/>
+      <c r="M56" s="102"/>
+      <c r="N56" s="102"/>
+      <c r="O56" s="102"/>
+      <c r="P56" s="102"/>
+      <c r="Q56" s="102"/>
+      <c r="R56" s="102"/>
+      <c r="S56" s="102"/>
+      <c r="T56" s="102"/>
+      <c r="U56" s="102"/>
+      <c r="V56" s="102"/>
+      <c r="W56" s="102"/>
+      <c r="X56" s="102"/>
+      <c r="Y56" s="102"/>
+      <c r="Z56" s="102"/>
     </row>
     <row r="57" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A57" s="91" t="s">
+      <c r="A57" s="103" t="s">
         <v>240</v>
       </c>
-      <c r="B57" s="91"/>
-      <c r="C57" s="91"/>
-      <c r="D57" s="91"/>
-      <c r="E57" s="91"/>
-      <c r="F57" s="91"/>
-      <c r="G57" s="91"/>
-      <c r="H57" s="91"/>
-      <c r="I57" s="91"/>
-      <c r="J57" s="91"/>
-      <c r="K57" s="91"/>
-      <c r="L57" s="91"/>
-      <c r="M57" s="91"/>
-      <c r="N57" s="91"/>
-      <c r="O57" s="91"/>
-      <c r="P57" s="91"/>
-      <c r="Q57" s="91"/>
-      <c r="R57" s="91"/>
-      <c r="S57" s="91"/>
-      <c r="T57" s="91"/>
-      <c r="U57" s="91"/>
-      <c r="V57" s="91"/>
-      <c r="W57" s="91"/>
-      <c r="X57" s="91"/>
-      <c r="Y57" s="91"/>
-      <c r="Z57" s="91"/>
+      <c r="B57" s="103"/>
+      <c r="C57" s="103"/>
+      <c r="D57" s="103"/>
+      <c r="E57" s="103"/>
+      <c r="F57" s="103"/>
+      <c r="G57" s="103"/>
+      <c r="H57" s="103"/>
+      <c r="I57" s="103"/>
+      <c r="J57" s="103"/>
+      <c r="K57" s="103"/>
+      <c r="L57" s="103"/>
+      <c r="M57" s="103"/>
+      <c r="N57" s="103"/>
+      <c r="O57" s="103"/>
+      <c r="P57" s="103"/>
+      <c r="Q57" s="103"/>
+      <c r="R57" s="103"/>
+      <c r="S57" s="103"/>
+      <c r="T57" s="103"/>
+      <c r="U57" s="103"/>
+      <c r="V57" s="103"/>
+      <c r="W57" s="103"/>
+      <c r="X57" s="103"/>
+      <c r="Y57" s="103"/>
+      <c r="Z57" s="103"/>
     </row>
     <row r="58" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A58" s="87" t="s">
+      <c r="A58" s="101" t="s">
         <v>241</v>
       </c>
-      <c r="B58" s="87"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="87"/>
-      <c r="E58" s="87"/>
-      <c r="F58" s="87"/>
-      <c r="G58" s="87"/>
-      <c r="H58" s="87"/>
-      <c r="I58" s="87"/>
-      <c r="J58" s="87"/>
-      <c r="K58" s="87"/>
-      <c r="L58" s="87"/>
-      <c r="M58" s="87"/>
-      <c r="N58" s="87"/>
-      <c r="O58" s="87"/>
-      <c r="P58" s="87"/>
-      <c r="Q58" s="87"/>
-      <c r="R58" s="87"/>
-      <c r="S58" s="87"/>
-      <c r="T58" s="87"/>
-      <c r="U58" s="87"/>
-      <c r="V58" s="87"/>
-      <c r="W58" s="87"/>
-      <c r="X58" s="87"/>
-      <c r="Y58" s="87"/>
-      <c r="Z58" s="87"/>
+      <c r="B58" s="101"/>
+      <c r="C58" s="101"/>
+      <c r="D58" s="101"/>
+      <c r="E58" s="101"/>
+      <c r="F58" s="101"/>
+      <c r="G58" s="101"/>
+      <c r="H58" s="101"/>
+      <c r="I58" s="101"/>
+      <c r="J58" s="101"/>
+      <c r="K58" s="101"/>
+      <c r="L58" s="101"/>
+      <c r="M58" s="101"/>
+      <c r="N58" s="101"/>
+      <c r="O58" s="101"/>
+      <c r="P58" s="101"/>
+      <c r="Q58" s="101"/>
+      <c r="R58" s="101"/>
+      <c r="S58" s="101"/>
+      <c r="T58" s="101"/>
+      <c r="U58" s="101"/>
+      <c r="V58" s="101"/>
+      <c r="W58" s="101"/>
+      <c r="X58" s="101"/>
+      <c r="Y58" s="101"/>
+      <c r="Z58" s="101"/>
     </row>
     <row r="59" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A59" s="89" t="s">
+      <c r="A59" s="102" t="s">
         <v>242</v>
       </c>
-      <c r="B59" s="89"/>
-      <c r="C59" s="89"/>
-      <c r="D59" s="89"/>
-      <c r="E59" s="89"/>
-      <c r="F59" s="89"/>
-      <c r="G59" s="89"/>
-      <c r="H59" s="89"/>
-      <c r="I59" s="89"/>
-      <c r="J59" s="89"/>
-      <c r="K59" s="89"/>
-      <c r="L59" s="89"/>
-      <c r="M59" s="89"/>
-      <c r="N59" s="89"/>
-      <c r="O59" s="89"/>
-      <c r="P59" s="89"/>
-      <c r="Q59" s="89"/>
-      <c r="R59" s="89"/>
-      <c r="S59" s="89"/>
-      <c r="T59" s="89"/>
-      <c r="U59" s="89"/>
-      <c r="V59" s="89"/>
-      <c r="W59" s="89"/>
-      <c r="X59" s="89"/>
-      <c r="Y59" s="89"/>
-      <c r="Z59" s="89"/>
+      <c r="B59" s="102"/>
+      <c r="C59" s="102"/>
+      <c r="D59" s="102"/>
+      <c r="E59" s="102"/>
+      <c r="F59" s="102"/>
+      <c r="G59" s="102"/>
+      <c r="H59" s="102"/>
+      <c r="I59" s="102"/>
+      <c r="J59" s="102"/>
+      <c r="K59" s="102"/>
+      <c r="L59" s="102"/>
+      <c r="M59" s="102"/>
+      <c r="N59" s="102"/>
+      <c r="O59" s="102"/>
+      <c r="P59" s="102"/>
+      <c r="Q59" s="102"/>
+      <c r="R59" s="102"/>
+      <c r="S59" s="102"/>
+      <c r="T59" s="102"/>
+      <c r="U59" s="102"/>
+      <c r="V59" s="102"/>
+      <c r="W59" s="102"/>
+      <c r="X59" s="102"/>
+      <c r="Y59" s="102"/>
+      <c r="Z59" s="102"/>
     </row>
     <row r="60" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A60" s="87" t="s">
+      <c r="A60" s="101" t="s">
         <v>243</v>
       </c>
-      <c r="B60" s="87"/>
-      <c r="C60" s="87"/>
-      <c r="D60" s="87"/>
-      <c r="E60" s="87"/>
-      <c r="F60" s="87"/>
-      <c r="G60" s="87"/>
-      <c r="H60" s="87"/>
-      <c r="I60" s="87"/>
-      <c r="J60" s="87"/>
-      <c r="K60" s="87"/>
-      <c r="L60" s="87"/>
-      <c r="M60" s="87"/>
-      <c r="N60" s="87"/>
-      <c r="O60" s="87"/>
-      <c r="P60" s="87"/>
-      <c r="Q60" s="87"/>
-      <c r="R60" s="87"/>
-      <c r="S60" s="87"/>
-      <c r="T60" s="87"/>
-      <c r="U60" s="87"/>
-      <c r="V60" s="87"/>
-      <c r="W60" s="87"/>
-      <c r="X60" s="87"/>
-      <c r="Y60" s="87"/>
-      <c r="Z60" s="87"/>
+      <c r="B60" s="101"/>
+      <c r="C60" s="101"/>
+      <c r="D60" s="101"/>
+      <c r="E60" s="101"/>
+      <c r="F60" s="101"/>
+      <c r="G60" s="101"/>
+      <c r="H60" s="101"/>
+      <c r="I60" s="101"/>
+      <c r="J60" s="101"/>
+      <c r="K60" s="101"/>
+      <c r="L60" s="101"/>
+      <c r="M60" s="101"/>
+      <c r="N60" s="101"/>
+      <c r="O60" s="101"/>
+      <c r="P60" s="101"/>
+      <c r="Q60" s="101"/>
+      <c r="R60" s="101"/>
+      <c r="S60" s="101"/>
+      <c r="T60" s="101"/>
+      <c r="U60" s="101"/>
+      <c r="V60" s="101"/>
+      <c r="W60" s="101"/>
+      <c r="X60" s="101"/>
+      <c r="Y60" s="101"/>
+      <c r="Z60" s="101"/>
     </row>
     <row r="61" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A61" s="89" t="s">
+      <c r="A61" s="102" t="s">
         <v>244</v>
       </c>
-      <c r="B61" s="89"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="89"/>
-      <c r="E61" s="89"/>
-      <c r="F61" s="89"/>
-      <c r="G61" s="89"/>
-      <c r="H61" s="89"/>
-      <c r="I61" s="89"/>
-      <c r="J61" s="89"/>
-      <c r="K61" s="89"/>
-      <c r="L61" s="89"/>
-      <c r="M61" s="89"/>
-      <c r="N61" s="89"/>
-      <c r="O61" s="89"/>
-      <c r="P61" s="89"/>
-      <c r="Q61" s="89"/>
-      <c r="R61" s="89"/>
-      <c r="S61" s="89"/>
-      <c r="T61" s="89"/>
-      <c r="U61" s="89"/>
-      <c r="V61" s="89"/>
-      <c r="W61" s="89"/>
-      <c r="X61" s="89"/>
-      <c r="Y61" s="89"/>
-      <c r="Z61" s="89"/>
+      <c r="B61" s="102"/>
+      <c r="C61" s="102"/>
+      <c r="D61" s="102"/>
+      <c r="E61" s="102"/>
+      <c r="F61" s="102"/>
+      <c r="G61" s="102"/>
+      <c r="H61" s="102"/>
+      <c r="I61" s="102"/>
+      <c r="J61" s="102"/>
+      <c r="K61" s="102"/>
+      <c r="L61" s="102"/>
+      <c r="M61" s="102"/>
+      <c r="N61" s="102"/>
+      <c r="O61" s="102"/>
+      <c r="P61" s="102"/>
+      <c r="Q61" s="102"/>
+      <c r="R61" s="102"/>
+      <c r="S61" s="102"/>
+      <c r="T61" s="102"/>
+      <c r="U61" s="102"/>
+      <c r="V61" s="102"/>
+      <c r="W61" s="102"/>
+      <c r="X61" s="102"/>
+      <c r="Y61" s="102"/>
+      <c r="Z61" s="102"/>
     </row>
     <row r="62" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A62" s="87" t="s">
+      <c r="A62" s="101" t="s">
         <v>245</v>
       </c>
-      <c r="B62" s="87"/>
-      <c r="C62" s="87"/>
-      <c r="D62" s="87"/>
-      <c r="E62" s="87"/>
-      <c r="F62" s="87"/>
-      <c r="G62" s="87"/>
-      <c r="H62" s="87"/>
-      <c r="I62" s="87"/>
-      <c r="J62" s="87"/>
-      <c r="K62" s="87"/>
-      <c r="L62" s="87"/>
-      <c r="M62" s="87"/>
-      <c r="N62" s="87"/>
-      <c r="O62" s="87"/>
-      <c r="P62" s="87"/>
-      <c r="Q62" s="87"/>
-      <c r="R62" s="87"/>
-      <c r="S62" s="87"/>
-      <c r="T62" s="87"/>
-      <c r="U62" s="87"/>
-      <c r="V62" s="87"/>
-      <c r="W62" s="87"/>
-      <c r="X62" s="87"/>
-      <c r="Y62" s="87"/>
-      <c r="Z62" s="87"/>
+      <c r="B62" s="101"/>
+      <c r="C62" s="101"/>
+      <c r="D62" s="101"/>
+      <c r="E62" s="101"/>
+      <c r="F62" s="101"/>
+      <c r="G62" s="101"/>
+      <c r="H62" s="101"/>
+      <c r="I62" s="101"/>
+      <c r="J62" s="101"/>
+      <c r="K62" s="101"/>
+      <c r="L62" s="101"/>
+      <c r="M62" s="101"/>
+      <c r="N62" s="101"/>
+      <c r="O62" s="101"/>
+      <c r="P62" s="101"/>
+      <c r="Q62" s="101"/>
+      <c r="R62" s="101"/>
+      <c r="S62" s="101"/>
+      <c r="T62" s="101"/>
+      <c r="U62" s="101"/>
+      <c r="V62" s="101"/>
+      <c r="W62" s="101"/>
+      <c r="X62" s="101"/>
+      <c r="Y62" s="101"/>
+      <c r="Z62" s="101"/>
     </row>
     <row r="63" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A63" s="87" t="s">
+      <c r="A63" s="101" t="s">
         <v>246</v>
       </c>
-      <c r="B63" s="87"/>
-      <c r="C63" s="87"/>
-      <c r="D63" s="87"/>
-      <c r="E63" s="87"/>
-      <c r="F63" s="87"/>
-      <c r="G63" s="87"/>
-      <c r="H63" s="87"/>
-      <c r="I63" s="87"/>
-      <c r="J63" s="87"/>
-      <c r="K63" s="87"/>
-      <c r="L63" s="87"/>
-      <c r="M63" s="87"/>
-      <c r="N63" s="87"/>
-      <c r="O63" s="87"/>
-      <c r="P63" s="87"/>
-      <c r="Q63" s="87"/>
-      <c r="R63" s="87"/>
-      <c r="S63" s="87"/>
-      <c r="T63" s="87"/>
-      <c r="U63" s="87"/>
-      <c r="V63" s="87"/>
-      <c r="W63" s="87"/>
-      <c r="X63" s="87"/>
-      <c r="Y63" s="87"/>
-      <c r="Z63" s="87"/>
+      <c r="B63" s="101"/>
+      <c r="C63" s="101"/>
+      <c r="D63" s="101"/>
+      <c r="E63" s="101"/>
+      <c r="F63" s="101"/>
+      <c r="G63" s="101"/>
+      <c r="H63" s="101"/>
+      <c r="I63" s="101"/>
+      <c r="J63" s="101"/>
+      <c r="K63" s="101"/>
+      <c r="L63" s="101"/>
+      <c r="M63" s="101"/>
+      <c r="N63" s="101"/>
+      <c r="O63" s="101"/>
+      <c r="P63" s="101"/>
+      <c r="Q63" s="101"/>
+      <c r="R63" s="101"/>
+      <c r="S63" s="101"/>
+      <c r="T63" s="101"/>
+      <c r="U63" s="101"/>
+      <c r="V63" s="101"/>
+      <c r="W63" s="101"/>
+      <c r="X63" s="101"/>
+      <c r="Y63" s="101"/>
+      <c r="Z63" s="101"/>
     </row>
     <row r="64" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A64" s="89" t="s">
+      <c r="A64" s="102" t="s">
         <v>247</v>
       </c>
-      <c r="B64" s="89"/>
-      <c r="C64" s="89"/>
-      <c r="D64" s="89"/>
-      <c r="E64" s="89"/>
-      <c r="F64" s="89"/>
-      <c r="G64" s="89"/>
-      <c r="H64" s="89"/>
-      <c r="I64" s="89"/>
-      <c r="J64" s="89"/>
-      <c r="K64" s="89"/>
-      <c r="L64" s="89"/>
-      <c r="M64" s="89"/>
-      <c r="N64" s="89"/>
-      <c r="O64" s="89"/>
-      <c r="P64" s="89"/>
-      <c r="Q64" s="89"/>
-      <c r="R64" s="89"/>
-      <c r="S64" s="89"/>
-      <c r="T64" s="89"/>
-      <c r="U64" s="89"/>
-      <c r="V64" s="89"/>
-      <c r="W64" s="89"/>
-      <c r="X64" s="89"/>
-      <c r="Y64" s="89"/>
-      <c r="Z64" s="89"/>
+      <c r="B64" s="102"/>
+      <c r="C64" s="102"/>
+      <c r="D64" s="102"/>
+      <c r="E64" s="102"/>
+      <c r="F64" s="102"/>
+      <c r="G64" s="102"/>
+      <c r="H64" s="102"/>
+      <c r="I64" s="102"/>
+      <c r="J64" s="102"/>
+      <c r="K64" s="102"/>
+      <c r="L64" s="102"/>
+      <c r="M64" s="102"/>
+      <c r="N64" s="102"/>
+      <c r="O64" s="102"/>
+      <c r="P64" s="102"/>
+      <c r="Q64" s="102"/>
+      <c r="R64" s="102"/>
+      <c r="S64" s="102"/>
+      <c r="T64" s="102"/>
+      <c r="U64" s="102"/>
+      <c r="V64" s="102"/>
+      <c r="W64" s="102"/>
+      <c r="X64" s="102"/>
+      <c r="Y64" s="102"/>
+      <c r="Z64" s="102"/>
     </row>
     <row r="65" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A65" s="91" t="s">
+      <c r="A65" s="103" t="s">
         <v>248</v>
       </c>
-      <c r="B65" s="91"/>
-      <c r="C65" s="91"/>
-      <c r="D65" s="91"/>
-      <c r="E65" s="91"/>
-      <c r="F65" s="91"/>
-      <c r="G65" s="91"/>
-      <c r="H65" s="91"/>
-      <c r="I65" s="91"/>
-      <c r="J65" s="91"/>
-      <c r="K65" s="91"/>
-      <c r="L65" s="91"/>
-      <c r="M65" s="91"/>
-      <c r="N65" s="91"/>
-      <c r="O65" s="91"/>
-      <c r="P65" s="91"/>
-      <c r="Q65" s="91"/>
-      <c r="R65" s="91"/>
-      <c r="S65" s="91"/>
-      <c r="T65" s="91"/>
-      <c r="U65" s="91"/>
-      <c r="V65" s="91"/>
-      <c r="W65" s="91"/>
-      <c r="X65" s="91"/>
-      <c r="Y65" s="91"/>
-      <c r="Z65" s="91"/>
+      <c r="B65" s="103"/>
+      <c r="C65" s="103"/>
+      <c r="D65" s="103"/>
+      <c r="E65" s="103"/>
+      <c r="F65" s="103"/>
+      <c r="G65" s="103"/>
+      <c r="H65" s="103"/>
+      <c r="I65" s="103"/>
+      <c r="J65" s="103"/>
+      <c r="K65" s="103"/>
+      <c r="L65" s="103"/>
+      <c r="M65" s="103"/>
+      <c r="N65" s="103"/>
+      <c r="O65" s="103"/>
+      <c r="P65" s="103"/>
+      <c r="Q65" s="103"/>
+      <c r="R65" s="103"/>
+      <c r="S65" s="103"/>
+      <c r="T65" s="103"/>
+      <c r="U65" s="103"/>
+      <c r="V65" s="103"/>
+      <c r="W65" s="103"/>
+      <c r="X65" s="103"/>
+      <c r="Y65" s="103"/>
+      <c r="Z65" s="103"/>
     </row>
     <row r="66" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A66" s="87" t="s">
+      <c r="A66" s="101" t="s">
         <v>241</v>
       </c>
-      <c r="B66" s="87"/>
-      <c r="C66" s="87"/>
-      <c r="D66" s="87"/>
-      <c r="E66" s="87"/>
-      <c r="F66" s="87"/>
-      <c r="G66" s="87"/>
-      <c r="H66" s="87"/>
-      <c r="I66" s="87"/>
-      <c r="J66" s="87"/>
-      <c r="K66" s="87"/>
-      <c r="L66" s="87"/>
-      <c r="M66" s="87"/>
-      <c r="N66" s="87"/>
-      <c r="O66" s="87"/>
-      <c r="P66" s="87"/>
-      <c r="Q66" s="87"/>
-      <c r="R66" s="87"/>
-      <c r="S66" s="87"/>
-      <c r="T66" s="87"/>
-      <c r="U66" s="87"/>
-      <c r="V66" s="87"/>
-      <c r="W66" s="87"/>
-      <c r="X66" s="87"/>
-      <c r="Y66" s="87"/>
-      <c r="Z66" s="87"/>
+      <c r="B66" s="101"/>
+      <c r="C66" s="101"/>
+      <c r="D66" s="101"/>
+      <c r="E66" s="101"/>
+      <c r="F66" s="101"/>
+      <c r="G66" s="101"/>
+      <c r="H66" s="101"/>
+      <c r="I66" s="101"/>
+      <c r="J66" s="101"/>
+      <c r="K66" s="101"/>
+      <c r="L66" s="101"/>
+      <c r="M66" s="101"/>
+      <c r="N66" s="101"/>
+      <c r="O66" s="101"/>
+      <c r="P66" s="101"/>
+      <c r="Q66" s="101"/>
+      <c r="R66" s="101"/>
+      <c r="S66" s="101"/>
+      <c r="T66" s="101"/>
+      <c r="U66" s="101"/>
+      <c r="V66" s="101"/>
+      <c r="W66" s="101"/>
+      <c r="X66" s="101"/>
+      <c r="Y66" s="101"/>
+      <c r="Z66" s="101"/>
     </row>
     <row r="67" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A67" s="89" t="s">
+      <c r="A67" s="102" t="s">
         <v>249</v>
       </c>
-      <c r="B67" s="89"/>
-      <c r="C67" s="89"/>
-      <c r="D67" s="89"/>
-      <c r="E67" s="89"/>
-      <c r="F67" s="89"/>
-      <c r="G67" s="89"/>
-      <c r="H67" s="89"/>
-      <c r="I67" s="89"/>
-      <c r="J67" s="89"/>
-      <c r="K67" s="89"/>
-      <c r="L67" s="89"/>
-      <c r="M67" s="89"/>
-      <c r="N67" s="89"/>
-      <c r="O67" s="89"/>
-      <c r="P67" s="89"/>
-      <c r="Q67" s="89"/>
-      <c r="R67" s="89"/>
-      <c r="S67" s="89"/>
-      <c r="T67" s="89"/>
-      <c r="U67" s="89"/>
-      <c r="V67" s="89"/>
-      <c r="W67" s="89"/>
-      <c r="X67" s="89"/>
-      <c r="Y67" s="89"/>
-      <c r="Z67" s="89"/>
+      <c r="B67" s="102"/>
+      <c r="C67" s="102"/>
+      <c r="D67" s="102"/>
+      <c r="E67" s="102"/>
+      <c r="F67" s="102"/>
+      <c r="G67" s="102"/>
+      <c r="H67" s="102"/>
+      <c r="I67" s="102"/>
+      <c r="J67" s="102"/>
+      <c r="K67" s="102"/>
+      <c r="L67" s="102"/>
+      <c r="M67" s="102"/>
+      <c r="N67" s="102"/>
+      <c r="O67" s="102"/>
+      <c r="P67" s="102"/>
+      <c r="Q67" s="102"/>
+      <c r="R67" s="102"/>
+      <c r="S67" s="102"/>
+      <c r="T67" s="102"/>
+      <c r="U67" s="102"/>
+      <c r="V67" s="102"/>
+      <c r="W67" s="102"/>
+      <c r="X67" s="102"/>
+      <c r="Y67" s="102"/>
+      <c r="Z67" s="102"/>
     </row>
     <row r="68" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A68" s="87" t="s">
+      <c r="A68" s="101" t="s">
         <v>250</v>
       </c>
-      <c r="B68" s="87"/>
-      <c r="C68" s="87"/>
-      <c r="D68" s="87"/>
-      <c r="E68" s="87"/>
-      <c r="F68" s="87"/>
-      <c r="G68" s="87"/>
-      <c r="H68" s="87"/>
-      <c r="I68" s="87"/>
-      <c r="J68" s="87"/>
-      <c r="K68" s="87"/>
-      <c r="L68" s="87"/>
-      <c r="M68" s="87"/>
-      <c r="N68" s="87"/>
-      <c r="O68" s="87"/>
-      <c r="P68" s="87"/>
-      <c r="Q68" s="87"/>
-      <c r="R68" s="87"/>
-      <c r="S68" s="87"/>
-      <c r="T68" s="87"/>
-      <c r="U68" s="87"/>
-      <c r="V68" s="87"/>
-      <c r="W68" s="87"/>
-      <c r="X68" s="87"/>
-      <c r="Y68" s="87"/>
-      <c r="Z68" s="87"/>
+      <c r="B68" s="101"/>
+      <c r="C68" s="101"/>
+      <c r="D68" s="101"/>
+      <c r="E68" s="101"/>
+      <c r="F68" s="101"/>
+      <c r="G68" s="101"/>
+      <c r="H68" s="101"/>
+      <c r="I68" s="101"/>
+      <c r="J68" s="101"/>
+      <c r="K68" s="101"/>
+      <c r="L68" s="101"/>
+      <c r="M68" s="101"/>
+      <c r="N68" s="101"/>
+      <c r="O68" s="101"/>
+      <c r="P68" s="101"/>
+      <c r="Q68" s="101"/>
+      <c r="R68" s="101"/>
+      <c r="S68" s="101"/>
+      <c r="T68" s="101"/>
+      <c r="U68" s="101"/>
+      <c r="V68" s="101"/>
+      <c r="W68" s="101"/>
+      <c r="X68" s="101"/>
+      <c r="Y68" s="101"/>
+      <c r="Z68" s="101"/>
     </row>
     <row r="69" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A69" s="89" t="s">
+      <c r="A69" s="102" t="s">
         <v>251</v>
       </c>
-      <c r="B69" s="89"/>
-      <c r="C69" s="89"/>
-      <c r="D69" s="89"/>
-      <c r="E69" s="89"/>
-      <c r="F69" s="89"/>
-      <c r="G69" s="89"/>
-      <c r="H69" s="89"/>
-      <c r="I69" s="89"/>
-      <c r="J69" s="89"/>
-      <c r="K69" s="89"/>
-      <c r="L69" s="89"/>
-      <c r="M69" s="89"/>
-      <c r="N69" s="89"/>
-      <c r="O69" s="89"/>
-      <c r="P69" s="89"/>
-      <c r="Q69" s="89"/>
-      <c r="R69" s="89"/>
-      <c r="S69" s="89"/>
-      <c r="T69" s="89"/>
-      <c r="U69" s="89"/>
-      <c r="V69" s="89"/>
-      <c r="W69" s="89"/>
-      <c r="X69" s="89"/>
-      <c r="Y69" s="89"/>
-      <c r="Z69" s="89"/>
+      <c r="B69" s="102"/>
+      <c r="C69" s="102"/>
+      <c r="D69" s="102"/>
+      <c r="E69" s="102"/>
+      <c r="F69" s="102"/>
+      <c r="G69" s="102"/>
+      <c r="H69" s="102"/>
+      <c r="I69" s="102"/>
+      <c r="J69" s="102"/>
+      <c r="K69" s="102"/>
+      <c r="L69" s="102"/>
+      <c r="M69" s="102"/>
+      <c r="N69" s="102"/>
+      <c r="O69" s="102"/>
+      <c r="P69" s="102"/>
+      <c r="Q69" s="102"/>
+      <c r="R69" s="102"/>
+      <c r="S69" s="102"/>
+      <c r="T69" s="102"/>
+      <c r="U69" s="102"/>
+      <c r="V69" s="102"/>
+      <c r="W69" s="102"/>
+      <c r="X69" s="102"/>
+      <c r="Y69" s="102"/>
+      <c r="Z69" s="102"/>
     </row>
     <row r="70" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A70" s="91" t="s">
+      <c r="A70" s="103" t="s">
         <v>252</v>
       </c>
-      <c r="B70" s="91"/>
-      <c r="C70" s="91"/>
-      <c r="D70" s="91"/>
-      <c r="E70" s="91"/>
-      <c r="F70" s="91"/>
-      <c r="G70" s="91"/>
-      <c r="H70" s="91"/>
-      <c r="I70" s="91"/>
-      <c r="J70" s="91"/>
-      <c r="K70" s="91"/>
-      <c r="L70" s="91"/>
-      <c r="M70" s="91"/>
-      <c r="N70" s="91"/>
-      <c r="O70" s="91"/>
-      <c r="P70" s="91"/>
-      <c r="Q70" s="91"/>
-      <c r="R70" s="91"/>
-      <c r="S70" s="91"/>
-      <c r="T70" s="91"/>
-      <c r="U70" s="91"/>
-      <c r="V70" s="91"/>
-      <c r="W70" s="91"/>
-      <c r="X70" s="91"/>
-      <c r="Y70" s="91"/>
-      <c r="Z70" s="91"/>
+      <c r="B70" s="103"/>
+      <c r="C70" s="103"/>
+      <c r="D70" s="103"/>
+      <c r="E70" s="103"/>
+      <c r="F70" s="103"/>
+      <c r="G70" s="103"/>
+      <c r="H70" s="103"/>
+      <c r="I70" s="103"/>
+      <c r="J70" s="103"/>
+      <c r="K70" s="103"/>
+      <c r="L70" s="103"/>
+      <c r="M70" s="103"/>
+      <c r="N70" s="103"/>
+      <c r="O70" s="103"/>
+      <c r="P70" s="103"/>
+      <c r="Q70" s="103"/>
+      <c r="R70" s="103"/>
+      <c r="S70" s="103"/>
+      <c r="T70" s="103"/>
+      <c r="U70" s="103"/>
+      <c r="V70" s="103"/>
+      <c r="W70" s="103"/>
+      <c r="X70" s="103"/>
+      <c r="Y70" s="103"/>
+      <c r="Z70" s="103"/>
     </row>
     <row r="71" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A71" s="87" t="s">
+      <c r="A71" s="101" t="s">
         <v>253</v>
       </c>
-      <c r="B71" s="87"/>
-      <c r="C71" s="87"/>
-      <c r="D71" s="87"/>
-      <c r="E71" s="87"/>
-      <c r="F71" s="87"/>
-      <c r="G71" s="87"/>
-      <c r="H71" s="87"/>
-      <c r="I71" s="87"/>
-      <c r="J71" s="87"/>
-      <c r="K71" s="87"/>
-      <c r="L71" s="87"/>
-      <c r="M71" s="87"/>
-      <c r="N71" s="87"/>
-      <c r="O71" s="87"/>
-      <c r="P71" s="87"/>
-      <c r="Q71" s="87"/>
-      <c r="R71" s="87"/>
-      <c r="S71" s="87"/>
-      <c r="T71" s="87"/>
-      <c r="U71" s="87"/>
-      <c r="V71" s="87"/>
-      <c r="W71" s="87"/>
-      <c r="X71" s="87"/>
-      <c r="Y71" s="87"/>
-      <c r="Z71" s="87"/>
+      <c r="B71" s="101"/>
+      <c r="C71" s="101"/>
+      <c r="D71" s="101"/>
+      <c r="E71" s="101"/>
+      <c r="F71" s="101"/>
+      <c r="G71" s="101"/>
+      <c r="H71" s="101"/>
+      <c r="I71" s="101"/>
+      <c r="J71" s="101"/>
+      <c r="K71" s="101"/>
+      <c r="L71" s="101"/>
+      <c r="M71" s="101"/>
+      <c r="N71" s="101"/>
+      <c r="O71" s="101"/>
+      <c r="P71" s="101"/>
+      <c r="Q71" s="101"/>
+      <c r="R71" s="101"/>
+      <c r="S71" s="101"/>
+      <c r="T71" s="101"/>
+      <c r="U71" s="101"/>
+      <c r="V71" s="101"/>
+      <c r="W71" s="101"/>
+      <c r="X71" s="101"/>
+      <c r="Y71" s="101"/>
+      <c r="Z71" s="101"/>
     </row>
     <row r="72" spans="1:26" s="57" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A72" s="90" t="s">
+      <c r="A72" s="104" t="s">
         <v>254</v>
       </c>
-      <c r="B72" s="90"/>
-      <c r="C72" s="90"/>
-      <c r="D72" s="90"/>
-      <c r="E72" s="90"/>
-      <c r="F72" s="90"/>
-      <c r="G72" s="90"/>
-      <c r="H72" s="90"/>
-      <c r="I72" s="90"/>
-      <c r="J72" s="90"/>
-      <c r="K72" s="90"/>
-      <c r="L72" s="90"/>
-      <c r="M72" s="90"/>
-      <c r="N72" s="90"/>
-      <c r="O72" s="90"/>
-      <c r="P72" s="90"/>
-      <c r="Q72" s="90"/>
-      <c r="R72" s="90"/>
-      <c r="S72" s="90"/>
-      <c r="T72" s="90"/>
-      <c r="U72" s="90"/>
-      <c r="V72" s="90"/>
-      <c r="W72" s="90"/>
-      <c r="X72" s="90"/>
-      <c r="Y72" s="90"/>
-      <c r="Z72" s="90"/>
+      <c r="B72" s="104"/>
+      <c r="C72" s="104"/>
+      <c r="D72" s="104"/>
+      <c r="E72" s="104"/>
+      <c r="F72" s="104"/>
+      <c r="G72" s="104"/>
+      <c r="H72" s="104"/>
+      <c r="I72" s="104"/>
+      <c r="J72" s="104"/>
+      <c r="K72" s="104"/>
+      <c r="L72" s="104"/>
+      <c r="M72" s="104"/>
+      <c r="N72" s="104"/>
+      <c r="O72" s="104"/>
+      <c r="P72" s="104"/>
+      <c r="Q72" s="104"/>
+      <c r="R72" s="104"/>
+      <c r="S72" s="104"/>
+      <c r="T72" s="104"/>
+      <c r="U72" s="104"/>
+      <c r="V72" s="104"/>
+      <c r="W72" s="104"/>
+      <c r="X72" s="104"/>
+      <c r="Y72" s="104"/>
+      <c r="Z72" s="104"/>
     </row>
     <row r="73" spans="1:26" s="57" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A73" s="89" t="s">
+      <c r="A73" s="102" t="s">
         <v>255</v>
       </c>
-      <c r="B73" s="89"/>
-      <c r="C73" s="89"/>
-      <c r="D73" s="89"/>
-      <c r="E73" s="89"/>
-      <c r="F73" s="89"/>
-      <c r="G73" s="89"/>
-      <c r="H73" s="89"/>
-      <c r="I73" s="89"/>
-      <c r="J73" s="89"/>
-      <c r="K73" s="89"/>
-      <c r="L73" s="89"/>
-      <c r="M73" s="89"/>
-      <c r="N73" s="89"/>
-      <c r="O73" s="89"/>
-      <c r="P73" s="89"/>
-      <c r="Q73" s="89"/>
-      <c r="R73" s="89"/>
-      <c r="S73" s="89"/>
-      <c r="T73" s="89"/>
-      <c r="U73" s="89"/>
-      <c r="V73" s="89"/>
-      <c r="W73" s="89"/>
-      <c r="X73" s="89"/>
-      <c r="Y73" s="89"/>
-      <c r="Z73" s="89"/>
+      <c r="B73" s="102"/>
+      <c r="C73" s="102"/>
+      <c r="D73" s="102"/>
+      <c r="E73" s="102"/>
+      <c r="F73" s="102"/>
+      <c r="G73" s="102"/>
+      <c r="H73" s="102"/>
+      <c r="I73" s="102"/>
+      <c r="J73" s="102"/>
+      <c r="K73" s="102"/>
+      <c r="L73" s="102"/>
+      <c r="M73" s="102"/>
+      <c r="N73" s="102"/>
+      <c r="O73" s="102"/>
+      <c r="P73" s="102"/>
+      <c r="Q73" s="102"/>
+      <c r="R73" s="102"/>
+      <c r="S73" s="102"/>
+      <c r="T73" s="102"/>
+      <c r="U73" s="102"/>
+      <c r="V73" s="102"/>
+      <c r="W73" s="102"/>
+      <c r="X73" s="102"/>
+      <c r="Y73" s="102"/>
+      <c r="Z73" s="102"/>
     </row>
     <row r="74" spans="1:26" s="57" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A74" s="87" t="s">
+      <c r="A74" s="101" t="s">
         <v>256</v>
       </c>
-      <c r="B74" s="87"/>
-      <c r="C74" s="87"/>
-      <c r="D74" s="87"/>
-      <c r="E74" s="87"/>
-      <c r="F74" s="87"/>
-      <c r="G74" s="87"/>
-      <c r="H74" s="87"/>
-      <c r="I74" s="87"/>
-      <c r="J74" s="87"/>
-      <c r="K74" s="87"/>
-      <c r="L74" s="87"/>
-      <c r="M74" s="87"/>
-      <c r="N74" s="87"/>
-      <c r="O74" s="87"/>
-      <c r="P74" s="87"/>
-      <c r="Q74" s="87"/>
-      <c r="R74" s="87"/>
-      <c r="S74" s="87"/>
-      <c r="T74" s="87"/>
-      <c r="U74" s="87"/>
-      <c r="V74" s="87"/>
-      <c r="W74" s="87"/>
-      <c r="X74" s="87"/>
-      <c r="Y74" s="87"/>
-      <c r="Z74" s="87"/>
+      <c r="B74" s="101"/>
+      <c r="C74" s="101"/>
+      <c r="D74" s="101"/>
+      <c r="E74" s="101"/>
+      <c r="F74" s="101"/>
+      <c r="G74" s="101"/>
+      <c r="H74" s="101"/>
+      <c r="I74" s="101"/>
+      <c r="J74" s="101"/>
+      <c r="K74" s="101"/>
+      <c r="L74" s="101"/>
+      <c r="M74" s="101"/>
+      <c r="N74" s="101"/>
+      <c r="O74" s="101"/>
+      <c r="P74" s="101"/>
+      <c r="Q74" s="101"/>
+      <c r="R74" s="101"/>
+      <c r="S74" s="101"/>
+      <c r="T74" s="101"/>
+      <c r="U74" s="101"/>
+      <c r="V74" s="101"/>
+      <c r="W74" s="101"/>
+      <c r="X74" s="101"/>
+      <c r="Y74" s="101"/>
+      <c r="Z74" s="101"/>
     </row>
     <row r="75" spans="1:26" s="57" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A75" s="87" t="s">
+      <c r="A75" s="101" t="s">
         <v>257</v>
       </c>
-      <c r="B75" s="87"/>
-      <c r="C75" s="87"/>
-      <c r="D75" s="87"/>
-      <c r="E75" s="87"/>
-      <c r="F75" s="87"/>
-      <c r="G75" s="87"/>
-      <c r="H75" s="87"/>
-      <c r="I75" s="87"/>
-      <c r="J75" s="87"/>
-      <c r="K75" s="87"/>
-      <c r="L75" s="87"/>
-      <c r="M75" s="87"/>
-      <c r="N75" s="87"/>
-      <c r="O75" s="87"/>
-      <c r="P75" s="87"/>
-      <c r="Q75" s="87"/>
-      <c r="R75" s="87"/>
-      <c r="S75" s="87"/>
-      <c r="T75" s="87"/>
-      <c r="U75" s="87"/>
-      <c r="V75" s="87"/>
-      <c r="W75" s="87"/>
-      <c r="X75" s="87"/>
-      <c r="Y75" s="87"/>
-      <c r="Z75" s="87"/>
+      <c r="B75" s="101"/>
+      <c r="C75" s="101"/>
+      <c r="D75" s="101"/>
+      <c r="E75" s="101"/>
+      <c r="F75" s="101"/>
+      <c r="G75" s="101"/>
+      <c r="H75" s="101"/>
+      <c r="I75" s="101"/>
+      <c r="J75" s="101"/>
+      <c r="K75" s="101"/>
+      <c r="L75" s="101"/>
+      <c r="M75" s="101"/>
+      <c r="N75" s="101"/>
+      <c r="O75" s="101"/>
+      <c r="P75" s="101"/>
+      <c r="Q75" s="101"/>
+      <c r="R75" s="101"/>
+      <c r="S75" s="101"/>
+      <c r="T75" s="101"/>
+      <c r="U75" s="101"/>
+      <c r="V75" s="101"/>
+      <c r="W75" s="101"/>
+      <c r="X75" s="101"/>
+      <c r="Y75" s="101"/>
+      <c r="Z75" s="101"/>
     </row>
     <row r="76" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A76" s="87" t="s">
+      <c r="A76" s="101" t="s">
         <v>258</v>
       </c>
-      <c r="B76" s="87"/>
-      <c r="C76" s="87"/>
-      <c r="D76" s="87"/>
-      <c r="E76" s="87"/>
-      <c r="F76" s="87"/>
-      <c r="G76" s="87"/>
-      <c r="H76" s="87"/>
-      <c r="I76" s="87"/>
-      <c r="J76" s="87"/>
-      <c r="K76" s="87"/>
-      <c r="L76" s="87"/>
-      <c r="M76" s="87"/>
-      <c r="N76" s="87"/>
-      <c r="O76" s="87"/>
-      <c r="P76" s="87"/>
-      <c r="Q76" s="87"/>
-      <c r="R76" s="87"/>
-      <c r="S76" s="87"/>
-      <c r="T76" s="87"/>
-      <c r="U76" s="87"/>
-      <c r="V76" s="87"/>
-      <c r="W76" s="87"/>
-      <c r="X76" s="87"/>
-      <c r="Y76" s="87"/>
-      <c r="Z76" s="87"/>
+      <c r="B76" s="101"/>
+      <c r="C76" s="101"/>
+      <c r="D76" s="101"/>
+      <c r="E76" s="101"/>
+      <c r="F76" s="101"/>
+      <c r="G76" s="101"/>
+      <c r="H76" s="101"/>
+      <c r="I76" s="101"/>
+      <c r="J76" s="101"/>
+      <c r="K76" s="101"/>
+      <c r="L76" s="101"/>
+      <c r="M76" s="101"/>
+      <c r="N76" s="101"/>
+      <c r="O76" s="101"/>
+      <c r="P76" s="101"/>
+      <c r="Q76" s="101"/>
+      <c r="R76" s="101"/>
+      <c r="S76" s="101"/>
+      <c r="T76" s="101"/>
+      <c r="U76" s="101"/>
+      <c r="V76" s="101"/>
+      <c r="W76" s="101"/>
+      <c r="X76" s="101"/>
+      <c r="Y76" s="101"/>
+      <c r="Z76" s="101"/>
     </row>
     <row r="77" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A77" s="89" t="s">
+      <c r="A77" s="102" t="s">
         <v>259</v>
       </c>
-      <c r="B77" s="89"/>
-      <c r="C77" s="89"/>
-      <c r="D77" s="89"/>
-      <c r="E77" s="89"/>
-      <c r="F77" s="89"/>
-      <c r="G77" s="89"/>
-      <c r="H77" s="89"/>
-      <c r="I77" s="89"/>
-      <c r="J77" s="89"/>
-      <c r="K77" s="89"/>
-      <c r="L77" s="89"/>
-      <c r="M77" s="89"/>
-      <c r="N77" s="89"/>
-      <c r="O77" s="89"/>
-      <c r="P77" s="89"/>
-      <c r="Q77" s="89"/>
-      <c r="R77" s="89"/>
-      <c r="S77" s="89"/>
-      <c r="T77" s="89"/>
-      <c r="U77" s="89"/>
-      <c r="V77" s="89"/>
-      <c r="W77" s="89"/>
-      <c r="X77" s="89"/>
-      <c r="Y77" s="89"/>
-      <c r="Z77" s="89"/>
+      <c r="B77" s="102"/>
+      <c r="C77" s="102"/>
+      <c r="D77" s="102"/>
+      <c r="E77" s="102"/>
+      <c r="F77" s="102"/>
+      <c r="G77" s="102"/>
+      <c r="H77" s="102"/>
+      <c r="I77" s="102"/>
+      <c r="J77" s="102"/>
+      <c r="K77" s="102"/>
+      <c r="L77" s="102"/>
+      <c r="M77" s="102"/>
+      <c r="N77" s="102"/>
+      <c r="O77" s="102"/>
+      <c r="P77" s="102"/>
+      <c r="Q77" s="102"/>
+      <c r="R77" s="102"/>
+      <c r="S77" s="102"/>
+      <c r="T77" s="102"/>
+      <c r="U77" s="102"/>
+      <c r="V77" s="102"/>
+      <c r="W77" s="102"/>
+      <c r="X77" s="102"/>
+      <c r="Y77" s="102"/>
+      <c r="Z77" s="102"/>
     </row>
     <row r="78" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A78" s="87" t="s">
+      <c r="A78" s="101" t="s">
         <v>260</v>
       </c>
-      <c r="B78" s="87"/>
-      <c r="C78" s="87"/>
-      <c r="D78" s="87"/>
-      <c r="E78" s="87"/>
-      <c r="F78" s="87"/>
-      <c r="G78" s="87"/>
-      <c r="H78" s="87"/>
-      <c r="I78" s="87"/>
-      <c r="J78" s="87"/>
-      <c r="K78" s="87"/>
-      <c r="L78" s="87"/>
-      <c r="M78" s="87"/>
-      <c r="N78" s="87"/>
-      <c r="O78" s="87"/>
-      <c r="P78" s="87"/>
-      <c r="Q78" s="87"/>
-      <c r="R78" s="87"/>
-      <c r="S78" s="87"/>
-      <c r="T78" s="87"/>
-      <c r="U78" s="87"/>
-      <c r="V78" s="87"/>
-      <c r="W78" s="87"/>
-      <c r="X78" s="87"/>
-      <c r="Y78" s="87"/>
-      <c r="Z78" s="87"/>
+      <c r="B78" s="101"/>
+      <c r="C78" s="101"/>
+      <c r="D78" s="101"/>
+      <c r="E78" s="101"/>
+      <c r="F78" s="101"/>
+      <c r="G78" s="101"/>
+      <c r="H78" s="101"/>
+      <c r="I78" s="101"/>
+      <c r="J78" s="101"/>
+      <c r="K78" s="101"/>
+      <c r="L78" s="101"/>
+      <c r="M78" s="101"/>
+      <c r="N78" s="101"/>
+      <c r="O78" s="101"/>
+      <c r="P78" s="101"/>
+      <c r="Q78" s="101"/>
+      <c r="R78" s="101"/>
+      <c r="S78" s="101"/>
+      <c r="T78" s="101"/>
+      <c r="U78" s="101"/>
+      <c r="V78" s="101"/>
+      <c r="W78" s="101"/>
+      <c r="X78" s="101"/>
+      <c r="Y78" s="101"/>
+      <c r="Z78" s="101"/>
     </row>
     <row r="79" spans="1:26" s="57" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A79" s="87" t="s">
+      <c r="A79" s="101" t="s">
         <v>258</v>
       </c>
-      <c r="B79" s="87"/>
-      <c r="C79" s="87"/>
-      <c r="D79" s="87"/>
-      <c r="E79" s="87"/>
-      <c r="F79" s="87"/>
-      <c r="G79" s="87"/>
-      <c r="H79" s="87"/>
-      <c r="I79" s="87"/>
-      <c r="J79" s="87"/>
-      <c r="K79" s="87"/>
-      <c r="L79" s="87"/>
-      <c r="M79" s="87"/>
-      <c r="N79" s="87"/>
-      <c r="O79" s="87"/>
-      <c r="P79" s="87"/>
-      <c r="Q79" s="87"/>
-      <c r="R79" s="87"/>
-      <c r="S79" s="87"/>
-      <c r="T79" s="87"/>
-      <c r="U79" s="87"/>
-      <c r="V79" s="87"/>
-      <c r="W79" s="87"/>
-      <c r="X79" s="87"/>
-      <c r="Y79" s="87"/>
-      <c r="Z79" s="87"/>
+      <c r="B79" s="101"/>
+      <c r="C79" s="101"/>
+      <c r="D79" s="101"/>
+      <c r="E79" s="101"/>
+      <c r="F79" s="101"/>
+      <c r="G79" s="101"/>
+      <c r="H79" s="101"/>
+      <c r="I79" s="101"/>
+      <c r="J79" s="101"/>
+      <c r="K79" s="101"/>
+      <c r="L79" s="101"/>
+      <c r="M79" s="101"/>
+      <c r="N79" s="101"/>
+      <c r="O79" s="101"/>
+      <c r="P79" s="101"/>
+      <c r="Q79" s="101"/>
+      <c r="R79" s="101"/>
+      <c r="S79" s="101"/>
+      <c r="T79" s="101"/>
+      <c r="U79" s="101"/>
+      <c r="V79" s="101"/>
+      <c r="W79" s="101"/>
+      <c r="X79" s="101"/>
+      <c r="Y79" s="101"/>
+      <c r="Z79" s="101"/>
     </row>
     <row r="80" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A80" s="90" t="s">
+      <c r="A80" s="104" t="s">
         <v>261</v>
       </c>
-      <c r="B80" s="90"/>
-      <c r="C80" s="90"/>
-      <c r="D80" s="90"/>
-      <c r="E80" s="90"/>
-      <c r="F80" s="90"/>
-      <c r="G80" s="90"/>
-      <c r="H80" s="90"/>
-      <c r="I80" s="90"/>
-      <c r="J80" s="90"/>
-      <c r="K80" s="90"/>
-      <c r="L80" s="90"/>
-      <c r="M80" s="90"/>
-      <c r="N80" s="90"/>
-      <c r="O80" s="90"/>
-      <c r="P80" s="90"/>
-      <c r="Q80" s="90"/>
-      <c r="R80" s="90"/>
-      <c r="S80" s="90"/>
-      <c r="T80" s="90"/>
-      <c r="U80" s="90"/>
-      <c r="V80" s="90"/>
-      <c r="W80" s="90"/>
-      <c r="X80" s="90"/>
-      <c r="Y80" s="90"/>
-      <c r="Z80" s="90"/>
+      <c r="B80" s="104"/>
+      <c r="C80" s="104"/>
+      <c r="D80" s="104"/>
+      <c r="E80" s="104"/>
+      <c r="F80" s="104"/>
+      <c r="G80" s="104"/>
+      <c r="H80" s="104"/>
+      <c r="I80" s="104"/>
+      <c r="J80" s="104"/>
+      <c r="K80" s="104"/>
+      <c r="L80" s="104"/>
+      <c r="M80" s="104"/>
+      <c r="N80" s="104"/>
+      <c r="O80" s="104"/>
+      <c r="P80" s="104"/>
+      <c r="Q80" s="104"/>
+      <c r="R80" s="104"/>
+      <c r="S80" s="104"/>
+      <c r="T80" s="104"/>
+      <c r="U80" s="104"/>
+      <c r="V80" s="104"/>
+      <c r="W80" s="104"/>
+      <c r="X80" s="104"/>
+      <c r="Y80" s="104"/>
+      <c r="Z80" s="104"/>
     </row>
     <row r="81" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A81" s="87" t="s">
+      <c r="A81" s="101" t="s">
         <v>262</v>
       </c>
-      <c r="B81" s="87"/>
-      <c r="C81" s="87"/>
-      <c r="D81" s="87"/>
-      <c r="E81" s="87"/>
-      <c r="F81" s="87"/>
-      <c r="G81" s="87"/>
-      <c r="H81" s="87"/>
-      <c r="I81" s="87"/>
-      <c r="J81" s="87"/>
-      <c r="K81" s="87"/>
-      <c r="L81" s="87"/>
-      <c r="M81" s="87"/>
-      <c r="N81" s="87"/>
-      <c r="O81" s="87"/>
-      <c r="P81" s="87"/>
-      <c r="Q81" s="87"/>
-      <c r="R81" s="87"/>
-      <c r="S81" s="87"/>
-      <c r="T81" s="87"/>
-      <c r="U81" s="87"/>
-      <c r="V81" s="87"/>
-      <c r="W81" s="87"/>
-      <c r="X81" s="87"/>
-      <c r="Y81" s="87"/>
-      <c r="Z81" s="87"/>
+      <c r="B81" s="101"/>
+      <c r="C81" s="101"/>
+      <c r="D81" s="101"/>
+      <c r="E81" s="101"/>
+      <c r="F81" s="101"/>
+      <c r="G81" s="101"/>
+      <c r="H81" s="101"/>
+      <c r="I81" s="101"/>
+      <c r="J81" s="101"/>
+      <c r="K81" s="101"/>
+      <c r="L81" s="101"/>
+      <c r="M81" s="101"/>
+      <c r="N81" s="101"/>
+      <c r="O81" s="101"/>
+      <c r="P81" s="101"/>
+      <c r="Q81" s="101"/>
+      <c r="R81" s="101"/>
+      <c r="S81" s="101"/>
+      <c r="T81" s="101"/>
+      <c r="U81" s="101"/>
+      <c r="V81" s="101"/>
+      <c r="W81" s="101"/>
+      <c r="X81" s="101"/>
+      <c r="Y81" s="101"/>
+      <c r="Z81" s="101"/>
     </row>
     <row r="82" spans="1:26" s="56" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A82" s="87" t="s">
+      <c r="A82" s="101" t="s">
         <v>263</v>
       </c>
-      <c r="B82" s="87"/>
-      <c r="C82" s="87"/>
-      <c r="D82" s="87"/>
-      <c r="E82" s="87"/>
-      <c r="F82" s="87"/>
-      <c r="G82" s="87"/>
-      <c r="H82" s="87"/>
-      <c r="I82" s="87"/>
-      <c r="J82" s="87"/>
-      <c r="K82" s="87"/>
-      <c r="L82" s="87"/>
-      <c r="M82" s="87"/>
-      <c r="N82" s="87"/>
-      <c r="O82" s="87"/>
-      <c r="P82" s="87"/>
-      <c r="Q82" s="87"/>
-      <c r="R82" s="87"/>
-      <c r="S82" s="87"/>
-      <c r="T82" s="87"/>
-      <c r="U82" s="87"/>
-      <c r="V82" s="87"/>
-      <c r="W82" s="87"/>
-      <c r="X82" s="87"/>
-      <c r="Y82" s="87"/>
-      <c r="Z82" s="87"/>
+      <c r="B82" s="101"/>
+      <c r="C82" s="101"/>
+      <c r="D82" s="101"/>
+      <c r="E82" s="101"/>
+      <c r="F82" s="101"/>
+      <c r="G82" s="101"/>
+      <c r="H82" s="101"/>
+      <c r="I82" s="101"/>
+      <c r="J82" s="101"/>
+      <c r="K82" s="101"/>
+      <c r="L82" s="101"/>
+      <c r="M82" s="101"/>
+      <c r="N82" s="101"/>
+      <c r="O82" s="101"/>
+      <c r="P82" s="101"/>
+      <c r="Q82" s="101"/>
+      <c r="R82" s="101"/>
+      <c r="S82" s="101"/>
+      <c r="T82" s="101"/>
+      <c r="U82" s="101"/>
+      <c r="V82" s="101"/>
+      <c r="W82" s="101"/>
+      <c r="X82" s="101"/>
+      <c r="Y82" s="101"/>
+      <c r="Z82" s="101"/>
     </row>
     <row r="83" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A83" s="87" t="s">
+      <c r="A83" s="101" t="s">
         <v>264</v>
       </c>
-      <c r="B83" s="87"/>
-      <c r="C83" s="87"/>
-      <c r="D83" s="87"/>
-      <c r="E83" s="87"/>
-      <c r="F83" s="87"/>
-      <c r="G83" s="87"/>
-      <c r="H83" s="87"/>
-      <c r="I83" s="87"/>
-      <c r="J83" s="87"/>
-      <c r="K83" s="87"/>
-      <c r="L83" s="87"/>
-      <c r="M83" s="87"/>
-      <c r="N83" s="87"/>
-      <c r="O83" s="87"/>
-      <c r="P83" s="87"/>
-      <c r="Q83" s="87"/>
-      <c r="R83" s="87"/>
-      <c r="S83" s="87"/>
-      <c r="T83" s="87"/>
-      <c r="U83" s="87"/>
-      <c r="V83" s="87"/>
-      <c r="W83" s="87"/>
-      <c r="X83" s="87"/>
-      <c r="Y83" s="87"/>
-      <c r="Z83" s="87"/>
+      <c r="B83" s="101"/>
+      <c r="C83" s="101"/>
+      <c r="D83" s="101"/>
+      <c r="E83" s="101"/>
+      <c r="F83" s="101"/>
+      <c r="G83" s="101"/>
+      <c r="H83" s="101"/>
+      <c r="I83" s="101"/>
+      <c r="J83" s="101"/>
+      <c r="K83" s="101"/>
+      <c r="L83" s="101"/>
+      <c r="M83" s="101"/>
+      <c r="N83" s="101"/>
+      <c r="O83" s="101"/>
+      <c r="P83" s="101"/>
+      <c r="Q83" s="101"/>
+      <c r="R83" s="101"/>
+      <c r="S83" s="101"/>
+      <c r="T83" s="101"/>
+      <c r="U83" s="101"/>
+      <c r="V83" s="101"/>
+      <c r="W83" s="101"/>
+      <c r="X83" s="101"/>
+      <c r="Y83" s="101"/>
+      <c r="Z83" s="101"/>
     </row>
     <row r="84" spans="1:26" ht="12.75" customHeight="1">
-      <c r="A84" s="88" t="s">
+      <c r="A84" s="105" t="s">
         <v>265</v>
       </c>
-      <c r="B84" s="88"/>
-      <c r="C84" s="88"/>
-      <c r="D84" s="88"/>
-      <c r="E84" s="88"/>
-      <c r="F84" s="88"/>
-      <c r="G84" s="88"/>
-      <c r="H84" s="88"/>
-      <c r="I84" s="88"/>
-      <c r="J84" s="88"/>
-      <c r="K84" s="88"/>
-      <c r="L84" s="88"/>
-      <c r="M84" s="88"/>
-      <c r="N84" s="88"/>
-      <c r="O84" s="88"/>
-      <c r="P84" s="88"/>
-      <c r="Q84" s="88"/>
-      <c r="R84" s="88"/>
-      <c r="S84" s="88"/>
-      <c r="T84" s="88"/>
-      <c r="U84" s="88"/>
-      <c r="V84" s="88"/>
-      <c r="W84" s="88"/>
-      <c r="X84" s="88"/>
-      <c r="Y84" s="88"/>
-      <c r="Z84" s="88"/>
+      <c r="B84" s="105"/>
+      <c r="C84" s="105"/>
+      <c r="D84" s="105"/>
+      <c r="E84" s="105"/>
+      <c r="F84" s="105"/>
+      <c r="G84" s="105"/>
+      <c r="H84" s="105"/>
+      <c r="I84" s="105"/>
+      <c r="J84" s="105"/>
+      <c r="K84" s="105"/>
+      <c r="L84" s="105"/>
+      <c r="M84" s="105"/>
+      <c r="N84" s="105"/>
+      <c r="O84" s="105"/>
+      <c r="P84" s="105"/>
+      <c r="Q84" s="105"/>
+      <c r="R84" s="105"/>
+      <c r="S84" s="105"/>
+      <c r="T84" s="105"/>
+      <c r="U84" s="105"/>
+      <c r="V84" s="105"/>
+      <c r="W84" s="105"/>
+      <c r="X84" s="105"/>
+      <c r="Y84" s="105"/>
+      <c r="Z84" s="105"/>
     </row>
   </sheetData>
   <mergeCells count="58">
+    <mergeCell ref="A81:Z81"/>
+    <mergeCell ref="A82:Z82"/>
+    <mergeCell ref="A83:Z83"/>
+    <mergeCell ref="A84:Z84"/>
+    <mergeCell ref="A75:Z75"/>
+    <mergeCell ref="A76:Z76"/>
+    <mergeCell ref="A77:Z77"/>
+    <mergeCell ref="A78:Z78"/>
+    <mergeCell ref="A79:Z79"/>
+    <mergeCell ref="A80:Z80"/>
+    <mergeCell ref="A74:Z74"/>
+    <mergeCell ref="A63:Z63"/>
+    <mergeCell ref="A64:Z64"/>
+    <mergeCell ref="A65:Z65"/>
+    <mergeCell ref="A66:Z66"/>
+    <mergeCell ref="A67:Z67"/>
+    <mergeCell ref="A68:Z68"/>
+    <mergeCell ref="A69:Z69"/>
+    <mergeCell ref="A70:Z70"/>
+    <mergeCell ref="A71:Z71"/>
+    <mergeCell ref="A72:Z72"/>
+    <mergeCell ref="A73:Z73"/>
+    <mergeCell ref="A62:Z62"/>
+    <mergeCell ref="A51:Z51"/>
+    <mergeCell ref="A52:Z52"/>
+    <mergeCell ref="A53:Z53"/>
+    <mergeCell ref="A54:Z54"/>
+    <mergeCell ref="A55:Z55"/>
+    <mergeCell ref="A56:Z56"/>
+    <mergeCell ref="A57:Z57"/>
+    <mergeCell ref="A58:Z58"/>
+    <mergeCell ref="A59:Z59"/>
+    <mergeCell ref="A60:Z60"/>
+    <mergeCell ref="A61:Z61"/>
+    <mergeCell ref="A50:Z50"/>
+    <mergeCell ref="A39:Z39"/>
+    <mergeCell ref="A40:Z40"/>
+    <mergeCell ref="A41:Z41"/>
+    <mergeCell ref="A42:Z42"/>
+    <mergeCell ref="A43:Z43"/>
+    <mergeCell ref="A44:Z44"/>
+    <mergeCell ref="A45:Z45"/>
+    <mergeCell ref="A46:Z46"/>
+    <mergeCell ref="A47:Z47"/>
+    <mergeCell ref="A48:Z48"/>
+    <mergeCell ref="A49:Z49"/>
     <mergeCell ref="A38:Z38"/>
     <mergeCell ref="A1:AG1"/>
     <mergeCell ref="A28:Z28"/>
@@ -11694,52 +11775,6 @@
     <mergeCell ref="A35:Z35"/>
     <mergeCell ref="A36:Z36"/>
     <mergeCell ref="A37:Z37"/>
-    <mergeCell ref="A50:Z50"/>
-    <mergeCell ref="A39:Z39"/>
-    <mergeCell ref="A40:Z40"/>
-    <mergeCell ref="A41:Z41"/>
-    <mergeCell ref="A42:Z42"/>
-    <mergeCell ref="A43:Z43"/>
-    <mergeCell ref="A44:Z44"/>
-    <mergeCell ref="A45:Z45"/>
-    <mergeCell ref="A46:Z46"/>
-    <mergeCell ref="A47:Z47"/>
-    <mergeCell ref="A48:Z48"/>
-    <mergeCell ref="A49:Z49"/>
-    <mergeCell ref="A62:Z62"/>
-    <mergeCell ref="A51:Z51"/>
-    <mergeCell ref="A52:Z52"/>
-    <mergeCell ref="A53:Z53"/>
-    <mergeCell ref="A54:Z54"/>
-    <mergeCell ref="A55:Z55"/>
-    <mergeCell ref="A56:Z56"/>
-    <mergeCell ref="A57:Z57"/>
-    <mergeCell ref="A58:Z58"/>
-    <mergeCell ref="A59:Z59"/>
-    <mergeCell ref="A60:Z60"/>
-    <mergeCell ref="A61:Z61"/>
-    <mergeCell ref="A74:Z74"/>
-    <mergeCell ref="A63:Z63"/>
-    <mergeCell ref="A64:Z64"/>
-    <mergeCell ref="A65:Z65"/>
-    <mergeCell ref="A66:Z66"/>
-    <mergeCell ref="A67:Z67"/>
-    <mergeCell ref="A68:Z68"/>
-    <mergeCell ref="A69:Z69"/>
-    <mergeCell ref="A70:Z70"/>
-    <mergeCell ref="A71:Z71"/>
-    <mergeCell ref="A72:Z72"/>
-    <mergeCell ref="A73:Z73"/>
-    <mergeCell ref="A81:Z81"/>
-    <mergeCell ref="A82:Z82"/>
-    <mergeCell ref="A83:Z83"/>
-    <mergeCell ref="A84:Z84"/>
-    <mergeCell ref="A75:Z75"/>
-    <mergeCell ref="A76:Z76"/>
-    <mergeCell ref="A77:Z77"/>
-    <mergeCell ref="A78:Z78"/>
-    <mergeCell ref="A79:Z79"/>
-    <mergeCell ref="A80:Z80"/>
   </mergeCells>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
   <pageSetup scale="42" fitToHeight="0" orientation="landscape" r:id="rId1"/>
@@ -11747,22 +11782,22 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0B00-000000000000}">
   <dimension ref="A1:G11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="26.86328125" customWidth="1"/>
-    <col min="2" max="2" width="16.73046875" customWidth="1"/>
-    <col min="3" max="3" width="12.59765625" customWidth="1"/>
-    <col min="4" max="4" width="14.1328125" customWidth="1"/>
-    <col min="5" max="5" width="16.73046875" customWidth="1"/>
-    <col min="6" max="6" width="16.265625" customWidth="1"/>
-    <col min="7" max="7" width="15.86328125" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" customWidth="1"/>
+    <col min="2" max="2" width="16.7265625" customWidth="1"/>
+    <col min="3" max="3" width="12.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14.08984375" customWidth="1"/>
+    <col min="5" max="5" width="16.7265625" customWidth="1"/>
+    <col min="6" max="6" width="16.26953125" customWidth="1"/>
+    <col min="7" max="7" width="15.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -11773,7 +11808,7 @@
     <row r="2" spans="1:7">
       <c r="A2" s="1"/>
     </row>
-    <row r="3" spans="1:7" ht="42.75">
+    <row r="3" spans="1:7" ht="43.5">
       <c r="A3" s="9" t="s">
         <v>20</v>
       </c>
@@ -11987,7 +12022,7 @@
 </file>
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -11997,14 +12032,14 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" style="14" customWidth="1"/>
+    <col min="1" max="1" width="16.6328125" style="14" customWidth="1"/>
     <col min="2" max="2" width="9" style="14" customWidth="1"/>
-    <col min="3" max="16384" width="9.1328125" style="14"/>
+    <col min="3" max="16384" width="9.08984375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="28.5">
+    <row r="1" spans="1:34" ht="29">
       <c r="A1" s="9" t="s">
         <v>270</v>
       </c>
@@ -12525,135 +12560,135 @@
       </c>
       <c r="B5" s="15">
         <f>INDEX('AEO 7'!23:23,MATCH(About!$B$35,'AEO 7'!$13:$13,0))*1000000000/SUM('SYVbT-passenger'!B5:H5)/'AVLo-passengers'!B5</f>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="C5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="D5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="E5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="F5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="G5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="H5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="I5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="J5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="K5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="L5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="M5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="N5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="O5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="P5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="Q5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="R5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="S5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="T5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="U5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="V5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="W5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="X5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="Y5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="Z5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="AA5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="AB5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="AC5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="AD5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="AE5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="AF5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="AG5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
       <c r="AH5" s="15">
         <f t="shared" si="0"/>
-        <v>336815.15580485889</v>
+        <v>33681.515580485888</v>
       </c>
     </row>
     <row r="6" spans="1:34">
@@ -12940,7 +12975,7 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
@@ -12950,13 +12985,13 @@
       <selection activeCell="B2" sqref="B2:B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" style="14" customWidth="1"/>
-    <col min="2" max="16384" width="9.1328125" style="14"/>
+    <col min="1" max="1" width="16.6328125" style="14" customWidth="1"/>
+    <col min="2" max="16384" width="9.08984375" style="14"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="28.5">
+    <row r="1" spans="1:33" ht="29">
       <c r="A1" s="9" t="s">
         <v>270</v>
       </c>
@@ -13861,23 +13896,23 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:H19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" customWidth="1"/>
-    <col min="3" max="3" width="20.86328125" customWidth="1"/>
-    <col min="4" max="4" width="18.265625" customWidth="1"/>
-    <col min="5" max="5" width="17.1328125" customWidth="1"/>
-    <col min="6" max="6" width="23.265625" customWidth="1"/>
-    <col min="7" max="7" width="19.265625" customWidth="1"/>
-    <col min="8" max="8" width="22.59765625" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" customWidth="1"/>
+    <col min="6" max="6" width="23.26953125" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" customWidth="1"/>
+    <col min="8" max="8" width="22.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -14074,23 +14109,23 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:H7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.86328125" customWidth="1"/>
-    <col min="2" max="2" width="24.59765625" customWidth="1"/>
-    <col min="3" max="3" width="20.86328125" customWidth="1"/>
-    <col min="4" max="4" width="18.265625" customWidth="1"/>
-    <col min="5" max="5" width="17.1328125" customWidth="1"/>
-    <col min="6" max="6" width="23.265625" customWidth="1"/>
-    <col min="7" max="7" width="19.265625" customWidth="1"/>
-    <col min="8" max="8" width="20.59765625" customWidth="1"/>
+    <col min="1" max="1" width="16.81640625" customWidth="1"/>
+    <col min="2" max="2" width="24.6328125" customWidth="1"/>
+    <col min="3" max="3" width="20.81640625" customWidth="1"/>
+    <col min="4" max="4" width="18.26953125" customWidth="1"/>
+    <col min="5" max="5" width="17.08984375" customWidth="1"/>
+    <col min="6" max="6" width="23.26953125" customWidth="1"/>
+    <col min="7" max="7" width="19.26953125" customWidth="1"/>
+    <col min="8" max="8" width="20.6328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
@@ -14281,17 +14316,17 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:AK7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B2" sqref="B2:AK7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="13.1328125" customWidth="1"/>
-    <col min="2" max="2" width="8.73046875" customWidth="1"/>
+    <col min="1" max="1" width="13.08984375" customWidth="1"/>
+    <col min="2" max="2" width="8.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
@@ -14410,112 +14445,112 @@
         <v>5</v>
       </c>
       <c r="B2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="C2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="D2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="E2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="F2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="G2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="H2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="I2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="J2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="K2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="L2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="M2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="N2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="O2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="P2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="Q2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="R2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="S2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="T2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="U2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="V2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="W2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="X2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="Y2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="Z2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AA2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AB2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AC2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AD2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AE2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AF2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AG2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AH2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AI2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AJ2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
       <c r="AK2" s="26">
-        <v>1</v>
+        <v>1.67</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -14749,112 +14784,112 @@
         <v>8</v>
       </c>
       <c r="B5" s="27">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="C5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="D5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="E5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="F5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="G5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="H5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="I5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="J5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="K5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="L5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="M5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="N5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="O5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="P5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="Q5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="R5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="S5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="T5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="U5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="V5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="W5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="X5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="Y5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="Z5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="AA5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="AB5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="AC5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="AD5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="AE5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="AF5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="AG5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="AH5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="AI5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="AJ5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
       <c r="AK5" s="26">
-        <v>48.656731685074099</v>
+        <v>486.56731685074101</v>
       </c>
     </row>
     <row r="6" spans="1:37">
@@ -14862,112 +14897,112 @@
         <v>9</v>
       </c>
       <c r="B6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="C6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="D6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="E6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="F6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="G6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="H6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="I6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="J6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="K6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="L6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="M6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="N6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="O6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="P6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="Q6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="R6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="S6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="T6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="U6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="V6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="W6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="X6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="Y6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="Z6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="AA6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="AB6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="AC6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="AD6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="AE6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="AF6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="AG6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="AH6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="AI6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="AJ6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
       <c r="AK6" s="26">
-        <v>2.9333333333333336</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:37">
@@ -15089,16 +15124,16 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:AJ7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="11.86328125" customWidth="1"/>
+    <col min="1" max="1" width="11.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:36" s="1" customFormat="1">
@@ -15875,7 +15910,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:AI97"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -15888,8 +15923,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="24.86328125" customWidth="1"/>
-    <col min="2" max="2" width="45.73046875" customWidth="1"/>
+    <col min="1" max="1" width="24.81640625" customWidth="1"/>
+    <col min="2" max="2" width="45.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:35" ht="15" customHeight="1" thickBot="1">
@@ -22311,14 +22346,14 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:B38"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="17.265625" defaultRowHeight="14.25"/>
+  <sheetFormatPr defaultColWidth="17.26953125" defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:2">
       <c r="A1" t="s">
@@ -22620,7 +22655,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:AM200"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -22631,13 +22666,13 @@
       <selection pane="bottomRight" activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="9.08984375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="9.1328125" style="58"/>
-    <col min="2" max="2" width="116.59765625" style="76" customWidth="1"/>
-    <col min="3" max="3" width="53.1328125" style="58" customWidth="1"/>
-    <col min="4" max="4" width="45.73046875" style="58" customWidth="1"/>
-    <col min="5" max="16384" width="9.1328125" style="58"/>
+    <col min="1" max="1" width="9.08984375" style="58"/>
+    <col min="2" max="2" width="116.6328125" style="76" customWidth="1"/>
+    <col min="3" max="3" width="53.08984375" style="58" customWidth="1"/>
+    <col min="4" max="4" width="45.7265625" style="58" customWidth="1"/>
+    <col min="5" max="16384" width="9.08984375" style="58"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:38" ht="15" customHeight="1" thickBot="1">
@@ -22766,31 +22801,31 @@
         <v>47</v>
       </c>
     </row>
-    <row r="5" spans="1:38" ht="14.25">
+    <row r="5" spans="1:38" ht="14.5">
       <c r="A5" s="58" t="s">
         <v>297</v>
       </c>
       <c r="B5" s="58"/>
     </row>
-    <row r="6" spans="1:38" ht="14.25">
+    <row r="6" spans="1:38" ht="14.5">
       <c r="A6" s="58" t="s">
         <v>298</v>
       </c>
       <c r="B6" s="58"/>
     </row>
-    <row r="7" spans="1:38" ht="14.25">
+    <row r="7" spans="1:38" ht="14.5">
       <c r="A7" s="58" t="s">
         <v>299</v>
       </c>
       <c r="B7" s="58"/>
     </row>
-    <row r="8" spans="1:38" ht="14.25">
+    <row r="8" spans="1:38" ht="14.5">
       <c r="A8" s="58" t="s">
         <v>279</v>
       </c>
       <c r="B8" s="58"/>
     </row>
-    <row r="9" spans="1:38" ht="14.25">
+    <row r="9" spans="1:38" ht="14.5">
       <c r="B9" s="58" t="s">
         <v>300</v>
       </c>
@@ -22900,7 +22935,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="10" spans="1:38" ht="14.25">
+    <row r="10" spans="1:38" ht="14.5">
       <c r="A10" s="58" t="s">
         <v>168</v>
       </c>
@@ -23013,7 +23048,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="11" spans="1:38" ht="14.25">
+    <row r="11" spans="1:38" ht="14.5">
       <c r="A11" s="58" t="s">
         <v>169</v>
       </c>
@@ -23022,7 +23057,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="12" spans="1:38" ht="14.25">
+    <row r="12" spans="1:38" ht="14.5">
       <c r="A12" s="58" t="s">
         <v>302</v>
       </c>
@@ -23135,7 +23170,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="13" spans="1:38" ht="14.25">
+    <row r="13" spans="1:38" ht="14.5">
       <c r="A13" s="58" t="s">
         <v>304</v>
       </c>
@@ -23248,7 +23283,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:38" ht="14.25">
+    <row r="14" spans="1:38" ht="14.5">
       <c r="A14" s="58" t="s">
         <v>306</v>
       </c>
@@ -23361,7 +23396,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:38" ht="14.25">
+    <row r="15" spans="1:38" ht="14.5">
       <c r="A15" s="58" t="s">
         <v>170</v>
       </c>
@@ -23370,7 +23405,7 @@
         <v>512</v>
       </c>
     </row>
-    <row r="16" spans="1:38" ht="14.25">
+    <row r="16" spans="1:38" ht="14.5">
       <c r="A16" s="58" t="s">
         <v>308</v>
       </c>
@@ -23483,7 +23518,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="17" spans="1:37" ht="14.25">
+    <row r="17" spans="1:37" ht="14.5">
       <c r="A17" s="58" t="s">
         <v>310</v>
       </c>
@@ -23596,7 +23631,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:37" ht="14.25">
+    <row r="18" spans="1:37" ht="14.5">
       <c r="A18" s="58" t="s">
         <v>171</v>
       </c>
@@ -23605,7 +23640,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="19" spans="1:37" ht="14.25">
+    <row r="19" spans="1:37" ht="14.5">
       <c r="A19" s="58" t="s">
         <v>312</v>
       </c>
@@ -23614,7 +23649,7 @@
         <v>517</v>
       </c>
     </row>
-    <row r="20" spans="1:37" ht="14.25">
+    <row r="20" spans="1:37" ht="14.5">
       <c r="A20" s="58" t="s">
         <v>313</v>
       </c>
@@ -23727,7 +23762,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="21" spans="1:37" ht="14.25">
+    <row r="21" spans="1:37" ht="14.5">
       <c r="A21" s="58" t="s">
         <v>315</v>
       </c>
@@ -23840,7 +23875,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="22" spans="1:37" ht="14.25">
+    <row r="22" spans="1:37" ht="14.5">
       <c r="A22" s="58" t="s">
         <v>317</v>
       </c>
@@ -23953,7 +23988,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="23" spans="1:37" ht="14.25">
+    <row r="23" spans="1:37" ht="14.5">
       <c r="A23" s="58" t="s">
         <v>319</v>
       </c>
@@ -24066,7 +24101,7 @@
         <v>4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="24" spans="1:37" ht="14.25">
+    <row r="24" spans="1:37" ht="14.5">
       <c r="A24" s="58" t="s">
         <v>321</v>
       </c>
@@ -24179,7 +24214,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="25" spans="1:37" ht="14.25">
+    <row r="25" spans="1:37" ht="14.5">
       <c r="A25" s="58" t="s">
         <v>323</v>
       </c>
@@ -24292,7 +24327,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="26" spans="1:37" ht="14.25">
+    <row r="26" spans="1:37" ht="14.5">
       <c r="A26" s="58" t="s">
         <v>325</v>
       </c>
@@ -24405,7 +24440,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="27" spans="1:37" ht="14.25">
+    <row r="27" spans="1:37" ht="14.5">
       <c r="A27" s="58" t="s">
         <v>327</v>
       </c>
@@ -24518,7 +24553,7 @@
         <v>-2E-3</v>
       </c>
     </row>
-    <row r="28" spans="1:37" ht="14.25">
+    <row r="28" spans="1:37" ht="14.5">
       <c r="A28" s="58" t="s">
         <v>329</v>
       </c>
@@ -24631,7 +24666,7 @@
         <v>-1E-3</v>
       </c>
     </row>
-    <row r="29" spans="1:37" ht="14.25">
+    <row r="29" spans="1:37" ht="14.5">
       <c r="A29" s="58" t="s">
         <v>331</v>
       </c>
@@ -24744,7 +24779,7 @@
         <v>-4.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="30" spans="1:37" ht="14.25">
+    <row r="30" spans="1:37" ht="14.5">
       <c r="A30" s="58" t="s">
         <v>333</v>
       </c>
@@ -24857,7 +24892,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="31" spans="1:37" ht="14.25">
+    <row r="31" spans="1:37" ht="14.5">
       <c r="A31" s="58" t="s">
         <v>335</v>
       </c>
@@ -24970,7 +25005,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="32" spans="1:37" ht="14.25">
+    <row r="32" spans="1:37" ht="14.5">
       <c r="A32" s="58" t="s">
         <v>337</v>
       </c>
@@ -25083,7 +25118,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="33" spans="1:37" ht="14.25">
+    <row r="33" spans="1:37" ht="14.5">
       <c r="A33" s="58" t="s">
         <v>172</v>
       </c>
@@ -25092,7 +25127,7 @@
         <v>532</v>
       </c>
     </row>
-    <row r="34" spans="1:37" ht="14.25">
+    <row r="34" spans="1:37" ht="14.5">
       <c r="A34" s="58" t="s">
         <v>339</v>
       </c>
@@ -25101,7 +25136,7 @@
         <v>533</v>
       </c>
     </row>
-    <row r="35" spans="1:37" ht="14.25">
+    <row r="35" spans="1:37" ht="14.5">
       <c r="A35" s="58" t="s">
         <v>302</v>
       </c>
@@ -25110,7 +25145,7 @@
         <v>534</v>
       </c>
     </row>
-    <row r="36" spans="1:37" ht="14.25">
+    <row r="36" spans="1:37" ht="14.5">
       <c r="A36" s="58" t="s">
         <v>313</v>
       </c>
@@ -25223,7 +25258,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="37" spans="1:37" ht="14.25">
+    <row r="37" spans="1:37" ht="14.5">
       <c r="A37" s="58" t="s">
         <v>315</v>
       </c>
@@ -25336,7 +25371,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="38" spans="1:37" ht="14.25">
+    <row r="38" spans="1:37" ht="14.5">
       <c r="A38" s="58" t="s">
         <v>317</v>
       </c>
@@ -25449,7 +25484,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="39" spans="1:37" ht="14.25">
+    <row r="39" spans="1:37" ht="14.5">
       <c r="A39" s="58" t="s">
         <v>319</v>
       </c>
@@ -25562,7 +25597,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="40" spans="1:37" ht="14.25">
+    <row r="40" spans="1:37" ht="14.5">
       <c r="A40" s="58" t="s">
         <v>321</v>
       </c>
@@ -25675,7 +25710,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="41" spans="1:37" ht="14.25">
+    <row r="41" spans="1:37" ht="14.5">
       <c r="A41" s="58" t="s">
         <v>323</v>
       </c>
@@ -25788,7 +25823,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="42" spans="1:37" ht="14.25">
+    <row r="42" spans="1:37" ht="14.5">
       <c r="A42" s="58" t="s">
         <v>325</v>
       </c>
@@ -25901,7 +25936,7 @@
         <v>2.8000000000000001E-2</v>
       </c>
     </row>
-    <row r="43" spans="1:37" ht="14.25">
+    <row r="43" spans="1:37" ht="14.5">
       <c r="A43" s="58" t="s">
         <v>327</v>
       </c>
@@ -26014,7 +26049,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="44" spans="1:37" ht="14.25">
+    <row r="44" spans="1:37" ht="14.5">
       <c r="A44" s="58" t="s">
         <v>329</v>
       </c>
@@ -26127,7 +26162,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="45" spans="1:37" ht="14.25">
+    <row r="45" spans="1:37" ht="14.5">
       <c r="A45" s="58" t="s">
         <v>331</v>
       </c>
@@ -26240,7 +26275,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="46" spans="1:37" ht="14.25">
+    <row r="46" spans="1:37" ht="14.5">
       <c r="A46" s="58" t="s">
         <v>333</v>
       </c>
@@ -26353,7 +26388,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="47" spans="1:37" ht="14.25">
+    <row r="47" spans="1:37" ht="14.5">
       <c r="A47" s="58" t="s">
         <v>335</v>
       </c>
@@ -26466,7 +26501,7 @@
         <v>7.2999999999999995E-2</v>
       </c>
     </row>
-    <row r="48" spans="1:37" ht="14.25">
+    <row r="48" spans="1:37" ht="14.5">
       <c r="A48" s="58" t="s">
         <v>337</v>
       </c>
@@ -26579,7 +26614,7 @@
         <v>3.5000000000000003E-2</v>
       </c>
     </row>
-    <row r="49" spans="1:37" ht="14.25">
+    <row r="49" spans="1:37" ht="14.5">
       <c r="A49" s="58" t="s">
         <v>304</v>
       </c>
@@ -26588,7 +26623,7 @@
         <v>548</v>
       </c>
     </row>
-    <row r="50" spans="1:37" ht="14.25">
+    <row r="50" spans="1:37" ht="14.5">
       <c r="A50" s="58" t="s">
         <v>313</v>
       </c>
@@ -26701,7 +26736,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="51" spans="1:37" ht="14.25">
+    <row r="51" spans="1:37" ht="14.5">
       <c r="A51" s="58" t="s">
         <v>315</v>
       </c>
@@ -26814,7 +26849,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="52" spans="1:37" ht="14.25">
+    <row r="52" spans="1:37" ht="14.5">
       <c r="A52" s="58" t="s">
         <v>317</v>
       </c>
@@ -26927,7 +26962,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="53" spans="1:37" ht="14.25">
+    <row r="53" spans="1:37" ht="14.5">
       <c r="A53" s="58" t="s">
         <v>319</v>
       </c>
@@ -27040,7 +27075,7 @@
         <v>3.2000000000000001E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:37" ht="14.25">
+    <row r="54" spans="1:37" ht="14.5">
       <c r="A54" s="58" t="s">
         <v>321</v>
       </c>
@@ -27153,7 +27188,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:37" ht="14.25">
+    <row r="55" spans="1:37" ht="14.5">
       <c r="A55" s="58" t="s">
         <v>323</v>
       </c>
@@ -27266,7 +27301,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="56" spans="1:37" ht="14.25">
+    <row r="56" spans="1:37" ht="14.5">
       <c r="A56" s="58" t="s">
         <v>325</v>
       </c>
@@ -27379,7 +27414,7 @@
         <v>3.5999999999999997E-2</v>
       </c>
     </row>
-    <row r="57" spans="1:37" ht="14.25">
+    <row r="57" spans="1:37" ht="14.5">
       <c r="A57" s="58" t="s">
         <v>327</v>
       </c>
@@ -27492,7 +27527,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="58" spans="1:37" ht="14.25">
+    <row r="58" spans="1:37" ht="14.5">
       <c r="A58" s="58" t="s">
         <v>329</v>
       </c>
@@ -27605,7 +27640,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="59" spans="1:37" ht="14.25">
+    <row r="59" spans="1:37" ht="14.5">
       <c r="A59" s="58" t="s">
         <v>331</v>
       </c>
@@ -27718,7 +27753,7 @@
         <v>1.7999999999999999E-2</v>
       </c>
     </row>
-    <row r="60" spans="1:37" ht="14.25">
+    <row r="60" spans="1:37" ht="14.5">
       <c r="A60" s="58" t="s">
         <v>333</v>
       </c>
@@ -27831,7 +27866,7 @@
         <v>5.0999999999999997E-2</v>
       </c>
     </row>
-    <row r="61" spans="1:37" ht="14.25">
+    <row r="61" spans="1:37" ht="14.5">
       <c r="A61" s="58" t="s">
         <v>335</v>
       </c>
@@ -27944,7 +27979,7 @@
         <v>5.5E-2</v>
       </c>
     </row>
-    <row r="62" spans="1:37" ht="14.25">
+    <row r="62" spans="1:37" ht="14.5">
       <c r="A62" s="58" t="s">
         <v>337</v>
       </c>
@@ -28057,7 +28092,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="63" spans="1:37" ht="14.25">
+    <row r="63" spans="1:37" ht="14.5">
       <c r="A63" s="58" t="s">
         <v>366</v>
       </c>
@@ -28066,7 +28101,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="64" spans="1:37" ht="14.25">
+    <row r="64" spans="1:37" ht="14.5">
       <c r="A64" s="58" t="s">
         <v>313</v>
       </c>
@@ -28179,7 +28214,7 @@
         <v>1E-3</v>
       </c>
     </row>
-    <row r="65" spans="1:37" ht="14.25">
+    <row r="65" spans="1:37" ht="14.5">
       <c r="A65" s="58" t="s">
         <v>315</v>
       </c>
@@ -28292,7 +28327,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:37" ht="14.25">
+    <row r="66" spans="1:37" ht="14.5">
       <c r="A66" s="58" t="s">
         <v>317</v>
       </c>
@@ -28405,7 +28440,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:37" ht="14.25">
+    <row r="67" spans="1:37" ht="14.5">
       <c r="A67" s="58" t="s">
         <v>319</v>
       </c>
@@ -28518,7 +28553,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="68" spans="1:37" ht="14.25">
+    <row r="68" spans="1:37" ht="14.5">
       <c r="A68" s="58" t="s">
         <v>321</v>
       </c>
@@ -28631,7 +28666,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:37" ht="14.25">
+    <row r="69" spans="1:37" ht="14.5">
       <c r="A69" s="58" t="s">
         <v>323</v>
       </c>
@@ -28744,7 +28779,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:37" ht="14.25">
+    <row r="70" spans="1:37" ht="14.5">
       <c r="A70" s="58" t="s">
         <v>325</v>
       </c>
@@ -28857,7 +28892,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:37" ht="14.25">
+    <row r="71" spans="1:37" ht="14.5">
       <c r="A71" s="58" t="s">
         <v>327</v>
       </c>
@@ -28970,7 +29005,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:37" ht="14.25">
+    <row r="72" spans="1:37" ht="14.5">
       <c r="A72" s="58" t="s">
         <v>329</v>
       </c>
@@ -29083,7 +29118,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:37" ht="14.25">
+    <row r="73" spans="1:37" ht="14.5">
       <c r="A73" s="58" t="s">
         <v>331</v>
       </c>
@@ -29196,7 +29231,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="74" spans="1:37" ht="14.25">
+    <row r="74" spans="1:37" ht="14.5">
       <c r="A74" s="58" t="s">
         <v>333</v>
       </c>
@@ -29309,7 +29344,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="75" spans="1:37" ht="14.25">
+    <row r="75" spans="1:37" ht="14.5">
       <c r="A75" s="58" t="s">
         <v>335</v>
       </c>
@@ -29422,7 +29457,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="76" spans="1:37" ht="14.25">
+    <row r="76" spans="1:37" ht="14.5">
       <c r="A76" s="58" t="s">
         <v>337</v>
       </c>
@@ -29535,7 +29570,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:37" ht="14.25">
+    <row r="77" spans="1:37" ht="14.5">
       <c r="A77" s="58" t="s">
         <v>175</v>
       </c>
@@ -29648,7 +29683,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:37" ht="14.25">
+    <row r="78" spans="1:37" ht="14.5">
       <c r="A78" s="58" t="s">
         <v>173</v>
       </c>
@@ -29657,7 +29692,7 @@
         <v>577</v>
       </c>
     </row>
-    <row r="79" spans="1:37" ht="14.25">
+    <row r="79" spans="1:37" ht="14.5">
       <c r="A79" s="58" t="s">
         <v>313</v>
       </c>
@@ -29770,7 +29805,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="80" spans="1:37" ht="14.25">
+    <row r="80" spans="1:37" ht="14.5">
       <c r="A80" s="58" t="s">
         <v>382</v>
       </c>
@@ -29883,7 +29918,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:37" ht="14.25">
+    <row r="81" spans="1:37" ht="14.5">
       <c r="A81" s="58" t="s">
         <v>384</v>
       </c>
@@ -29996,7 +30031,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:37" ht="14.25">
+    <row r="82" spans="1:37" ht="14.5">
       <c r="A82" s="58" t="s">
         <v>386</v>
       </c>
@@ -30109,7 +30144,7 @@
         <v>-7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="83" spans="1:37" ht="14.25">
+    <row r="83" spans="1:37" ht="14.5">
       <c r="A83" s="58" t="s">
         <v>315</v>
       </c>
@@ -30222,7 +30257,7 @@
         <v>2.1000000000000001E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:37" ht="14.25">
+    <row r="84" spans="1:37" ht="14.5">
       <c r="A84" s="58" t="s">
         <v>317</v>
       </c>
@@ -30335,7 +30370,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:37" ht="14.25">
+    <row r="85" spans="1:37" ht="14.5">
       <c r="A85" s="58" t="s">
         <v>319</v>
       </c>
@@ -30448,7 +30483,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:37" ht="14.25">
+    <row r="86" spans="1:37" ht="14.5">
       <c r="A86" s="58" t="s">
         <v>321</v>
       </c>
@@ -30561,7 +30596,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:37" ht="14.25">
+    <row r="87" spans="1:37" ht="14.5">
       <c r="A87" s="58" t="s">
         <v>323</v>
       </c>
@@ -30674,7 +30709,7 @@
         <v>4.3999999999999997E-2</v>
       </c>
     </row>
-    <row r="88" spans="1:37" ht="14.25">
+    <row r="88" spans="1:37" ht="14.5">
       <c r="A88" s="58" t="s">
         <v>325</v>
       </c>
@@ -30787,7 +30822,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="89" spans="1:37" ht="14.25">
+    <row r="89" spans="1:37" ht="14.5">
       <c r="A89" s="58" t="s">
         <v>327</v>
       </c>
@@ -30900,7 +30935,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="90" spans="1:37" ht="14.25">
+    <row r="90" spans="1:37" ht="14.5">
       <c r="A90" s="58" t="s">
         <v>329</v>
       </c>
@@ -31013,7 +31048,7 @@
         <v>4.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="91" spans="1:37" ht="14.25">
+    <row r="91" spans="1:37" ht="14.5">
       <c r="A91" s="58" t="s">
         <v>331</v>
       </c>
@@ -31126,7 +31161,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="92" spans="1:37" ht="14.25">
+    <row r="92" spans="1:37" ht="14.5">
       <c r="A92" s="58" t="s">
         <v>333</v>
       </c>
@@ -31239,7 +31274,7 @@
         <v>5.3999999999999999E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:37" ht="14.25">
+    <row r="93" spans="1:37" ht="14.5">
       <c r="A93" s="58" t="s">
         <v>335</v>
       </c>
@@ -31352,7 +31387,7 @@
         <v>6.2E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:37" ht="14.25">
+    <row r="94" spans="1:37" ht="14.5">
       <c r="A94" s="58" t="s">
         <v>337</v>
       </c>
@@ -31465,7 +31500,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:37" ht="14.25">
+    <row r="95" spans="1:37" ht="14.5">
       <c r="A95" s="58" t="s">
         <v>175</v>
       </c>
@@ -31578,7 +31613,7 @@
         <v>3.3000000000000002E-2</v>
       </c>
     </row>
-    <row r="96" spans="1:37" ht="14.25">
+    <row r="96" spans="1:37" ht="14.5">
       <c r="A96" s="58" t="s">
         <v>174</v>
       </c>
@@ -31587,7 +31622,7 @@
         <v>595</v>
       </c>
     </row>
-    <row r="97" spans="1:37" ht="14.25">
+    <row r="97" spans="1:37" ht="14.5">
       <c r="A97" s="58" t="s">
         <v>313</v>
       </c>
@@ -31700,7 +31735,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="98" spans="1:37" ht="14.25">
+    <row r="98" spans="1:37" ht="14.5">
       <c r="A98" s="58" t="s">
         <v>382</v>
       </c>
@@ -31813,7 +31848,7 @@
         <v>8.9999999999999993E-3</v>
       </c>
     </row>
-    <row r="99" spans="1:37" ht="14.25">
+    <row r="99" spans="1:37" ht="14.5">
       <c r="A99" s="58" t="s">
         <v>384</v>
       </c>
@@ -31926,7 +31961,7 @@
         <v>1.0999999999999999E-2</v>
       </c>
     </row>
-    <row r="100" spans="1:37" ht="14.25">
+    <row r="100" spans="1:37" ht="14.5">
       <c r="A100" s="58" t="s">
         <v>386</v>
       </c>
@@ -32039,7 +32074,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="101" spans="1:37" ht="14.25">
+    <row r="101" spans="1:37" ht="14.5">
       <c r="A101" s="58" t="s">
         <v>315</v>
       </c>
@@ -32152,7 +32187,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="102" spans="1:37" ht="14.25">
+    <row r="102" spans="1:37" ht="14.5">
       <c r="A102" s="58" t="s">
         <v>382</v>
       </c>
@@ -32265,7 +32300,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="103" spans="1:37" ht="14.25">
+    <row r="103" spans="1:37" ht="14.5">
       <c r="A103" s="58" t="s">
         <v>384</v>
       </c>
@@ -32378,7 +32413,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:37" ht="14.25">
+    <row r="104" spans="1:37" ht="14.5">
       <c r="A104" s="58" t="s">
         <v>386</v>
       </c>
@@ -32491,7 +32526,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:37" ht="14.25">
+    <row r="105" spans="1:37" ht="14.5">
       <c r="A105" s="58" t="s">
         <v>317</v>
       </c>
@@ -32604,7 +32639,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:37" ht="14.25">
+    <row r="106" spans="1:37" ht="14.5">
       <c r="A106" s="58" t="s">
         <v>382</v>
       </c>
@@ -32717,7 +32752,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="107" spans="1:37" ht="14.25">
+    <row r="107" spans="1:37" ht="14.5">
       <c r="A107" s="58" t="s">
         <v>384</v>
       </c>
@@ -32830,7 +32865,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:37" ht="14.25">
+    <row r="108" spans="1:37" ht="14.5">
       <c r="A108" s="58" t="s">
         <v>386</v>
       </c>
@@ -32943,7 +32978,7 @@
         <v>2.1999999999999999E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:37" ht="14.25">
+    <row r="109" spans="1:37" ht="14.5">
       <c r="A109" s="58" t="s">
         <v>319</v>
       </c>
@@ -33056,7 +33091,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="110" spans="1:37" ht="14.25">
+    <row r="110" spans="1:37" ht="14.5">
       <c r="A110" s="58" t="s">
         <v>382</v>
       </c>
@@ -33169,7 +33204,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="111" spans="1:37" ht="14.25">
+    <row r="111" spans="1:37" ht="14.5">
       <c r="A111" s="58" t="s">
         <v>384</v>
       </c>
@@ -33282,7 +33317,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="112" spans="1:37" ht="14.25">
+    <row r="112" spans="1:37" ht="14.5">
       <c r="A112" s="58" t="s">
         <v>386</v>
       </c>
@@ -33395,7 +33430,7 @@
         <v>0.02</v>
       </c>
     </row>
-    <row r="113" spans="1:37" ht="14.25">
+    <row r="113" spans="1:37" ht="14.5">
       <c r="A113" s="58" t="s">
         <v>321</v>
       </c>
@@ -33508,7 +33543,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:37" ht="14.25">
+    <row r="114" spans="1:37" ht="14.5">
       <c r="A114" s="58" t="s">
         <v>382</v>
       </c>
@@ -33621,7 +33656,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="115" spans="1:37" ht="14.25">
+    <row r="115" spans="1:37" ht="14.5">
       <c r="A115" s="58" t="s">
         <v>384</v>
       </c>
@@ -33734,7 +33769,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:37" ht="14.25">
+    <row r="116" spans="1:37" ht="14.5">
       <c r="A116" s="58" t="s">
         <v>386</v>
       </c>
@@ -33847,7 +33882,7 @@
         <v>1.2999999999999999E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:37" ht="14.25">
+    <row r="117" spans="1:37" ht="14.5">
       <c r="A117" s="58" t="s">
         <v>323</v>
       </c>
@@ -33960,7 +33995,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:37" ht="14.25">
+    <row r="118" spans="1:37" ht="14.5">
       <c r="A118" s="58" t="s">
         <v>382</v>
       </c>
@@ -34073,7 +34108,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:37" ht="14.25">
+    <row r="119" spans="1:37" ht="14.5">
       <c r="A119" s="58" t="s">
         <v>384</v>
       </c>
@@ -34186,7 +34221,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="120" spans="1:37" ht="14.25">
+    <row r="120" spans="1:37" ht="14.5">
       <c r="A120" s="58" t="s">
         <v>386</v>
       </c>
@@ -34299,7 +34334,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="121" spans="1:37" ht="14.25">
+    <row r="121" spans="1:37" ht="14.5">
       <c r="A121" s="58" t="s">
         <v>325</v>
       </c>
@@ -34412,7 +34447,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="122" spans="1:37" ht="14.25">
+    <row r="122" spans="1:37" ht="14.5">
       <c r="A122" s="58" t="s">
         <v>382</v>
       </c>
@@ -34525,7 +34560,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:37" ht="14.25">
+    <row r="123" spans="1:37" ht="14.5">
       <c r="A123" s="58" t="s">
         <v>384</v>
       </c>
@@ -34638,7 +34673,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:37" ht="14.25">
+    <row r="124" spans="1:37" ht="14.5">
       <c r="A124" s="58" t="s">
         <v>386</v>
       </c>
@@ -34751,7 +34786,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="125" spans="1:37" ht="14.25">
+    <row r="125" spans="1:37" ht="14.5">
       <c r="A125" s="58" t="s">
         <v>327</v>
       </c>
@@ -34864,7 +34899,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="126" spans="1:37" ht="14.25">
+    <row r="126" spans="1:37" ht="14.5">
       <c r="A126" s="58" t="s">
         <v>382</v>
       </c>
@@ -34977,7 +35012,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="127" spans="1:37" ht="14.25">
+    <row r="127" spans="1:37" ht="14.5">
       <c r="A127" s="58" t="s">
         <v>384</v>
       </c>
@@ -35090,7 +35125,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="128" spans="1:37" ht="14.25">
+    <row r="128" spans="1:37" ht="14.5">
       <c r="A128" s="58" t="s">
         <v>386</v>
       </c>
@@ -35203,7 +35238,7 @@
         <v>1.4999999999999999E-2</v>
       </c>
     </row>
-    <row r="129" spans="1:37" ht="14.25">
+    <row r="129" spans="1:37" ht="14.5">
       <c r="A129" s="58" t="s">
         <v>329</v>
       </c>
@@ -35316,7 +35351,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="130" spans="1:37" ht="14.25">
+    <row r="130" spans="1:37" ht="14.5">
       <c r="A130" s="58" t="s">
         <v>382</v>
       </c>
@@ -35429,7 +35464,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="131" spans="1:37" ht="14.25">
+    <row r="131" spans="1:37" ht="14.5">
       <c r="A131" s="58" t="s">
         <v>384</v>
       </c>
@@ -35542,7 +35577,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:37" ht="14.25">
+    <row r="132" spans="1:37" ht="14.5">
       <c r="A132" s="58" t="s">
         <v>386</v>
       </c>
@@ -35655,7 +35690,7 @@
         <v>3.6999999999999998E-2</v>
       </c>
     </row>
-    <row r="133" spans="1:37" ht="14.25">
+    <row r="133" spans="1:37" ht="14.5">
       <c r="A133" s="58" t="s">
         <v>331</v>
       </c>
@@ -35768,7 +35803,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="134" spans="1:37" ht="14.25">
+    <row r="134" spans="1:37" ht="14.5">
       <c r="A134" s="58" t="s">
         <v>382</v>
       </c>
@@ -35881,7 +35916,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="135" spans="1:37" ht="14.25">
+    <row r="135" spans="1:37" ht="14.5">
       <c r="A135" s="58" t="s">
         <v>384</v>
       </c>
@@ -35994,7 +36029,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="136" spans="1:37" ht="14.25">
+    <row r="136" spans="1:37" ht="14.5">
       <c r="A136" s="58" t="s">
         <v>386</v>
       </c>
@@ -36107,7 +36142,7 @@
         <v>7.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="137" spans="1:37" ht="14.25">
+    <row r="137" spans="1:37" ht="14.5">
       <c r="A137" s="58" t="s">
         <v>333</v>
       </c>
@@ -36220,7 +36255,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="138" spans="1:37" ht="14.25">
+    <row r="138" spans="1:37" ht="14.5">
       <c r="A138" s="58" t="s">
         <v>382</v>
       </c>
@@ -36333,7 +36368,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:37" ht="14.25">
+    <row r="139" spans="1:37" ht="14.5">
       <c r="A139" s="58" t="s">
         <v>384</v>
       </c>
@@ -36446,7 +36481,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:37" ht="14.25">
+    <row r="140" spans="1:37" ht="14.5">
       <c r="A140" s="58" t="s">
         <v>386</v>
       </c>
@@ -36559,7 +36594,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:37" ht="14.25">
+    <row r="141" spans="1:37" ht="14.5">
       <c r="A141" s="58" t="s">
         <v>335</v>
       </c>
@@ -36672,7 +36707,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="142" spans="1:37" ht="14.25">
+    <row r="142" spans="1:37" ht="14.5">
       <c r="A142" s="58" t="s">
         <v>382</v>
       </c>
@@ -36785,7 +36820,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="143" spans="1:37" ht="14.25">
+    <row r="143" spans="1:37" ht="14.5">
       <c r="A143" s="58" t="s">
         <v>384</v>
       </c>
@@ -36898,7 +36933,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:37" ht="14.25">
+    <row r="144" spans="1:37" ht="14.5">
       <c r="A144" s="58" t="s">
         <v>386</v>
       </c>
@@ -37011,7 +37046,7 @@
         <v>5.1999999999999998E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:37" ht="14.25">
+    <row r="145" spans="1:37" ht="14.5">
       <c r="A145" s="58" t="s">
         <v>337</v>
       </c>
@@ -37124,7 +37159,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="146" spans="1:37" ht="14.25">
+    <row r="146" spans="1:37" ht="14.5">
       <c r="A146" s="58" t="s">
         <v>382</v>
       </c>
@@ -37237,7 +37272,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="147" spans="1:37" ht="14.25">
+    <row r="147" spans="1:37" ht="14.5">
       <c r="A147" s="58" t="s">
         <v>384</v>
       </c>
@@ -37350,7 +37385,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:37" ht="14.25">
+    <row r="148" spans="1:37" ht="14.5">
       <c r="A148" s="58" t="s">
         <v>386</v>
       </c>
@@ -37463,7 +37498,7 @@
         <v>2.3E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:37" ht="14.25">
+    <row r="149" spans="1:37" ht="14.5">
       <c r="A149" s="58" t="s">
         <v>175</v>
       </c>
@@ -37576,7 +37611,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="150" spans="1:37" ht="14.25">
+    <row r="150" spans="1:37" ht="14.5">
       <c r="A150" s="58" t="s">
         <v>176</v>
       </c>
@@ -37585,7 +37620,7 @@
         <v>649</v>
       </c>
     </row>
-    <row r="151" spans="1:37" ht="14.25">
+    <row r="151" spans="1:37" ht="14.5">
       <c r="A151" s="58" t="s">
         <v>454</v>
       </c>
@@ -37698,7 +37733,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="152" spans="1:37" ht="14.25">
+    <row r="152" spans="1:37" ht="14.5">
       <c r="A152" s="58" t="s">
         <v>456</v>
       </c>
@@ -37811,7 +37846,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="153" spans="1:37" ht="14.25">
+    <row r="153" spans="1:37" ht="14.5">
       <c r="A153" s="58" t="s">
         <v>458</v>
       </c>
@@ -37924,7 +37959,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="154" spans="1:37" ht="14.25">
+    <row r="154" spans="1:37" ht="14.5">
       <c r="A154" s="58" t="s">
         <v>460</v>
       </c>
@@ -38037,7 +38072,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="155" spans="1:37" ht="14.25">
+    <row r="155" spans="1:37" ht="14.5">
       <c r="A155" s="58" t="s">
         <v>462</v>
       </c>
@@ -38150,7 +38185,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="156" spans="1:37" ht="14.25">
+    <row r="156" spans="1:37" ht="14.5">
       <c r="A156" s="58" t="s">
         <v>464</v>
       </c>
@@ -38263,7 +38298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="157" spans="1:37" ht="14.25">
+    <row r="157" spans="1:37" ht="14.5">
       <c r="A157" s="58" t="s">
         <v>466</v>
       </c>
@@ -38376,7 +38411,7 @@
         <v>0.32</v>
       </c>
     </row>
-    <row r="158" spans="1:37" ht="14.25">
+    <row r="158" spans="1:37" ht="14.5">
       <c r="A158" s="58" t="s">
         <v>468</v>
       </c>
@@ -38489,7 +38524,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="159" spans="1:37" ht="14.25">
+    <row r="159" spans="1:37" ht="14.5">
       <c r="A159" s="58" t="s">
         <v>470</v>
       </c>
@@ -38602,7 +38637,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="160" spans="1:37" ht="14.25">
+    <row r="160" spans="1:37" ht="14.5">
       <c r="A160" s="58" t="s">
         <v>472</v>
       </c>
@@ -38611,7 +38646,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="161" spans="1:37" ht="14.25">
+    <row r="161" spans="1:37" ht="14.5">
       <c r="A161" s="58" t="s">
         <v>473</v>
       </c>
@@ -38620,7 +38655,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="162" spans="1:37" ht="14.25">
+    <row r="162" spans="1:37" ht="14.5">
       <c r="A162" s="58" t="s">
         <v>382</v>
       </c>
@@ -38733,7 +38768,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="163" spans="1:37" ht="14.25">
+    <row r="163" spans="1:37" ht="14.5">
       <c r="A163" s="58" t="s">
         <v>384</v>
       </c>
@@ -38846,7 +38881,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="164" spans="1:37" ht="14.25">
+    <row r="164" spans="1:37" ht="14.5">
       <c r="A164" s="58" t="s">
         <v>386</v>
       </c>
@@ -38959,7 +38994,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="165" spans="1:37" ht="14.25">
+    <row r="165" spans="1:37" ht="14.5">
       <c r="A165" s="58" t="s">
         <v>477</v>
       </c>
@@ -39072,7 +39107,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="166" spans="1:37" ht="14.25">
+    <row r="166" spans="1:37" ht="14.5">
       <c r="A166" s="58" t="s">
         <v>479</v>
       </c>
@@ -39081,7 +39116,7 @@
         <v>666</v>
       </c>
     </row>
-    <row r="167" spans="1:37" ht="14.25">
+    <row r="167" spans="1:37" ht="14.5">
       <c r="A167" s="58" t="s">
         <v>382</v>
       </c>
@@ -39194,7 +39229,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="168" spans="1:37" ht="14.25">
+    <row r="168" spans="1:37" ht="14.5">
       <c r="A168" s="58" t="s">
         <v>384</v>
       </c>
@@ -39307,7 +39342,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="169" spans="1:37" ht="14.25">
+    <row r="169" spans="1:37" ht="14.5">
       <c r="A169" s="58" t="s">
         <v>386</v>
       </c>
@@ -39420,7 +39455,7 @@
         <v>5.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="170" spans="1:37" ht="14.25">
+    <row r="170" spans="1:37" ht="14.5">
       <c r="A170" s="58" t="s">
         <v>477</v>
       </c>
@@ -39533,7 +39568,7 @@
         <v>6.0000000000000001E-3</v>
       </c>
     </row>
-    <row r="171" spans="1:37" ht="14.25">
+    <row r="171" spans="1:37" ht="14.5">
       <c r="A171" s="58" t="s">
         <v>178</v>
       </c>
@@ -39542,7 +39577,7 @@
         <v>671</v>
       </c>
     </row>
-    <row r="172" spans="1:37" ht="14.25">
+    <row r="172" spans="1:37" ht="14.5">
       <c r="A172" s="58" t="s">
         <v>484</v>
       </c>
@@ -39551,7 +39586,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="173" spans="1:37" ht="14.25">
+    <row r="173" spans="1:37" ht="14.5">
       <c r="A173" s="58" t="s">
         <v>313</v>
       </c>
@@ -39664,7 +39699,7 @@
         <v>0.01</v>
       </c>
     </row>
-    <row r="174" spans="1:37" ht="14.25">
+    <row r="174" spans="1:37" ht="14.5">
       <c r="A174" s="58" t="s">
         <v>315</v>
       </c>
@@ -39777,7 +39812,7 @@
         <v>1.7000000000000001E-2</v>
       </c>
     </row>
-    <row r="175" spans="1:37" ht="14.25">
+    <row r="175" spans="1:37" ht="14.5">
       <c r="A175" s="58" t="s">
         <v>317</v>
       </c>
@@ -39890,7 +39925,7 @@
         <v>2.9000000000000001E-2</v>
       </c>
     </row>
-    <row r="176" spans="1:37" ht="14.25">
+    <row r="176" spans="1:37" ht="14.5">
       <c r="A176" s="58" t="s">
         <v>319</v>
       </c>
@@ -40003,7 +40038,7 @@
         <v>2.5000000000000001E-2</v>
       </c>
     </row>
-    <row r="177" spans="1:39" ht="14.25">
+    <row r="177" spans="1:39" ht="14.5">
       <c r="A177" s="58" t="s">
         <v>321</v>
       </c>
@@ -40116,7 +40151,7 @@
         <v>1.6E-2</v>
       </c>
     </row>
-    <row r="178" spans="1:39" ht="14.25">
+    <row r="178" spans="1:39" ht="14.5">
       <c r="A178" s="58" t="s">
         <v>323</v>
       </c>
@@ -40229,7 +40264,7 @@
         <v>3.4000000000000002E-2</v>
       </c>
     </row>
-    <row r="179" spans="1:39" ht="14.25">
+    <row r="179" spans="1:39" ht="14.5">
       <c r="A179" s="58" t="s">
         <v>325</v>
       </c>
@@ -40342,7 +40377,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="180" spans="1:39" ht="14.25">
+    <row r="180" spans="1:39" ht="14.5">
       <c r="A180" s="58" t="s">
         <v>327</v>
       </c>
@@ -40455,7 +40490,7 @@
         <v>1.4E-2</v>
       </c>
     </row>
-    <row r="181" spans="1:39" ht="14.25">
+    <row r="181" spans="1:39" ht="14.5">
       <c r="A181" s="58" t="s">
         <v>329</v>
       </c>
@@ -40568,7 +40603,7 @@
         <v>3.9E-2</v>
       </c>
     </row>
-    <row r="182" spans="1:39" ht="14.25">
+    <row r="182" spans="1:39" ht="14.5">
       <c r="A182" s="58" t="s">
         <v>331</v>
       </c>
@@ -40681,7 +40716,7 @@
         <v>8.0000000000000002E-3</v>
       </c>
     </row>
-    <row r="183" spans="1:39" ht="14.25">
+    <row r="183" spans="1:39" ht="14.5">
       <c r="A183" s="58" t="s">
         <v>333</v>
       </c>
@@ -40794,7 +40829,7 @@
         <v>4.1000000000000002E-2</v>
       </c>
     </row>
-    <row r="184" spans="1:39" ht="14.25">
+    <row r="184" spans="1:39" ht="14.5">
       <c r="A184" s="58" t="s">
         <v>335</v>
       </c>
@@ -40907,7 +40942,7 @@
         <v>5.7000000000000002E-2</v>
       </c>
     </row>
-    <row r="185" spans="1:39" ht="14.25">
+    <row r="185" spans="1:39" ht="14.5">
       <c r="A185" s="58" t="s">
         <v>337</v>
       </c>
@@ -41020,7 +41055,7 @@
         <v>2.7E-2</v>
       </c>
     </row>
-    <row r="186" spans="1:39" ht="14.25">
+    <row r="186" spans="1:39" ht="14.5">
       <c r="A186" s="58" t="s">
         <v>175</v>
       </c>
@@ -41133,7 +41168,7 @@
         <v>2.5999999999999999E-2</v>
       </c>
     </row>
-    <row r="187" spans="1:39" ht="14.25">
+    <row r="187" spans="1:39" ht="14.5">
       <c r="A187" s="58" t="s">
         <v>499</v>
       </c>
@@ -41249,7 +41284,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="188" spans="1:39" ht="14.25">
+    <row r="188" spans="1:39" ht="14.5">
       <c r="A188" s="58" t="s">
         <v>501</v>
       </c>
@@ -41472,7 +41507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:AK286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -41484,8 +41519,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="45.73046875" customWidth="1"/>
-    <col min="2" max="2" width="69.265625" customWidth="1"/>
+    <col min="1" max="1" width="45.7265625" customWidth="1"/>
+    <col min="2" max="2" width="69.26953125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:37" ht="15" customHeight="1">

--- a/InputData/trans/BAADTbVT/BAU Avg Annual Dist Traveled by Veh Type.xlsx
+++ b/InputData/trans/BAADTbVT/BAU Avg Annual Dist Traveled by Veh Type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/trans/BAADTbVT/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\trans\BAADTbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{CD1B2372-4C4F-4003-973B-DB0A73CA3717}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F963CFC9-FF02-485E-978D-DD4149F0DF7D}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{D29DED2D-90B7-458E-8F45-ABE88F6B99E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-990" windowWidth="29040" windowHeight="15840" tabRatio="1000" firstSheet="7" activeTab="15" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="885" windowWidth="14820" windowHeight="16335" tabRatio="1000" firstSheet="12" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -1172,14 +1172,14 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="8">
-    <numFmt numFmtId="164" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="165" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="166" formatCode="###0.00_)"/>
-    <numFmt numFmtId="167" formatCode="#,##0_)"/>
-    <numFmt numFmtId="168" formatCode="0.0"/>
-    <numFmt numFmtId="169" formatCode="#,##0.0"/>
-    <numFmt numFmtId="170" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
-    <numFmt numFmtId="171" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="164" formatCode="###0.00_)"/>
+    <numFmt numFmtId="165" formatCode="#,##0_)"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+    <numFmt numFmtId="167" formatCode="#,##0.0"/>
+    <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
+    <numFmt numFmtId="169" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
   <fonts count="57">
     <font>
@@ -2000,33 +2000,33 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="6" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="44" fontId="3" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="166" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="164" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="167" fontId="16" fillId="0" borderId="6">
+    <xf numFmtId="165" fontId="16" fillId="0" borderId="6">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="17" fillId="0" borderId="6">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="166" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
+    <xf numFmtId="164" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -2167,7 +2167,7 @@
     <xf numFmtId="49" fontId="17" fillId="0" borderId="6">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="166" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
+    <xf numFmtId="164" fontId="16" fillId="0" borderId="0" applyNumberFormat="0">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="27" borderId="0">
@@ -2215,7 +2215,7 @@
     <xf numFmtId="49" fontId="34" fillId="0" borderId="6">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="102">
@@ -2249,7 +2249,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
@@ -2262,12 +2262,12 @@
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="45" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="168" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="45" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -2295,7 +2295,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="28" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="1" fontId="0" fillId="29" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
@@ -2323,7 +2323,7 @@
     <xf numFmtId="2" fontId="48" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
-    <xf numFmtId="168" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="166" fontId="54" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="55" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -2333,16 +2333,16 @@
     <xf numFmtId="1" fontId="56" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="30" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="30" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="31" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="31" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="31" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="31" borderId="0" xfId="154" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="31" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="31" borderId="0" xfId="154" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="31" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="169" fontId="0" fillId="31" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -2357,32 +2357,32 @@
     <xf numFmtId="0" fontId="0" fillId="35" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="36" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="155" applyFont="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="34" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="36" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="36" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="155" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="37" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="37" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="38" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="154" applyFont="1"/>
-    <xf numFmtId="165" fontId="0" fillId="39" borderId="0" xfId="154" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="154" applyFont="1"/>
+    <xf numFmtId="43" fontId="0" fillId="39" borderId="0" xfId="154" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="155" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="155" applyFont="1"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" xfId="155" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="0" fillId="39" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="170" fontId="1" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="0" fillId="39" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="40" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="40" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="154" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="154" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="0" fillId="39" borderId="0" xfId="155" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="1" fillId="40" borderId="0" xfId="155" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="41" borderId="0" xfId="154" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="41" borderId="0" xfId="154" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="156">
     <cellStyle name="20% - Accent1 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -2902,7 +2902,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Rail shipments 93-97"/>
@@ -2983,7 +2983,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="About"/>
@@ -3014,7 +3014,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Front_Page"/>
@@ -3442,9 +3442,9 @@
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="51.5546875" customWidth="1"/>
+    <col min="2" max="2" width="51.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -3674,9 +3674,9 @@
       <selection activeCell="B37" sqref="B37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="11.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="36" spans="2:2">
@@ -3699,9 +3699,9 @@
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="30.33203125" customWidth="1"/>
+    <col min="2" max="2" width="30.28515625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="43" spans="2:3">
@@ -3790,15 +3790,15 @@
       <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="11.42578125" defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="44.44140625" customWidth="1"/>
+    <col min="2" max="2" width="44.42578125" customWidth="1"/>
     <col min="3" max="20" width="0" hidden="1" customWidth="1"/>
-    <col min="26" max="26" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="15.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="21.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="15.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="17.399999999999999">
+    <row r="2" spans="1:21" ht="18">
       <c r="A2" s="8" t="s">
         <v>44</v>
       </c>
@@ -3848,7 +3848,7 @@
       <c r="T3" s="42"/>
       <c r="U3" s="42"/>
     </row>
-    <row r="4" spans="1:21" ht="15.6">
+    <row r="4" spans="1:21" ht="15.75">
       <c r="A4" s="10" t="s">
         <v>46</v>
       </c>
@@ -3873,7 +3873,7 @@
       <c r="T4" s="42"/>
       <c r="U4" s="42"/>
     </row>
-    <row r="5" spans="1:21" ht="15.6">
+    <row r="5" spans="1:21" ht="15.75">
       <c r="A5" s="10" t="s">
         <v>118</v>
       </c>
@@ -4028,7 +4028,7 @@
       <c r="T9" s="42"/>
       <c r="U9" s="42"/>
     </row>
-    <row r="10" spans="1:21" ht="16.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="25"/>
       <c r="B10" s="50" t="s">
         <v>119</v>
@@ -4659,7 +4659,7 @@
       <c r="T24" s="42"/>
       <c r="U24" s="42"/>
     </row>
-    <row r="25" spans="1:21" ht="31.2">
+    <row r="25" spans="1:21" ht="28.5">
       <c r="A25" s="25"/>
       <c r="B25" s="21" t="s">
         <v>125</v>
@@ -5198,11 +5198,11 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="116" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="21.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -12973,13 +12973,13 @@
       <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" ht="28.8">
+    <row r="1" spans="1:34" ht="30">
       <c r="A1" s="6" t="s">
         <v>117</v>
       </c>
@@ -13922,12 +13922,12 @@
       <selection sqref="A1:D1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="51.88671875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="51.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="3" width="19" customWidth="1"/>
-    <col min="4" max="4" width="13.6640625" customWidth="1"/>
-    <col min="5" max="5" width="31.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.7109375" customWidth="1"/>
+    <col min="5" max="5" width="31.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5">
@@ -14528,21 +14528,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6253F542-B137-4E6C-963F-19A550154108}">
   <dimension ref="A1:P575"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="6" max="6" width="20.88671875" customWidth="1"/>
-    <col min="7" max="7" width="16.109375" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="30.5546875" customWidth="1"/>
-    <col min="14" max="14" width="13.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.109375" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="20.85546875" customWidth="1"/>
+    <col min="7" max="7" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="30.5703125" customWidth="1"/>
+    <col min="14" max="14" width="13.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="43.2">
+    <row r="1" spans="1:16" ht="45">
       <c r="A1" s="68" t="s">
         <v>152</v>
       </c>
@@ -45597,24 +45597,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A1C2FD-DA69-4D0C-A072-DA4DEBC04593}">
   <dimension ref="A1:U247"/>
   <sheetViews>
-    <sheetView topLeftCell="B156" workbookViewId="0">
-      <selection activeCell="F171" sqref="F171"/>
+    <sheetView topLeftCell="B13" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="2" max="2" width="29" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.44140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="22.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5546875" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="17.88671875" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="17.33203125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.88671875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="16.42578125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="22.7109375" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="19.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:6" s="73" customFormat="1">
@@ -46151,7 +46151,7 @@
         <v>0</v>
       </c>
       <c r="G37" s="76">
-        <v>2395036.2202763669</v>
+        <v>727</v>
       </c>
       <c r="H37" s="76">
         <v>0</v>
@@ -47571,7 +47571,7 @@
       </c>
       <c r="G115" s="79">
         <f>$D17*G37*$F74*$D56</f>
-        <v>308030376689501.31</v>
+        <v>93500917421.376999</v>
       </c>
       <c r="H115" s="77">
         <f t="shared" si="3"/>
@@ -48160,7 +48160,7 @@
       </c>
       <c r="G137" s="80">
         <f t="shared" si="8"/>
-        <v>1.6322159837355027E+17</v>
+        <v>49545013563042.672</v>
       </c>
       <c r="H137" s="80">
         <f t="shared" si="8"/>
@@ -48229,7 +48229,7 @@
       </c>
       <c r="G140" s="81">
         <f t="shared" si="9"/>
-        <v>1.6377847918386192E+17</v>
+        <v>606425823874706</v>
       </c>
       <c r="H140" s="81">
         <f t="shared" si="9"/>
@@ -48262,7 +48262,7 @@
       </c>
       <c r="G141" s="75">
         <f t="shared" si="10"/>
-        <v>244.82393168862347</v>
+        <v>0.90651442862553844</v>
       </c>
       <c r="H141" s="75" t="e">
         <f t="shared" si="10"/>
@@ -50019,7 +50019,7 @@
       </c>
       <c r="G206" s="97">
         <f t="shared" si="16"/>
-        <v>2503.0433197578432</v>
+        <v>0.75978495776317434</v>
       </c>
       <c r="H206" s="97">
         <f t="shared" si="16"/>
@@ -50612,7 +50612,7 @@
       </c>
       <c r="E246" s="101">
         <f t="shared" si="20"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
     </row>
     <row r="247" spans="1:5">
@@ -50646,17 +50646,17 @@
   </sheetPr>
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.33203125" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.5546875" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" ht="28.8">
+    <row r="1" spans="1:33" ht="30">
       <c r="A1" s="6" t="s">
         <v>117</v>
       </c>
@@ -51295,131 +51295,131 @@
       </c>
       <c r="B6" s="7">
         <f>DATA_inputdata!E246</f>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="C6">
         <f>B6</f>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="D6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="E6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="F6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="G6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="H6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="I6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="J6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="K6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="L6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="M6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="N6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="O6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="P6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="Q6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="R6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="S6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="T6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="U6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="V6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="W6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="X6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="Y6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="Z6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="AA6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="AB6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="AC6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="AD6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="AE6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="AF6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
       <c r="AG6">
         <f t="shared" si="1"/>
-        <v>51.382247336990773</v>
+        <v>169274.2000705527</v>
       </c>
     </row>
     <row r="7" spans="1:33">
@@ -51570,12 +51570,12 @@
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="28.8">
+    <row r="1" spans="1:2" ht="30">
       <c r="A1" s="6" t="s">
         <v>37</v>
       </c>
@@ -51631,7 +51631,7 @@
         <v>1.2700756740871355</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="28.8">
+    <row r="10" spans="1:2" ht="30">
       <c r="A10" s="6" t="s">
         <v>43</v>
       </c>
@@ -51700,12 +51700,12 @@
       <selection activeCell="U13" sqref="U13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.399999999999999">
+    <row r="1" spans="1:21" ht="18">
       <c r="A1" s="8" t="s">
         <v>44</v>
       </c>
@@ -51729,7 +51729,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.6">
+    <row r="3" spans="1:21" ht="15.75">
       <c r="A3" s="10" t="s">
         <v>46</v>
       </c>
@@ -51737,7 +51737,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:21" ht="15.6">
+    <row r="4" spans="1:21" ht="15.75">
       <c r="A4" s="10" t="s">
         <v>47</v>
       </c>
@@ -51948,7 +51948,7 @@
     <row r="14" spans="1:21">
       <c r="B14" s="2"/>
     </row>
-    <row r="15" spans="1:21" ht="40.200000000000003">
+    <row r="15" spans="1:21" ht="39">
       <c r="B15" s="21" t="s">
         <v>51</v>
       </c>
@@ -52019,7 +52019,7 @@
     <row r="17" spans="1:21">
       <c r="B17" s="2"/>
     </row>
-    <row r="18" spans="1:21" ht="53.4">
+    <row r="18" spans="1:21" ht="51.75">
       <c r="B18" s="21" t="s">
         <v>52</v>
       </c>
@@ -52193,12 +52193,12 @@
       <selection activeCell="U72" sqref="U72"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="37.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="37.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:21" ht="17.399999999999999">
+    <row r="3" spans="1:21" ht="18">
       <c r="A3" s="8" t="s">
         <v>44</v>
       </c>
@@ -52222,7 +52222,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="5" spans="1:21" ht="15.6">
+    <row r="5" spans="1:21" ht="15.75">
       <c r="A5" s="10" t="s">
         <v>46</v>
       </c>
@@ -52230,7 +52230,7 @@
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
     </row>
-    <row r="6" spans="1:21" ht="15.6">
+    <row r="6" spans="1:21" ht="15.75">
       <c r="A6" s="10" t="s">
         <v>57</v>
       </c>
@@ -52298,7 +52298,7 @@
         <v>2018</v>
       </c>
     </row>
-    <row r="11" spans="1:21" ht="16.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="25"/>
       <c r="B11" s="14" t="s">
         <v>58</v>
@@ -53813,7 +53813,7 @@
     <row r="41" spans="1:21">
       <c r="B41" s="30"/>
     </row>
-    <row r="42" spans="1:21" ht="16.8">
+    <row r="42" spans="1:21">
       <c r="A42" s="25"/>
       <c r="B42" s="14" t="s">
         <v>74</v>
@@ -53876,7 +53876,7 @@
         <v>0.39058300000000001</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="27.6">
+    <row r="43" spans="1:21" ht="27">
       <c r="B43" s="33" t="s">
         <v>75</v>
       </c>
@@ -55402,7 +55402,7 @@
         <v>4315.1895439999998</v>
       </c>
     </row>
-    <row r="73" spans="1:21" ht="29.4">
+    <row r="73" spans="1:21" ht="27.75">
       <c r="A73" s="34"/>
       <c r="B73" s="37" t="s">
         <v>78</v>
@@ -55483,12 +55483,12 @@
       <selection activeCell="F26" sqref="F26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="18.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="17.399999999999999">
+    <row r="1" spans="1:21" ht="18">
       <c r="A1" s="8" t="s">
         <v>44</v>
       </c>
@@ -55512,7 +55512,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="3" spans="1:21" ht="15.6">
+    <row r="3" spans="1:21" ht="15.75">
       <c r="A3" s="10" t="s">
         <v>46</v>
       </c>
@@ -55520,7 +55520,7 @@
       <c r="D3" s="9"/>
       <c r="E3" s="9"/>
     </row>
-    <row r="4" spans="1:21" ht="15.6">
+    <row r="4" spans="1:21" ht="15.75">
       <c r="A4" s="10" t="s">
         <v>80</v>
       </c>
@@ -56017,7 +56017,7 @@
     <row r="18" spans="2:21">
       <c r="B18" s="2"/>
     </row>
-    <row r="19" spans="2:21" ht="40.200000000000003">
+    <row r="19" spans="2:21" ht="39">
       <c r="B19" s="21" t="s">
         <v>51</v>
       </c>
@@ -56236,12 +56236,12 @@
       <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="38.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="38.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:21" ht="17.399999999999999">
+    <row r="2" spans="1:21" ht="18">
       <c r="A2" s="8" t="s">
         <v>44</v>
       </c>
@@ -56265,7 +56265,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:21" ht="15.6">
+    <row r="4" spans="1:21" ht="15.75">
       <c r="A4" s="10" t="s">
         <v>46</v>
       </c>
@@ -56273,7 +56273,7 @@
       <c r="D4" s="9"/>
       <c r="E4" s="9"/>
     </row>
-    <row r="5" spans="1:21" ht="15.6">
+    <row r="5" spans="1:21" ht="15.75">
       <c r="A5" s="10" t="s">
         <v>84</v>
       </c>
@@ -57640,7 +57640,7 @@
     <row r="40" spans="2:21">
       <c r="B40" s="2"/>
     </row>
-    <row r="41" spans="2:21" ht="27">
+    <row r="41" spans="2:21" ht="26.25">
       <c r="B41" s="21" t="s">
         <v>89</v>
       </c>
@@ -57791,7 +57791,7 @@
       <c r="T44" s="16"/>
       <c r="U44" s="16"/>
     </row>
-    <row r="45" spans="2:21" ht="27">
+    <row r="45" spans="2:21" ht="26.25">
       <c r="B45" s="21" t="s">
         <v>90</v>
       </c>
@@ -57961,7 +57961,7 @@
       <c r="T48" s="16"/>
       <c r="U48" s="16"/>
     </row>
-    <row r="49" spans="1:21" ht="27">
+    <row r="49" spans="1:21" ht="26.25">
       <c r="B49" s="21" t="s">
         <v>93</v>
       </c>
@@ -58112,7 +58112,7 @@
     <row r="52" spans="1:21">
       <c r="B52" s="2"/>
     </row>
-    <row r="53" spans="1:21" ht="27">
+    <row r="53" spans="1:21" ht="26.25">
       <c r="B53" s="21" t="s">
         <v>94</v>
       </c>
@@ -58224,7 +58224,7 @@
       <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
   </cols>
@@ -58281,10 +58281,10 @@
       <selection activeCell="B84" sqref="A84:B84"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="28.6640625" customWidth="1"/>
-    <col min="2" max="2" width="25.6640625" customWidth="1"/>
+    <col min="1" max="1" width="28.7109375" customWidth="1"/>
+    <col min="2" max="2" width="25.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -58916,10 +58916,10 @@
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="9.5546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -58955,26 +58955,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -59234,6 +59214,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
@@ -59244,17 +59244,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84A60017-B994-4337-A2F2-69F78EF8A701}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39F7DF89-CE40-4377-A3DD-38A89AE86693}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -59274,6 +59263,17 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84A60017-B994-4337-A2F2-69F78EF8A701}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74EA060D-CED2-4063-B27A-58CD5DBC378A}">
   <ds:schemaRefs>

--- a/InputData/trans/BAADTbVT/BAU Avg Annual Dist Traveled by Veh Type.xlsx
+++ b/InputData/trans/BAADTbVT/BAU Avg Annual Dist Traveled by Veh Type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\olivia\Documents\EPS_Models by Region\Canada\canada-eps\InputData\trans\BAADTbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\Canada\eps-canada\InputData\trans\BAADTbVT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D29DED2D-90B7-458E-8F45-ABE88F6B99E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05303C9-357E-4C2F-8992-4DCED69FA507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2820" yWindow="885" windowWidth="14820" windowHeight="16335" tabRatio="1000" firstSheet="12" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9435" yWindow="930" windowWidth="18240" windowHeight="15930" tabRatio="1000" firstSheet="13" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -26,38 +26,49 @@
     <sheet name="Rail fleet " sheetId="23" r:id="rId11"/>
     <sheet name="Marine Energy Consumption" sheetId="27" r:id="rId12"/>
     <sheet name="marine calcs" sheetId="28" r:id="rId13"/>
-    <sheet name="BAADTbVT-passengers" sheetId="6" r:id="rId14"/>
-    <sheet name="crosswalk" sheetId="30" r:id="rId15"/>
-    <sheet name="NRCAN" sheetId="29" r:id="rId16"/>
+    <sheet name="crosswalk" sheetId="30" r:id="rId14"/>
+    <sheet name="NRCAN" sheetId="29" r:id="rId15"/>
+    <sheet name="Table 25_rail" sheetId="32" r:id="rId16"/>
     <sheet name="DATA_inputdata" sheetId="31" r:id="rId17"/>
-    <sheet name="BAADTbVT-freight" sheetId="12" r:id="rId18"/>
+    <sheet name="BAADTbVT-passengers" sheetId="6" r:id="rId18"/>
+    <sheet name="BAADTbVT-freight" sheetId="12" r:id="rId19"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId19"/>
     <externalReference r:id="rId20"/>
     <externalReference r:id="rId21"/>
+    <externalReference r:id="rId22"/>
+    <externalReference r:id="rId23"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="14" hidden="1">crosswalk!$A$1:$D$42</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">crosswalk!$A$1:$D$42</definedName>
+    <definedName name="btu_per_pj">[4]About!$A$28</definedName>
+    <definedName name="elec_reduction_HDVs">'[4]Fuel Efficiency Adjustments'!$B$3</definedName>
+    <definedName name="elec_reduction_LDVs">'[4]Fuel Efficiency Adjustments'!$B$2</definedName>
+    <definedName name="elec_share">'[4]Fuel Efficiency Adjustments'!$B$6</definedName>
     <definedName name="Eno_TM" localSheetId="12">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Eno_TM" localSheetId="11">'[1]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Eno_TM" localSheetId="15">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Eno_TM">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Eno_Tons" localSheetId="12">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Eno_Tons" localSheetId="11">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Eno_Tons">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="gal_per_barrel">[2]About!$A$63</definedName>
+    <definedName name="km_per_mile">[4]About!$A$27</definedName>
     <definedName name="Regions">[3]Conversion!$B$43:$B$56</definedName>
     <definedName name="Sum_T2" localSheetId="12">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Sum_T2" localSheetId="11">'[1]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Sum_T2" localSheetId="15">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Sum_T2">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Sum_TTM" localSheetId="12">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Sum_TTM" localSheetId="11">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="Sum_TTM">'[1]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="ti_tbl_50" localSheetId="12">#REF!</definedName>
     <definedName name="ti_tbl_50" localSheetId="11">#REF!</definedName>
+    <definedName name="ti_tbl_50" localSheetId="15">#REF!</definedName>
     <definedName name="ti_tbl_50">#REF!</definedName>
     <definedName name="ti_tbl_69" localSheetId="12">#REF!</definedName>
     <definedName name="ti_tbl_69" localSheetId="11">#REF!</definedName>
+    <definedName name="ti_tbl_69" localSheetId="15">#REF!</definedName>
     <definedName name="ti_tbl_69">#REF!</definedName>
   </definedNames>
   <calcPr calcId="191028"/>
@@ -106,7 +117,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4930" uniqueCount="284">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4993" uniqueCount="297">
   <si>
     <t>BAADTbVT BAU Average Annual Dist Traveled by Vehicle Type</t>
   </si>
@@ -1166,6 +1177,110 @@
   <si>
     <t>GAS</t>
   </si>
+  <si>
+    <t>Table 25: Rail Transportation Secondary Energy Use and GHG Emissions by Region</t>
+  </si>
+  <si>
+    <r>
+      <t>Rail Transportation Energy Use</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (PJ)</t>
+    </r>
+  </si>
+  <si>
+    <t>Passenger Rail Transportation</t>
+  </si>
+  <si>
+    <t>Freight Rail Transportation</t>
+  </si>
+  <si>
+    <t>Passenger Rail Transportation Energy Intensity (MJ/Pkm)</t>
+  </si>
+  <si>
+    <t>Freight Rail Transportation Energy Intensity (MJ/Tkm)</t>
+  </si>
+  <si>
+    <r>
+      <t>Rail Transportation GHG Emissions</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> (Mt of CO</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="subscript"/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>2</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <color indexed="8"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>e)</t>
+    </r>
+  </si>
+  <si>
+    <t>Passenger Rail Transportation GHG Intensity (tonne/TJ)</t>
+  </si>
+  <si>
+    <t>Freight Rail Transportation GHG Intensity (tonne/TJ)</t>
+  </si>
+  <si>
+    <t>1) Rail transportation consumes only diesel fuel oil.</t>
+  </si>
+  <si>
+    <t>km to miles</t>
+  </si>
+  <si>
+    <t>tonnes to tons</t>
+  </si>
+  <si>
+    <t>total ton frgt-miles</t>
+  </si>
 </sst>
 </file>
 
@@ -1181,7 +1296,7 @@
     <numFmt numFmtId="168" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="169" formatCode="_(* #,##0.000_);_(* \(#,##0.000\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="57">
+  <fonts count="59">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1527,6 +1642,22 @@
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="subscript"/>
+      <sz val="10"/>
+      <color indexed="8"/>
       <name val="Arial"/>
       <family val="2"/>
     </font>
@@ -2218,7 +2349,7 @@
     <xf numFmtId="43" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="102">
+  <cellXfs count="112">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2383,6 +2514,30 @@
     <xf numFmtId="0" fontId="1" fillId="41" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="41" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="43" fontId="0" fillId="41" borderId="0" xfId="154" applyFont="1" applyFill="1"/>
+    <xf numFmtId="43" fontId="0" fillId="28" borderId="0" xfId="154" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="49" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="50" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="28" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="11" fontId="0" fillId="39" borderId="0" xfId="154" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="156">
     <cellStyle name="20% - Accent1 2" xfId="4" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
@@ -3096,6 +3251,81 @@
 </externalLink>
 </file>
 
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="EUDH T4"/>
+      <sheetName val="EUDH T8"/>
+      <sheetName val="Offroad Calcs"/>
+      <sheetName val="Fuel Efficiency Adjustments"/>
+      <sheetName val="Freight Fleet Data"/>
+      <sheetName val="Calibration Adjustments"/>
+      <sheetName val="Freight Energy Data"/>
+      <sheetName val="Passenger Fleet Data"/>
+      <sheetName val="Passenger Energy Data"/>
+      <sheetName val="Onroad Calcs"/>
+      <sheetName val="Marine Energy Consumption"/>
+      <sheetName val="marine calcs"/>
+      <sheetName val="rail calcs"/>
+      <sheetName val="Table 25_rail"/>
+      <sheetName val="SYFAFE-psgr"/>
+      <sheetName val="SYFAFE-frgt"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="27">
+          <cell r="A27">
+            <v>1.60934</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>947817000000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="B2">
+            <v>0.68595041322314043</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0.68881036513545346</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.55000000000000004</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="Andre Dixon" id="{53198674-1DAA-456D-A39B-019AF0616DC6}" userId="Andre Dixon" providerId="None"/>
@@ -12963,958 +13193,6 @@
 </file>
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
-  <sheetPr>
-    <tabColor theme="3"/>
-  </sheetPr>
-  <dimension ref="A1:AH9"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="16.5703125" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:34" ht="30">
-      <c r="A1" s="6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B1" s="5">
-        <v>2018</v>
-      </c>
-      <c r="C1" s="5">
-        <v>2019</v>
-      </c>
-      <c r="D1" s="5">
-        <v>2020</v>
-      </c>
-      <c r="E1" s="5">
-        <v>2021</v>
-      </c>
-      <c r="F1" s="5">
-        <v>2022</v>
-      </c>
-      <c r="G1" s="5">
-        <v>2023</v>
-      </c>
-      <c r="H1" s="5">
-        <v>2024</v>
-      </c>
-      <c r="I1" s="5">
-        <v>2025</v>
-      </c>
-      <c r="J1" s="5">
-        <v>2026</v>
-      </c>
-      <c r="K1" s="5">
-        <v>2027</v>
-      </c>
-      <c r="L1" s="5">
-        <v>2028</v>
-      </c>
-      <c r="M1" s="5">
-        <v>2029</v>
-      </c>
-      <c r="N1" s="5">
-        <v>2030</v>
-      </c>
-      <c r="O1" s="5">
-        <v>2031</v>
-      </c>
-      <c r="P1" s="5">
-        <v>2032</v>
-      </c>
-      <c r="Q1" s="5">
-        <v>2033</v>
-      </c>
-      <c r="R1" s="5">
-        <v>2034</v>
-      </c>
-      <c r="S1" s="5">
-        <v>2035</v>
-      </c>
-      <c r="T1" s="5">
-        <v>2036</v>
-      </c>
-      <c r="U1" s="5">
-        <v>2037</v>
-      </c>
-      <c r="V1" s="5">
-        <v>2038</v>
-      </c>
-      <c r="W1" s="5">
-        <v>2039</v>
-      </c>
-      <c r="X1" s="5">
-        <v>2040</v>
-      </c>
-      <c r="Y1" s="5">
-        <v>2041</v>
-      </c>
-      <c r="Z1" s="5">
-        <v>2042</v>
-      </c>
-      <c r="AA1" s="5">
-        <v>2043</v>
-      </c>
-      <c r="AB1" s="5">
-        <v>2044</v>
-      </c>
-      <c r="AC1" s="5">
-        <v>2045</v>
-      </c>
-      <c r="AD1" s="5">
-        <v>2046</v>
-      </c>
-      <c r="AE1" s="5">
-        <v>2047</v>
-      </c>
-      <c r="AF1" s="5">
-        <v>2048</v>
-      </c>
-      <c r="AG1" s="5">
-        <v>2049</v>
-      </c>
-      <c r="AH1" s="5">
-        <v>2050</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34">
-      <c r="A2" t="s">
-        <v>38</v>
-      </c>
-      <c r="B2" s="7">
-        <f>CONVERT((('Passenger Cars'!U13*'Passenger Cars'!U16)+(Trucks!U23*Trucks!U35))/('Passenger Cars'!U13+Trucks!U23),"km","mi")</f>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="C2" s="7">
-        <f>B2</f>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="D2" s="7">
-        <f t="shared" ref="D2:AH7" si="0">C2</f>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="E2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="F2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="G2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="H2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="I2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="J2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="K2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="L2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="M2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="N2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="O2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="P2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="Q2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="R2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="S2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="T2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="U2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="V2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="W2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="X2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="Y2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="Z2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="AA2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="AB2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="AC2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="AD2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="AE2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="AF2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="AG2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-      <c r="AH2" s="7">
-        <f t="shared" si="0"/>
-        <v>9554.1234147952946</v>
-      </c>
-    </row>
-    <row r="3" spans="1:34">
-      <c r="A3" t="s">
-        <v>39</v>
-      </c>
-      <c r="B3" s="7">
-        <f>DATA_inputdata!E234</f>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="C3" s="7">
-        <f t="shared" ref="C3:R7" si="1">B3</f>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="D3" s="7">
-        <f t="shared" si="1"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="E3" s="7">
-        <f t="shared" si="1"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="F3" s="7">
-        <f t="shared" si="1"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="G3" s="7">
-        <f t="shared" si="1"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="H3" s="7">
-        <f t="shared" si="1"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="I3" s="7">
-        <f t="shared" si="1"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="J3" s="7">
-        <f t="shared" si="1"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="K3" s="7">
-        <f t="shared" si="1"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="L3" s="7">
-        <f t="shared" si="1"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="M3" s="7">
-        <f t="shared" si="1"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="N3" s="7">
-        <f t="shared" si="1"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="O3" s="7">
-        <f t="shared" si="1"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="P3" s="7">
-        <f t="shared" si="1"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="Q3" s="7">
-        <f t="shared" si="1"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="R3" s="7">
-        <f t="shared" si="1"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="S3" s="7">
-        <f t="shared" si="0"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="T3" s="7">
-        <f t="shared" si="0"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="U3" s="7">
-        <f t="shared" si="0"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="V3" s="7">
-        <f t="shared" si="0"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="W3" s="7">
-        <f t="shared" si="0"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="X3" s="7">
-        <f t="shared" si="0"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="Y3" s="7">
-        <f t="shared" si="0"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="Z3" s="7">
-        <f t="shared" si="0"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="AA3" s="7">
-        <f t="shared" si="0"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="AB3" s="7">
-        <f t="shared" si="0"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="AC3" s="7">
-        <f t="shared" si="0"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="AD3" s="7">
-        <f t="shared" si="0"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="AE3" s="7">
-        <f t="shared" si="0"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="AF3" s="7">
-        <f t="shared" si="0"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="AG3" s="7">
-        <f t="shared" si="0"/>
-        <v>33500.419733409915</v>
-      </c>
-      <c r="AH3" s="7">
-        <f t="shared" si="0"/>
-        <v>33500.419733409915</v>
-      </c>
-    </row>
-    <row r="4" spans="1:34">
-      <c r="A4" t="s">
-        <v>28</v>
-      </c>
-      <c r="B4" s="7">
-        <f>DATA_inputdata!E235</f>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="C4" s="7">
-        <f t="shared" si="1"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="D4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="E4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="F4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="G4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="H4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="I4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="J4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="K4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="L4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="M4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="N4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="O4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="P4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="Q4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="R4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="S4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="T4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="U4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="V4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="W4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="X4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="Y4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="Z4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="AA4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="AB4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="AC4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="AD4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="AE4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="AF4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="AG4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-      <c r="AH4" s="7">
-        <f t="shared" si="0"/>
-        <v>105675.97361082943</v>
-      </c>
-    </row>
-    <row r="5" spans="1:34">
-      <c r="A5" t="s">
-        <v>40</v>
-      </c>
-      <c r="B5" s="7">
-        <f>DATA_inputdata!E236</f>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="C5" s="7">
-        <f t="shared" si="1"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="D5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="E5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="F5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="G5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="H5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="I5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="J5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="K5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="L5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="M5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="N5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="O5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="P5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="Q5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="R5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="S5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="T5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="U5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="V5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="W5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="X5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="Y5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="Z5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="AA5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="AB5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="AC5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="AD5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="AE5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="AF5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="AG5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-      <c r="AH5" s="7">
-        <f t="shared" si="0"/>
-        <v>27749.887528486739</v>
-      </c>
-    </row>
-    <row r="6" spans="1:34">
-      <c r="A6" t="s">
-        <v>41</v>
-      </c>
-      <c r="B6" s="7">
-        <f>DATA_inputdata!E237</f>
-        <v>0</v>
-      </c>
-      <c r="C6" s="7">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="D6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="E6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="G6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="H6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="I6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="J6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="K6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="L6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="M6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="N6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="O6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="P6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Q6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="R6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="S6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="T6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="U6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="V6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="W6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="X6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Y6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="Z6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AA6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AB6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AC6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AD6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AE6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AF6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AG6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="AH6" s="7">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:34">
-      <c r="A7" t="s">
-        <v>42</v>
-      </c>
-      <c r="B7" s="7">
-        <f>DATA_inputdata!E238</f>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="C7" s="7">
-        <f t="shared" si="1"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="D7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="E7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="F7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="G7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="H7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="I7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="J7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="K7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="L7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="M7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="N7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="O7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="P7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="Q7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="R7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="S7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="T7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="U7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="V7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="W7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="X7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="Y7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="Z7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="AA7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="AB7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="AC7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="AD7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="AE7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="AF7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="AG7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-      <c r="AH7" s="7">
-        <f t="shared" si="0"/>
-        <v>17647.108681345879</v>
-      </c>
-    </row>
-    <row r="9" spans="1:34">
-      <c r="B9" s="7"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A9050194-B8D6-4AF4-B896-91A23BB620DE}">
   <dimension ref="A1:E42"/>
   <sheetViews>
@@ -14524,12 +13802,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6253F542-B137-4E6C-963F-19A550154108}">
   <dimension ref="A1:P575"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -45593,12 +44871,3739 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015D1E9A-12D2-4650-BA7B-EFD7C00B0AA2}">
+  <dimension ref="A1:W75"/>
+  <sheetViews>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="W37" sqref="W37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="41.42578125" style="20" customWidth="1"/>
+    <col min="3" max="21" width="0" hidden="1" customWidth="1"/>
+    <col min="23" max="23" width="12" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22">
+      <c r="A1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B1">
+        <v>0.62137100000000001</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22">
+      <c r="A2" t="s">
+        <v>295</v>
+      </c>
+      <c r="B2">
+        <v>0.90718500000000002</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" ht="15.75">
+      <c r="A4" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="C4" s="9"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+    </row>
+    <row r="5" spans="1:22" ht="15.75">
+      <c r="A5" s="10" t="s">
+        <v>284</v>
+      </c>
+      <c r="B5" s="103"/>
+      <c r="C5" s="12"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="11"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="11"/>
+      <c r="I5" s="11"/>
+      <c r="J5" s="11"/>
+      <c r="K5" s="11"/>
+      <c r="L5" s="11"/>
+      <c r="M5" s="11"/>
+      <c r="N5" s="11"/>
+      <c r="O5" s="11"/>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="11"/>
+      <c r="R5" s="11"/>
+      <c r="S5" s="11"/>
+      <c r="T5" s="11"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="11"/>
+    </row>
+    <row r="8" spans="1:22">
+      <c r="C8" s="13">
+        <v>2000</v>
+      </c>
+      <c r="D8" s="13">
+        <v>2001</v>
+      </c>
+      <c r="E8" s="13">
+        <v>2002</v>
+      </c>
+      <c r="F8" s="13">
+        <v>2003</v>
+      </c>
+      <c r="G8" s="13">
+        <v>2004</v>
+      </c>
+      <c r="H8" s="13">
+        <v>2005</v>
+      </c>
+      <c r="I8" s="13">
+        <v>2006</v>
+      </c>
+      <c r="J8" s="13">
+        <v>2007</v>
+      </c>
+      <c r="K8" s="13">
+        <v>2008</v>
+      </c>
+      <c r="L8" s="13">
+        <v>2009</v>
+      </c>
+      <c r="M8" s="13">
+        <v>2010</v>
+      </c>
+      <c r="N8" s="13">
+        <v>2011</v>
+      </c>
+      <c r="O8" s="13">
+        <v>2012</v>
+      </c>
+      <c r="P8" s="13">
+        <v>2013</v>
+      </c>
+      <c r="Q8" s="13">
+        <v>2014</v>
+      </c>
+      <c r="R8" s="13">
+        <v>2015</v>
+      </c>
+      <c r="S8" s="13">
+        <v>2016</v>
+      </c>
+      <c r="T8" s="13">
+        <v>2017</v>
+      </c>
+      <c r="U8" s="13">
+        <v>2018</v>
+      </c>
+      <c r="V8" s="13">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22">
+      <c r="A10" s="25"/>
+      <c r="B10" s="21" t="s">
+        <v>285</v>
+      </c>
+      <c r="C10" s="26">
+        <v>84.48</v>
+      </c>
+      <c r="D10" s="26">
+        <v>83.701999999999998</v>
+      </c>
+      <c r="E10" s="26">
+        <v>76.23</v>
+      </c>
+      <c r="F10" s="26">
+        <v>76.960999999999999</v>
+      </c>
+      <c r="G10" s="26">
+        <v>79.138999999999996</v>
+      </c>
+      <c r="H10" s="26">
+        <v>84.325999999999993</v>
+      </c>
+      <c r="I10" s="26">
+        <v>88.275999999999996</v>
+      </c>
+      <c r="J10" s="26">
+        <v>94.558000000000007</v>
+      </c>
+      <c r="K10" s="26">
+        <v>99.834999999999994</v>
+      </c>
+      <c r="L10" s="26">
+        <v>85.356999999999999</v>
+      </c>
+      <c r="M10" s="26">
+        <v>83.724999999999994</v>
+      </c>
+      <c r="N10" s="26">
+        <v>94.36</v>
+      </c>
+      <c r="O10" s="26">
+        <v>96.578000000000003</v>
+      </c>
+      <c r="P10" s="26">
+        <v>93.05</v>
+      </c>
+      <c r="Q10" s="26">
+        <v>95.406000000000006</v>
+      </c>
+      <c r="R10" s="26">
+        <v>90.855999999999995</v>
+      </c>
+      <c r="S10" s="26">
+        <v>83.477000000000004</v>
+      </c>
+      <c r="T10" s="26">
+        <v>95.518000000000001</v>
+      </c>
+      <c r="U10" s="26">
+        <v>97.563999999999993</v>
+      </c>
+      <c r="V10" s="26">
+        <v>98.284999999999997</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22">
+      <c r="B11" s="104" t="s">
+        <v>286</v>
+      </c>
+      <c r="C11" s="16">
+        <v>2.9738790000000002</v>
+      </c>
+      <c r="D11" s="16">
+        <v>2.9605899999999998</v>
+      </c>
+      <c r="E11" s="16">
+        <v>2.7514850000000002</v>
+      </c>
+      <c r="F11" s="16">
+        <v>2.6077520000000001</v>
+      </c>
+      <c r="G11" s="16">
+        <v>2.5421640000000001</v>
+      </c>
+      <c r="H11" s="16">
+        <v>2.6696439999999999</v>
+      </c>
+      <c r="I11" s="16">
+        <v>2.6993649999999998</v>
+      </c>
+      <c r="J11" s="16">
+        <v>2.8065530000000001</v>
+      </c>
+      <c r="K11" s="16">
+        <v>3.1555629999999999</v>
+      </c>
+      <c r="L11" s="16">
+        <v>2.9977499999999999</v>
+      </c>
+      <c r="M11" s="16">
+        <v>2.4749439999999998</v>
+      </c>
+      <c r="N11" s="16">
+        <v>2.7665929999999999</v>
+      </c>
+      <c r="O11" s="16">
+        <v>2.3815270000000002</v>
+      </c>
+      <c r="P11" s="16">
+        <v>2.1025550000000002</v>
+      </c>
+      <c r="Q11" s="16">
+        <v>1.9880899999999999</v>
+      </c>
+      <c r="R11" s="16">
+        <v>2.0039169999999999</v>
+      </c>
+      <c r="S11" s="16">
+        <v>2.0251960000000002</v>
+      </c>
+      <c r="T11" s="16">
+        <v>2.2895620000000001</v>
+      </c>
+      <c r="U11" s="16">
+        <v>2.237285</v>
+      </c>
+      <c r="V11" s="16">
+        <v>2.2928009999999999</v>
+      </c>
+    </row>
+    <row r="12" spans="1:22">
+      <c r="B12" s="104" t="s">
+        <v>287</v>
+      </c>
+      <c r="C12" s="16">
+        <v>81.506120999999993</v>
+      </c>
+      <c r="D12" s="16">
+        <v>80.741410000000002</v>
+      </c>
+      <c r="E12" s="16">
+        <v>73.478515000000002</v>
+      </c>
+      <c r="F12" s="16">
+        <v>74.353247999999994</v>
+      </c>
+      <c r="G12" s="16">
+        <v>76.596835999999996</v>
+      </c>
+      <c r="H12" s="16">
+        <v>81.656356000000002</v>
+      </c>
+      <c r="I12" s="16">
+        <v>85.576634999999996</v>
+      </c>
+      <c r="J12" s="16">
+        <v>91.751446999999999</v>
+      </c>
+      <c r="K12" s="16">
+        <v>96.679436999999993</v>
+      </c>
+      <c r="L12" s="16">
+        <v>82.359250000000003</v>
+      </c>
+      <c r="M12" s="16">
+        <v>81.250056000000001</v>
+      </c>
+      <c r="N12" s="16">
+        <v>91.593406999999999</v>
+      </c>
+      <c r="O12" s="16">
+        <v>94.196472999999997</v>
+      </c>
+      <c r="P12" s="16">
+        <v>90.947445000000002</v>
+      </c>
+      <c r="Q12" s="16">
+        <v>93.417910000000006</v>
+      </c>
+      <c r="R12" s="16">
+        <v>88.852082999999993</v>
+      </c>
+      <c r="S12" s="16">
+        <v>81.451803999999996</v>
+      </c>
+      <c r="T12" s="16">
+        <v>93.228437999999997</v>
+      </c>
+      <c r="U12" s="16">
+        <v>95.326714999999993</v>
+      </c>
+      <c r="V12" s="16">
+        <v>95.992198999999999</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22">
+      <c r="B13" s="105" t="s">
+        <v>59</v>
+      </c>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+      <c r="E13" s="16"/>
+      <c r="F13" s="16"/>
+      <c r="G13" s="16"/>
+      <c r="H13" s="16"/>
+      <c r="I13" s="16"/>
+      <c r="J13" s="16"/>
+      <c r="K13" s="16"/>
+      <c r="L13" s="16"/>
+      <c r="M13" s="16"/>
+      <c r="N13" s="16"/>
+      <c r="O13" s="16"/>
+      <c r="P13" s="16"/>
+      <c r="Q13" s="16"/>
+      <c r="R13" s="16"/>
+      <c r="S13" s="16"/>
+      <c r="T13" s="16"/>
+      <c r="U13" s="16"/>
+      <c r="V13" s="16"/>
+    </row>
+    <row r="14" spans="1:22">
+      <c r="B14" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="C14" s="16">
+        <v>0</v>
+      </c>
+      <c r="D14" s="16">
+        <v>0</v>
+      </c>
+      <c r="E14" s="16">
+        <v>0</v>
+      </c>
+      <c r="F14" s="16">
+        <v>0</v>
+      </c>
+      <c r="G14" s="16">
+        <v>0</v>
+      </c>
+      <c r="H14" s="16">
+        <v>0</v>
+      </c>
+      <c r="I14" s="16">
+        <v>0</v>
+      </c>
+      <c r="J14" s="16">
+        <v>0</v>
+      </c>
+      <c r="K14" s="16">
+        <v>0</v>
+      </c>
+      <c r="L14" s="16">
+        <v>0</v>
+      </c>
+      <c r="M14" s="16">
+        <v>0</v>
+      </c>
+      <c r="N14" s="16">
+        <v>0</v>
+      </c>
+      <c r="O14" s="16">
+        <v>0</v>
+      </c>
+      <c r="P14" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q14" s="16">
+        <v>0</v>
+      </c>
+      <c r="R14" s="16">
+        <v>0</v>
+      </c>
+      <c r="S14" s="16">
+        <v>0</v>
+      </c>
+      <c r="T14" s="16">
+        <v>0</v>
+      </c>
+      <c r="U14" s="16">
+        <v>0</v>
+      </c>
+      <c r="V14" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22">
+      <c r="B15" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="C15" s="16">
+        <v>0</v>
+      </c>
+      <c r="D15" s="16">
+        <v>0</v>
+      </c>
+      <c r="E15" s="16">
+        <v>0</v>
+      </c>
+      <c r="F15" s="16">
+        <v>0</v>
+      </c>
+      <c r="G15" s="16">
+        <v>0</v>
+      </c>
+      <c r="H15" s="16">
+        <v>0</v>
+      </c>
+      <c r="I15" s="16">
+        <v>0</v>
+      </c>
+      <c r="J15" s="16">
+        <v>0</v>
+      </c>
+      <c r="K15" s="16">
+        <v>0</v>
+      </c>
+      <c r="L15" s="16">
+        <v>0</v>
+      </c>
+      <c r="M15" s="16">
+        <v>0</v>
+      </c>
+      <c r="N15" s="16">
+        <v>0</v>
+      </c>
+      <c r="O15" s="16">
+        <v>0</v>
+      </c>
+      <c r="P15" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q15" s="16">
+        <v>0</v>
+      </c>
+      <c r="R15" s="16">
+        <v>0</v>
+      </c>
+      <c r="S15" s="16">
+        <v>0</v>
+      </c>
+      <c r="T15" s="16">
+        <v>0</v>
+      </c>
+      <c r="U15" s="16">
+        <v>0</v>
+      </c>
+      <c r="V15" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:22">
+      <c r="B16" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" s="16">
+        <v>0.94299999999999995</v>
+      </c>
+      <c r="D16" s="16">
+        <v>0.88500000000000001</v>
+      </c>
+      <c r="E16" s="16">
+        <v>0.99</v>
+      </c>
+      <c r="F16" s="16">
+        <v>2.1080000000000001</v>
+      </c>
+      <c r="G16" s="16">
+        <v>1.5049999999999999</v>
+      </c>
+      <c r="H16" s="16">
+        <v>1.47</v>
+      </c>
+      <c r="I16" s="16">
+        <v>1.3360000000000001</v>
+      </c>
+      <c r="J16" s="16">
+        <v>1.9830000000000001</v>
+      </c>
+      <c r="K16" s="16">
+        <v>1.776</v>
+      </c>
+      <c r="L16" s="16">
+        <v>1.4750000000000001</v>
+      </c>
+      <c r="M16" s="16">
+        <v>1.748</v>
+      </c>
+      <c r="N16" s="16">
+        <v>2.1749999999999998</v>
+      </c>
+      <c r="O16" s="16">
+        <v>1.6759999999999999</v>
+      </c>
+      <c r="P16" s="16">
+        <v>1.337</v>
+      </c>
+      <c r="Q16" s="16">
+        <v>1.3859999999999999</v>
+      </c>
+      <c r="R16" s="16">
+        <v>1.5109999999999999</v>
+      </c>
+      <c r="S16" s="16">
+        <v>1.5269999999999999</v>
+      </c>
+      <c r="T16" s="16">
+        <v>1.9379999999999999</v>
+      </c>
+      <c r="U16" s="16">
+        <v>2.0830000000000002</v>
+      </c>
+      <c r="V16" s="16">
+        <v>2.028</v>
+      </c>
+    </row>
+    <row r="17" spans="2:22">
+      <c r="B17" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="16">
+        <v>2.9860000000000002</v>
+      </c>
+      <c r="D17" s="16">
+        <v>3.3239999999999998</v>
+      </c>
+      <c r="E17" s="16">
+        <v>3.3090000000000002</v>
+      </c>
+      <c r="F17" s="16">
+        <v>3.6</v>
+      </c>
+      <c r="G17" s="16">
+        <v>3.7290000000000001</v>
+      </c>
+      <c r="H17" s="16">
+        <v>3.6429999999999998</v>
+      </c>
+      <c r="I17" s="16">
+        <v>3.621</v>
+      </c>
+      <c r="J17" s="16">
+        <v>3.6589999999999998</v>
+      </c>
+      <c r="K17" s="16">
+        <v>3.1459999999999999</v>
+      </c>
+      <c r="L17" s="16">
+        <v>3.2330000000000001</v>
+      </c>
+      <c r="M17" s="16">
+        <v>3.919</v>
+      </c>
+      <c r="N17" s="16">
+        <v>3.7069999999999999</v>
+      </c>
+      <c r="O17" s="16">
+        <v>3.4940000000000002</v>
+      </c>
+      <c r="P17" s="16">
+        <v>2.5339999999999998</v>
+      </c>
+      <c r="Q17" s="16">
+        <v>2.6139999999999999</v>
+      </c>
+      <c r="R17" s="16">
+        <v>2.194</v>
+      </c>
+      <c r="S17" s="16">
+        <v>2.0449999999999999</v>
+      </c>
+      <c r="T17" s="16">
+        <v>2.0129999999999999</v>
+      </c>
+      <c r="U17" s="16">
+        <v>2.044</v>
+      </c>
+      <c r="V17" s="16">
+        <v>1.929</v>
+      </c>
+    </row>
+    <row r="18" spans="2:22">
+      <c r="B18" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="C18" s="16">
+        <v>10.317</v>
+      </c>
+      <c r="D18" s="16">
+        <v>9.6929999999999996</v>
+      </c>
+      <c r="E18" s="16">
+        <v>9.5549999999999997</v>
+      </c>
+      <c r="F18" s="16">
+        <v>9.4930000000000003</v>
+      </c>
+      <c r="G18" s="16">
+        <v>10.393000000000001</v>
+      </c>
+      <c r="H18" s="16">
+        <v>9.0340000000000007</v>
+      </c>
+      <c r="I18" s="16">
+        <v>9.8160000000000007</v>
+      </c>
+      <c r="J18" s="16">
+        <v>11.282999999999999</v>
+      </c>
+      <c r="K18" s="16">
+        <v>11.382999999999999</v>
+      </c>
+      <c r="L18" s="16">
+        <v>11.846</v>
+      </c>
+      <c r="M18" s="16">
+        <v>10.804</v>
+      </c>
+      <c r="N18" s="16">
+        <v>11.39</v>
+      </c>
+      <c r="O18" s="16">
+        <v>11.891</v>
+      </c>
+      <c r="P18" s="16">
+        <v>11.1</v>
+      </c>
+      <c r="Q18" s="16">
+        <v>9.9130000000000003</v>
+      </c>
+      <c r="R18" s="16">
+        <v>8.7059999999999995</v>
+      </c>
+      <c r="S18" s="16">
+        <v>8.5950000000000006</v>
+      </c>
+      <c r="T18" s="16">
+        <v>7.931</v>
+      </c>
+      <c r="U18" s="16">
+        <v>8.8879999999999999</v>
+      </c>
+      <c r="V18" s="16">
+        <v>8.1530000000000005</v>
+      </c>
+    </row>
+    <row r="19" spans="2:22">
+      <c r="B19" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="C19" s="16">
+        <v>21.381</v>
+      </c>
+      <c r="D19" s="16">
+        <v>20.234000000000002</v>
+      </c>
+      <c r="E19" s="16">
+        <v>18.707999999999998</v>
+      </c>
+      <c r="F19" s="16">
+        <v>16.413</v>
+      </c>
+      <c r="G19" s="16">
+        <v>18.513999999999999</v>
+      </c>
+      <c r="H19" s="16">
+        <v>19.878</v>
+      </c>
+      <c r="I19" s="16">
+        <v>18.856000000000002</v>
+      </c>
+      <c r="J19" s="16">
+        <v>19.640999999999998</v>
+      </c>
+      <c r="K19" s="16">
+        <v>19.617999999999999</v>
+      </c>
+      <c r="L19" s="16">
+        <v>14.723000000000001</v>
+      </c>
+      <c r="M19" s="16">
+        <v>16.053999999999998</v>
+      </c>
+      <c r="N19" s="16">
+        <v>16.920999999999999</v>
+      </c>
+      <c r="O19" s="16">
+        <v>15.875</v>
+      </c>
+      <c r="P19" s="16">
+        <v>16.82</v>
+      </c>
+      <c r="Q19" s="16">
+        <v>18.047000000000001</v>
+      </c>
+      <c r="R19" s="16">
+        <v>18.280999999999999</v>
+      </c>
+      <c r="S19" s="16">
+        <v>18.533999999999999</v>
+      </c>
+      <c r="T19" s="16">
+        <v>18.454999999999998</v>
+      </c>
+      <c r="U19" s="16">
+        <v>19.616</v>
+      </c>
+      <c r="V19" s="16">
+        <v>19.847000000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="2:22">
+      <c r="B20" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="16">
+        <v>4.1070000000000002</v>
+      </c>
+      <c r="D20" s="16">
+        <v>3.1190000000000002</v>
+      </c>
+      <c r="E20" s="16">
+        <v>1.157</v>
+      </c>
+      <c r="F20" s="16">
+        <v>2.5939999999999999</v>
+      </c>
+      <c r="G20" s="16">
+        <v>3.758</v>
+      </c>
+      <c r="H20" s="16">
+        <v>3.8279999999999998</v>
+      </c>
+      <c r="I20" s="16">
+        <v>3.742</v>
+      </c>
+      <c r="J20" s="16">
+        <v>3.25</v>
+      </c>
+      <c r="K20" s="16">
+        <v>3.5209999999999999</v>
+      </c>
+      <c r="L20" s="16">
+        <v>6.6909999999999998</v>
+      </c>
+      <c r="M20" s="16">
+        <v>7.9880000000000004</v>
+      </c>
+      <c r="N20" s="16">
+        <v>8.84</v>
+      </c>
+      <c r="O20" s="16">
+        <v>7.883</v>
+      </c>
+      <c r="P20" s="16">
+        <v>7.2770000000000001</v>
+      </c>
+      <c r="Q20" s="16">
+        <v>8.3710000000000004</v>
+      </c>
+      <c r="R20" s="16">
+        <v>8.9930000000000003</v>
+      </c>
+      <c r="S20" s="16">
+        <v>8.4329999999999998</v>
+      </c>
+      <c r="T20" s="16">
+        <v>10.256</v>
+      </c>
+      <c r="U20" s="16">
+        <v>11.247999999999999</v>
+      </c>
+      <c r="V20" s="16">
+        <v>11.404999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="2:22">
+      <c r="B21" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="16">
+        <v>5.2380000000000004</v>
+      </c>
+      <c r="D21" s="16">
+        <v>3.887</v>
+      </c>
+      <c r="E21" s="16">
+        <v>3.141</v>
+      </c>
+      <c r="F21" s="16">
+        <v>2.4119999999999999</v>
+      </c>
+      <c r="G21" s="16">
+        <v>2.1749999999999998</v>
+      </c>
+      <c r="H21" s="16">
+        <v>5.2530000000000001</v>
+      </c>
+      <c r="I21" s="16">
+        <v>4.875</v>
+      </c>
+      <c r="J21" s="16">
+        <v>3.1819999999999999</v>
+      </c>
+      <c r="K21" s="16">
+        <v>6.0359999999999996</v>
+      </c>
+      <c r="L21" s="16">
+        <v>4.8529999999999998</v>
+      </c>
+      <c r="M21" s="16">
+        <v>8.8740000000000006</v>
+      </c>
+      <c r="N21" s="16">
+        <v>9.2189999999999994</v>
+      </c>
+      <c r="O21" s="16">
+        <v>7.1849999999999996</v>
+      </c>
+      <c r="P21" s="16">
+        <v>8.8759999999999994</v>
+      </c>
+      <c r="Q21" s="16">
+        <v>9.1669999999999998</v>
+      </c>
+      <c r="R21" s="16">
+        <v>10.241</v>
+      </c>
+      <c r="S21" s="16">
+        <v>9.9779999999999998</v>
+      </c>
+      <c r="T21" s="16">
+        <v>14.359</v>
+      </c>
+      <c r="U21" s="16">
+        <v>16.359000000000002</v>
+      </c>
+      <c r="V21" s="16">
+        <v>17.341000000000001</v>
+      </c>
+    </row>
+    <row r="22" spans="2:22">
+      <c r="B22" s="106" t="s">
+        <v>68</v>
+      </c>
+      <c r="C22" s="16">
+        <v>23.123999999999999</v>
+      </c>
+      <c r="D22" s="16">
+        <v>28.978999999999999</v>
+      </c>
+      <c r="E22" s="16">
+        <v>28.280999999999999</v>
+      </c>
+      <c r="F22" s="16">
+        <v>33.006</v>
+      </c>
+      <c r="G22" s="16">
+        <v>33.895000000000003</v>
+      </c>
+      <c r="H22" s="16">
+        <v>35.636000000000003</v>
+      </c>
+      <c r="I22" s="16">
+        <v>40.584000000000003</v>
+      </c>
+      <c r="J22" s="16">
+        <v>46.076999999999998</v>
+      </c>
+      <c r="K22" s="16">
+        <v>45.878</v>
+      </c>
+      <c r="L22" s="16">
+        <v>36.790999999999997</v>
+      </c>
+      <c r="M22" s="16">
+        <v>27.699000000000002</v>
+      </c>
+      <c r="N22" s="16">
+        <v>33.436</v>
+      </c>
+      <c r="O22" s="16">
+        <v>39.715000000000003</v>
+      </c>
+      <c r="P22" s="16">
+        <v>38.17</v>
+      </c>
+      <c r="Q22" s="16">
+        <v>37.219000000000001</v>
+      </c>
+      <c r="R22" s="16">
+        <v>32.264000000000003</v>
+      </c>
+      <c r="S22" s="16">
+        <v>24.152000000000001</v>
+      </c>
+      <c r="T22" s="16">
+        <v>26.402000000000001</v>
+      </c>
+      <c r="U22" s="16">
+        <v>24.359000000000002</v>
+      </c>
+      <c r="V22" s="16">
+        <v>24.867999999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="2:22">
+      <c r="B23" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="16">
+        <v>16.384</v>
+      </c>
+      <c r="D23" s="16">
+        <v>13.581</v>
+      </c>
+      <c r="E23" s="16">
+        <v>11.089</v>
+      </c>
+      <c r="F23" s="16">
+        <v>7.335</v>
+      </c>
+      <c r="G23" s="16">
+        <v>5.17</v>
+      </c>
+      <c r="H23" s="16">
+        <v>5.5839999999999996</v>
+      </c>
+      <c r="I23" s="16">
+        <v>5.4459999999999997</v>
+      </c>
+      <c r="J23" s="16">
+        <v>5.4829999999999997</v>
+      </c>
+      <c r="K23" s="16">
+        <v>8.4770000000000003</v>
+      </c>
+      <c r="L23" s="16">
+        <v>5.7450000000000001</v>
+      </c>
+      <c r="M23" s="16">
+        <v>6.6390000000000002</v>
+      </c>
+      <c r="N23" s="16">
+        <v>8.6720000000000006</v>
+      </c>
+      <c r="O23" s="16">
+        <v>8.859</v>
+      </c>
+      <c r="P23" s="16">
+        <v>6.9359999999999999</v>
+      </c>
+      <c r="Q23" s="16">
+        <v>8.6890000000000001</v>
+      </c>
+      <c r="R23" s="16">
+        <v>8.6660000000000004</v>
+      </c>
+      <c r="S23" s="16">
+        <v>10.212999999999999</v>
+      </c>
+      <c r="T23" s="16">
+        <v>14.164</v>
+      </c>
+      <c r="U23" s="16">
+        <v>12.967000000000001</v>
+      </c>
+      <c r="V23" s="16">
+        <v>12.714</v>
+      </c>
+    </row>
+    <row r="24" spans="2:22">
+      <c r="B24" s="104"/>
+      <c r="C24" s="16"/>
+      <c r="D24" s="16"/>
+      <c r="E24" s="16"/>
+      <c r="F24" s="16"/>
+      <c r="G24" s="16"/>
+      <c r="H24" s="16"/>
+      <c r="I24" s="16"/>
+      <c r="J24" s="16"/>
+      <c r="K24" s="16"/>
+      <c r="L24" s="16"/>
+      <c r="M24" s="16"/>
+      <c r="N24" s="16"/>
+      <c r="O24" s="16"/>
+      <c r="P24" s="16"/>
+      <c r="Q24" s="16"/>
+      <c r="R24" s="16"/>
+      <c r="S24" s="16"/>
+      <c r="T24" s="16"/>
+      <c r="U24" s="16"/>
+      <c r="V24" s="16"/>
+    </row>
+    <row r="25" spans="2:22">
+      <c r="B25" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
+      <c r="E25" s="16"/>
+      <c r="F25" s="16"/>
+      <c r="G25" s="16"/>
+      <c r="H25" s="16"/>
+      <c r="I25" s="16"/>
+      <c r="J25" s="16"/>
+      <c r="K25" s="16"/>
+      <c r="L25" s="16"/>
+      <c r="M25" s="16"/>
+      <c r="N25" s="16"/>
+      <c r="O25" s="16"/>
+      <c r="P25" s="16"/>
+      <c r="Q25" s="16"/>
+      <c r="R25" s="16"/>
+      <c r="S25" s="16"/>
+      <c r="T25" s="16"/>
+      <c r="U25" s="16"/>
+      <c r="V25" s="16"/>
+    </row>
+    <row r="26" spans="2:22">
+      <c r="B26" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="C26" s="16">
+        <v>0</v>
+      </c>
+      <c r="D26" s="16">
+        <v>0</v>
+      </c>
+      <c r="E26" s="16">
+        <v>0</v>
+      </c>
+      <c r="F26" s="16">
+        <v>0</v>
+      </c>
+      <c r="G26" s="16">
+        <v>0</v>
+      </c>
+      <c r="H26" s="16">
+        <v>0</v>
+      </c>
+      <c r="I26" s="16">
+        <v>0</v>
+      </c>
+      <c r="J26" s="16">
+        <v>0</v>
+      </c>
+      <c r="K26" s="16">
+        <v>0</v>
+      </c>
+      <c r="L26" s="16">
+        <v>0</v>
+      </c>
+      <c r="M26" s="16">
+        <v>0</v>
+      </c>
+      <c r="N26" s="16">
+        <v>0</v>
+      </c>
+      <c r="O26" s="16">
+        <v>0</v>
+      </c>
+      <c r="P26" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q26" s="16">
+        <v>0</v>
+      </c>
+      <c r="R26" s="16">
+        <v>0</v>
+      </c>
+      <c r="S26" s="16">
+        <v>0</v>
+      </c>
+      <c r="T26" s="16">
+        <v>0</v>
+      </c>
+      <c r="U26" s="16">
+        <v>0</v>
+      </c>
+      <c r="V26" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="2:22">
+      <c r="B27" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="C27" s="16">
+        <v>0</v>
+      </c>
+      <c r="D27" s="16">
+        <v>0</v>
+      </c>
+      <c r="E27" s="16">
+        <v>0</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0</v>
+      </c>
+      <c r="G27" s="16">
+        <v>0</v>
+      </c>
+      <c r="H27" s="16">
+        <v>0</v>
+      </c>
+      <c r="I27" s="16">
+        <v>0</v>
+      </c>
+      <c r="J27" s="16">
+        <v>0</v>
+      </c>
+      <c r="K27" s="16">
+        <v>0</v>
+      </c>
+      <c r="L27" s="16">
+        <v>0</v>
+      </c>
+      <c r="M27" s="16">
+        <v>0</v>
+      </c>
+      <c r="N27" s="16">
+        <v>0</v>
+      </c>
+      <c r="O27" s="16">
+        <v>0</v>
+      </c>
+      <c r="P27" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q27" s="16">
+        <v>0</v>
+      </c>
+      <c r="R27" s="16">
+        <v>0</v>
+      </c>
+      <c r="S27" s="16">
+        <v>0</v>
+      </c>
+      <c r="T27" s="16">
+        <v>0</v>
+      </c>
+      <c r="U27" s="16">
+        <v>0</v>
+      </c>
+      <c r="V27" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="2:22">
+      <c r="B28" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="C28" s="16">
+        <v>1.116241</v>
+      </c>
+      <c r="D28" s="16">
+        <v>1.0573220000000001</v>
+      </c>
+      <c r="E28" s="16">
+        <v>1.2987010000000001</v>
+      </c>
+      <c r="F28" s="16">
+        <v>2.7390500000000002</v>
+      </c>
+      <c r="G28" s="16">
+        <v>1.9017170000000001</v>
+      </c>
+      <c r="H28" s="16">
+        <v>1.7432350000000001</v>
+      </c>
+      <c r="I28" s="16">
+        <v>1.5134350000000001</v>
+      </c>
+      <c r="J28" s="16">
+        <v>2.0971259999999998</v>
+      </c>
+      <c r="K28" s="16">
+        <v>1.7789349999999999</v>
+      </c>
+      <c r="L28" s="16">
+        <v>1.7280359999999999</v>
+      </c>
+      <c r="M28" s="16">
+        <v>2.0877870000000001</v>
+      </c>
+      <c r="N28" s="16">
+        <v>2.305002</v>
+      </c>
+      <c r="O28" s="16">
+        <v>1.735385</v>
+      </c>
+      <c r="P28" s="16">
+        <v>1.4368620000000001</v>
+      </c>
+      <c r="Q28" s="16">
+        <v>1.452739</v>
+      </c>
+      <c r="R28" s="16">
+        <v>1.663071</v>
+      </c>
+      <c r="S28" s="16">
+        <v>1.8292459999999999</v>
+      </c>
+      <c r="T28" s="16">
+        <v>2.028937</v>
+      </c>
+      <c r="U28" s="16">
+        <v>2.1350090000000002</v>
+      </c>
+      <c r="V28" s="16">
+        <v>2.0633870000000001</v>
+      </c>
+    </row>
+    <row r="29" spans="2:22">
+      <c r="B29" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="C29" s="16">
+        <v>3.534564</v>
+      </c>
+      <c r="D29" s="16">
+        <v>3.971231</v>
+      </c>
+      <c r="E29" s="16">
+        <v>4.3408110000000004</v>
+      </c>
+      <c r="F29" s="16">
+        <v>4.6776939999999998</v>
+      </c>
+      <c r="G29" s="16">
+        <v>4.7119619999999998</v>
+      </c>
+      <c r="H29" s="16">
+        <v>4.3201390000000002</v>
+      </c>
+      <c r="I29" s="16">
+        <v>4.1019079999999999</v>
+      </c>
+      <c r="J29" s="16">
+        <v>3.869583</v>
+      </c>
+      <c r="K29" s="16">
+        <v>3.1511990000000001</v>
+      </c>
+      <c r="L29" s="16">
+        <v>3.7876210000000001</v>
+      </c>
+      <c r="M29" s="16">
+        <v>4.6807999999999996</v>
+      </c>
+      <c r="N29" s="16">
+        <v>3.9285709999999998</v>
+      </c>
+      <c r="O29" s="16">
+        <v>3.617801</v>
+      </c>
+      <c r="P29" s="16">
+        <v>2.7232669999999999</v>
+      </c>
+      <c r="Q29" s="16">
+        <v>2.7398699999999998</v>
+      </c>
+      <c r="R29" s="16">
+        <v>2.4148100000000001</v>
+      </c>
+      <c r="S29" s="16">
+        <v>2.4497770000000001</v>
+      </c>
+      <c r="T29" s="16">
+        <v>2.107456</v>
+      </c>
+      <c r="U29" s="16">
+        <v>2.0950350000000002</v>
+      </c>
+      <c r="V29" s="16">
+        <v>1.9626600000000001</v>
+      </c>
+    </row>
+    <row r="30" spans="2:22">
+      <c r="B30" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="C30" s="16">
+        <v>12.212358</v>
+      </c>
+      <c r="D30" s="16">
+        <v>11.580368</v>
+      </c>
+      <c r="E30" s="16">
+        <v>12.534435</v>
+      </c>
+      <c r="F30" s="16">
+        <v>12.334819</v>
+      </c>
+      <c r="G30" s="16">
+        <v>13.132588999999999</v>
+      </c>
+      <c r="H30" s="16">
+        <v>10.713184999999999</v>
+      </c>
+      <c r="I30" s="16">
+        <v>11.119669999999999</v>
+      </c>
+      <c r="J30" s="16">
+        <v>11.932359</v>
+      </c>
+      <c r="K30" s="16">
+        <v>11.401813000000001</v>
+      </c>
+      <c r="L30" s="16">
+        <v>13.878182000000001</v>
+      </c>
+      <c r="M30" s="16">
+        <v>12.90415</v>
+      </c>
+      <c r="N30" s="16">
+        <v>12.070793</v>
+      </c>
+      <c r="O30" s="16">
+        <v>12.312328000000001</v>
+      </c>
+      <c r="P30" s="16">
+        <v>11.929069999999999</v>
+      </c>
+      <c r="Q30" s="16">
+        <v>10.390332000000001</v>
+      </c>
+      <c r="R30" s="16">
+        <v>9.5821959999999997</v>
+      </c>
+      <c r="S30" s="16">
+        <v>10.296249</v>
+      </c>
+      <c r="T30" s="16">
+        <v>8.3031469999999992</v>
+      </c>
+      <c r="U30" s="16">
+        <v>9.1099180000000004</v>
+      </c>
+      <c r="V30" s="16">
+        <v>8.2952639999999995</v>
+      </c>
+    </row>
+    <row r="31" spans="2:22">
+      <c r="B31" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="C31" s="16">
+        <v>25.308948999999998</v>
+      </c>
+      <c r="D31" s="16">
+        <v>24.173855</v>
+      </c>
+      <c r="E31" s="16">
+        <v>24.541519000000001</v>
+      </c>
+      <c r="F31" s="16">
+        <v>21.326385999999999</v>
+      </c>
+      <c r="G31" s="16">
+        <v>23.394280999999999</v>
+      </c>
+      <c r="H31" s="16">
+        <v>23.572800999999998</v>
+      </c>
+      <c r="I31" s="16">
+        <v>21.360278999999998</v>
+      </c>
+      <c r="J31" s="16">
+        <v>20.771377999999999</v>
+      </c>
+      <c r="K31" s="16">
+        <v>19.650423</v>
+      </c>
+      <c r="L31" s="16">
+        <v>17.248732</v>
+      </c>
+      <c r="M31" s="16">
+        <v>19.174679000000001</v>
+      </c>
+      <c r="N31" s="16">
+        <v>17.932386999999999</v>
+      </c>
+      <c r="O31" s="16">
+        <v>16.437491000000001</v>
+      </c>
+      <c r="P31" s="16">
+        <v>18.076302999999999</v>
+      </c>
+      <c r="Q31" s="16">
+        <v>18.916001000000001</v>
+      </c>
+      <c r="R31" s="16">
+        <v>20.120850999999998</v>
+      </c>
+      <c r="S31" s="16">
+        <v>22.202522999999999</v>
+      </c>
+      <c r="T31" s="16">
+        <v>19.320965999999999</v>
+      </c>
+      <c r="U31" s="16">
+        <v>20.105777</v>
+      </c>
+      <c r="V31" s="16">
+        <v>20.193314999999998</v>
+      </c>
+    </row>
+    <row r="32" spans="2:22">
+      <c r="B32" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="C32" s="16">
+        <v>4.8615060000000003</v>
+      </c>
+      <c r="D32" s="16">
+        <v>3.726315</v>
+      </c>
+      <c r="E32" s="16">
+        <v>1.5177750000000001</v>
+      </c>
+      <c r="F32" s="16">
+        <v>3.3705379999999998</v>
+      </c>
+      <c r="G32" s="16">
+        <v>4.7486069999999998</v>
+      </c>
+      <c r="H32" s="16">
+        <v>4.5395250000000003</v>
+      </c>
+      <c r="I32" s="16">
+        <v>4.2389780000000004</v>
+      </c>
+      <c r="J32" s="16">
+        <v>3.4370440000000002</v>
+      </c>
+      <c r="K32" s="16">
+        <v>3.5268190000000001</v>
+      </c>
+      <c r="L32" s="16">
+        <v>7.8388419999999996</v>
+      </c>
+      <c r="M32" s="16">
+        <v>9.5407580000000003</v>
+      </c>
+      <c r="N32" s="16">
+        <v>9.3683759999999996</v>
+      </c>
+      <c r="O32" s="16">
+        <v>8.1623140000000003</v>
+      </c>
+      <c r="P32" s="16">
+        <v>7.8205270000000002</v>
+      </c>
+      <c r="Q32" s="16">
+        <v>8.7740810000000007</v>
+      </c>
+      <c r="R32" s="16">
+        <v>9.8980800000000002</v>
+      </c>
+      <c r="S32" s="16">
+        <v>10.102183999999999</v>
+      </c>
+      <c r="T32" s="16">
+        <v>10.737242999999999</v>
+      </c>
+      <c r="U32" s="16">
+        <v>11.528843</v>
+      </c>
+      <c r="V32" s="16">
+        <v>11.604009</v>
+      </c>
+    </row>
+    <row r="33" spans="1:23">
+      <c r="B33" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="C33" s="16">
+        <v>6.2002839999999999</v>
+      </c>
+      <c r="D33" s="16">
+        <v>4.6438560000000004</v>
+      </c>
+      <c r="E33" s="16">
+        <v>4.120425</v>
+      </c>
+      <c r="F33" s="16">
+        <v>3.134055</v>
+      </c>
+      <c r="G33" s="16">
+        <v>2.748329</v>
+      </c>
+      <c r="H33" s="16">
+        <v>6.2293950000000002</v>
+      </c>
+      <c r="I33" s="16">
+        <v>5.5224520000000004</v>
+      </c>
+      <c r="J33" s="16">
+        <v>3.3651300000000002</v>
+      </c>
+      <c r="K33" s="16">
+        <v>6.0459759999999996</v>
+      </c>
+      <c r="L33" s="16">
+        <v>5.6855330000000004</v>
+      </c>
+      <c r="M33" s="16">
+        <v>10.598985000000001</v>
+      </c>
+      <c r="N33" s="16">
+        <v>9.7700300000000002</v>
+      </c>
+      <c r="O33" s="16">
+        <v>7.4395829999999998</v>
+      </c>
+      <c r="P33" s="16">
+        <v>9.5389579999999992</v>
+      </c>
+      <c r="Q33" s="16">
+        <v>9.6084099999999992</v>
+      </c>
+      <c r="R33" s="16">
+        <v>11.271682999999999</v>
+      </c>
+      <c r="S33" s="16">
+        <v>11.952992999999999</v>
+      </c>
+      <c r="T33" s="16">
+        <v>15.032769</v>
+      </c>
+      <c r="U33" s="16">
+        <v>16.767455000000002</v>
+      </c>
+      <c r="V33" s="16">
+        <v>17.643588000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:23">
+      <c r="B34" s="106" t="s">
+        <v>68</v>
+      </c>
+      <c r="C34" s="16">
+        <v>27.372159</v>
+      </c>
+      <c r="D34" s="16">
+        <v>34.621634</v>
+      </c>
+      <c r="E34" s="16">
+        <v>37.099567</v>
+      </c>
+      <c r="F34" s="16">
+        <v>42.886657</v>
+      </c>
+      <c r="G34" s="16">
+        <v>42.829704999999997</v>
+      </c>
+      <c r="H34" s="16">
+        <v>42.259801000000003</v>
+      </c>
+      <c r="I34" s="16">
+        <v>45.973990999999998</v>
+      </c>
+      <c r="J34" s="16">
+        <v>48.728822999999998</v>
+      </c>
+      <c r="K34" s="16">
+        <v>45.953823999999997</v>
+      </c>
+      <c r="L34" s="16">
+        <v>43.102499000000002</v>
+      </c>
+      <c r="M34" s="16">
+        <v>33.083308000000002</v>
+      </c>
+      <c r="N34" s="16">
+        <v>35.434505999999999</v>
+      </c>
+      <c r="O34" s="16">
+        <v>41.122202000000001</v>
+      </c>
+      <c r="P34" s="16">
+        <v>41.020955999999998</v>
+      </c>
+      <c r="Q34" s="16">
+        <v>39.011172999999999</v>
+      </c>
+      <c r="R34" s="16">
+        <v>35.511139</v>
+      </c>
+      <c r="S34" s="16">
+        <v>28.93252</v>
+      </c>
+      <c r="T34" s="16">
+        <v>27.640864000000001</v>
+      </c>
+      <c r="U34" s="16">
+        <v>24.967200999999999</v>
+      </c>
+      <c r="V34" s="16">
+        <v>25.301928</v>
+      </c>
+    </row>
+    <row r="35" spans="1:23">
+      <c r="B35" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="C35" s="16">
+        <v>19.393939</v>
+      </c>
+      <c r="D35" s="16">
+        <v>16.225418999999999</v>
+      </c>
+      <c r="E35" s="16">
+        <v>14.546766</v>
+      </c>
+      <c r="F35" s="16">
+        <v>9.5308010000000003</v>
+      </c>
+      <c r="G35" s="16">
+        <v>6.5328090000000003</v>
+      </c>
+      <c r="H35" s="16">
+        <v>6.6219200000000003</v>
+      </c>
+      <c r="I35" s="16">
+        <v>6.1692869999999997</v>
+      </c>
+      <c r="J35" s="16">
+        <v>5.7985569999999997</v>
+      </c>
+      <c r="K35" s="16">
+        <v>8.4910099999999993</v>
+      </c>
+      <c r="L35" s="16">
+        <v>6.7305549999999998</v>
+      </c>
+      <c r="M35" s="16">
+        <v>7.9295309999999999</v>
+      </c>
+      <c r="N35" s="16">
+        <v>9.1903349999999993</v>
+      </c>
+      <c r="O35" s="16">
+        <v>9.1728970000000007</v>
+      </c>
+      <c r="P35" s="16">
+        <v>7.4540569999999997</v>
+      </c>
+      <c r="Q35" s="16">
+        <v>9.1073939999999993</v>
+      </c>
+      <c r="R35" s="16">
+        <v>9.5381699999999991</v>
+      </c>
+      <c r="S35" s="16">
+        <v>12.234508</v>
+      </c>
+      <c r="T35" s="16">
+        <v>14.828619</v>
+      </c>
+      <c r="U35" s="16">
+        <v>13.290763</v>
+      </c>
+      <c r="V35" s="16">
+        <v>12.93585</v>
+      </c>
+    </row>
+    <row r="36" spans="1:23">
+      <c r="B36" s="104"/>
+    </row>
+    <row r="37" spans="1:23">
+      <c r="B37" s="107" t="s">
+        <v>71</v>
+      </c>
+      <c r="W37" s="1" t="s">
+        <v>296</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23">
+      <c r="B38" s="108" t="s">
+        <v>72</v>
+      </c>
+      <c r="C38" s="19">
+        <v>1548.5070000000001</v>
+      </c>
+      <c r="D38" s="19">
+        <v>1553.059</v>
+      </c>
+      <c r="E38" s="19">
+        <v>1596.9469999999999</v>
+      </c>
+      <c r="F38" s="19">
+        <v>1433.643</v>
+      </c>
+      <c r="G38" s="19">
+        <v>1420.8040000000001</v>
+      </c>
+      <c r="H38" s="19">
+        <v>1478.454</v>
+      </c>
+      <c r="I38" s="19">
+        <v>1450.481</v>
+      </c>
+      <c r="J38" s="19">
+        <v>1453.0050000000001</v>
+      </c>
+      <c r="K38" s="19">
+        <v>1574.2929999999999</v>
+      </c>
+      <c r="L38" s="19">
+        <v>1413.3520000000001</v>
+      </c>
+      <c r="M38" s="19">
+        <v>1403.8530000000001</v>
+      </c>
+      <c r="N38" s="19">
+        <v>1404.39</v>
+      </c>
+      <c r="O38" s="19">
+        <v>1373.8009999999999</v>
+      </c>
+      <c r="P38" s="19">
+        <v>1365.414</v>
+      </c>
+      <c r="Q38" s="19">
+        <v>1327.2170000000001</v>
+      </c>
+      <c r="R38" s="19">
+        <v>1349.3710000000001</v>
+      </c>
+      <c r="S38" s="19">
+        <v>1408.145</v>
+      </c>
+      <c r="T38" s="19">
+        <v>1528.6289999999999</v>
+      </c>
+      <c r="U38" s="19">
+        <v>1529.5309999999999</v>
+      </c>
+      <c r="V38" s="18">
+        <v>1739.2650000000001</v>
+      </c>
+      <c r="W38" s="66">
+        <f>V38*10^6*$B$1*$B$2</f>
+        <v>980420985.74368334</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23">
+      <c r="B39" s="108" t="s">
+        <v>123</v>
+      </c>
+      <c r="C39" s="19">
+        <v>322511</v>
+      </c>
+      <c r="D39" s="19">
+        <v>323211</v>
+      </c>
+      <c r="E39" s="19">
+        <v>317807</v>
+      </c>
+      <c r="F39" s="19">
+        <v>318263</v>
+      </c>
+      <c r="G39" s="19">
+        <v>338898</v>
+      </c>
+      <c r="H39" s="19">
+        <v>352140</v>
+      </c>
+      <c r="I39" s="19">
+        <v>352477</v>
+      </c>
+      <c r="J39" s="19">
+        <v>358832</v>
+      </c>
+      <c r="K39" s="19">
+        <v>340092</v>
+      </c>
+      <c r="L39" s="19">
+        <v>299829</v>
+      </c>
+      <c r="M39" s="19">
+        <v>341325</v>
+      </c>
+      <c r="N39" s="19">
+        <v>352091</v>
+      </c>
+      <c r="O39" s="19">
+        <v>371074</v>
+      </c>
+      <c r="P39" s="19">
+        <v>386132</v>
+      </c>
+      <c r="Q39" s="19">
+        <v>415462</v>
+      </c>
+      <c r="R39" s="19">
+        <v>411813</v>
+      </c>
+      <c r="S39" s="19">
+        <v>395889</v>
+      </c>
+      <c r="T39" s="19">
+        <v>423664</v>
+      </c>
+      <c r="U39" s="19">
+        <v>448319</v>
+      </c>
+      <c r="V39" s="18">
+        <v>451277</v>
+      </c>
+      <c r="W39" s="66">
+        <f>V39*10^6*$B$1*$B$2</f>
+        <v>254384145707.21091</v>
+      </c>
+    </row>
+    <row r="40" spans="1:23">
+      <c r="B40" s="104"/>
+    </row>
+    <row r="41" spans="1:23" ht="26.25">
+      <c r="A41" s="25"/>
+      <c r="B41" s="107" t="s">
+        <v>288</v>
+      </c>
+      <c r="C41" s="32">
+        <v>1.920482</v>
+      </c>
+      <c r="D41" s="32">
+        <v>1.906296</v>
+      </c>
+      <c r="E41" s="32">
+        <v>1.722966</v>
+      </c>
+      <c r="F41" s="32">
+        <v>1.8189690000000001</v>
+      </c>
+      <c r="G41" s="32">
+        <v>1.7892429999999999</v>
+      </c>
+      <c r="H41" s="32">
+        <v>1.8056989999999999</v>
+      </c>
+      <c r="I41" s="32">
+        <v>1.8610139999999999</v>
+      </c>
+      <c r="J41" s="32">
+        <v>1.931551</v>
+      </c>
+      <c r="K41" s="32">
+        <v>2.004432</v>
+      </c>
+      <c r="L41" s="32">
+        <v>2.121022</v>
+      </c>
+      <c r="M41" s="32">
+        <v>1.762966</v>
+      </c>
+      <c r="N41" s="32">
+        <v>1.9699610000000001</v>
+      </c>
+      <c r="O41" s="32">
+        <v>1.7335309999999999</v>
+      </c>
+      <c r="P41" s="32">
+        <v>1.539866</v>
+      </c>
+      <c r="Q41" s="32">
+        <v>1.4979389999999999</v>
+      </c>
+      <c r="R41" s="32">
+        <v>1.4850749999999999</v>
+      </c>
+      <c r="S41" s="32">
+        <v>1.438202</v>
+      </c>
+      <c r="T41" s="32">
+        <v>1.4977879999999999</v>
+      </c>
+      <c r="U41" s="32">
+        <v>1.462726</v>
+      </c>
+      <c r="V41" s="32">
+        <v>1.3182579999999999</v>
+      </c>
+    </row>
+    <row r="42" spans="1:23" ht="26.25">
+      <c r="A42" s="25"/>
+      <c r="B42" s="107" t="s">
+        <v>289</v>
+      </c>
+      <c r="C42" s="32">
+        <v>0.252724</v>
+      </c>
+      <c r="D42" s="32">
+        <v>0.24981</v>
+      </c>
+      <c r="E42" s="32">
+        <v>0.23120499999999999</v>
+      </c>
+      <c r="F42" s="32">
+        <v>0.233622</v>
+      </c>
+      <c r="G42" s="32">
+        <v>0.226017</v>
+      </c>
+      <c r="H42" s="32">
+        <v>0.23188600000000001</v>
+      </c>
+      <c r="I42" s="32">
+        <v>0.242786</v>
+      </c>
+      <c r="J42" s="32">
+        <v>0.25569500000000001</v>
+      </c>
+      <c r="K42" s="32">
+        <v>0.28427400000000003</v>
+      </c>
+      <c r="L42" s="32">
+        <v>0.27468700000000001</v>
+      </c>
+      <c r="M42" s="32">
+        <v>0.238043</v>
+      </c>
+      <c r="N42" s="32">
+        <v>0.26014100000000001</v>
+      </c>
+      <c r="O42" s="32">
+        <v>0.25384800000000002</v>
+      </c>
+      <c r="P42" s="32">
+        <v>0.23553499999999999</v>
+      </c>
+      <c r="Q42" s="32">
+        <v>0.224853</v>
+      </c>
+      <c r="R42" s="32">
+        <v>0.21575800000000001</v>
+      </c>
+      <c r="S42" s="32">
+        <v>0.20574400000000001</v>
+      </c>
+      <c r="T42" s="32">
+        <v>0.220053</v>
+      </c>
+      <c r="U42" s="32">
+        <v>0.21263099999999999</v>
+      </c>
+      <c r="V42" s="32">
+        <v>0.21271200000000001</v>
+      </c>
+    </row>
+    <row r="43" spans="1:23">
+      <c r="B43" s="104"/>
+    </row>
+    <row r="44" spans="1:23">
+      <c r="B44" s="104"/>
+    </row>
+    <row r="45" spans="1:23" ht="28.5">
+      <c r="A45" s="25"/>
+      <c r="B45" s="109" t="s">
+        <v>290</v>
+      </c>
+      <c r="C45" s="26">
+        <v>6.5970870000000001</v>
+      </c>
+      <c r="D45" s="26">
+        <v>6.5363329999999999</v>
+      </c>
+      <c r="E45" s="26">
+        <v>5.9528410000000003</v>
+      </c>
+      <c r="F45" s="26">
+        <v>6.009925</v>
+      </c>
+      <c r="G45" s="26">
+        <v>6.1800059999999997</v>
+      </c>
+      <c r="H45" s="26">
+        <v>6.5850609999999996</v>
+      </c>
+      <c r="I45" s="26">
+        <v>6.8935190000000004</v>
+      </c>
+      <c r="J45" s="26">
+        <v>7.3840839999999996</v>
+      </c>
+      <c r="K45" s="26">
+        <v>7.7961669999999996</v>
+      </c>
+      <c r="L45" s="26">
+        <v>6.6655730000000002</v>
+      </c>
+      <c r="M45" s="26">
+        <v>6.5381289999999996</v>
+      </c>
+      <c r="N45" s="26">
+        <v>7.3686220000000002</v>
+      </c>
+      <c r="O45" s="26">
+        <v>7.5418260000000004</v>
+      </c>
+      <c r="P45" s="26">
+        <v>7.2663229999999999</v>
+      </c>
+      <c r="Q45" s="26">
+        <v>7.450304</v>
+      </c>
+      <c r="R45" s="26">
+        <v>7.0949920000000004</v>
+      </c>
+      <c r="S45" s="26">
+        <v>6.5187629999999999</v>
+      </c>
+      <c r="T45" s="26">
+        <v>7.4590500000000004</v>
+      </c>
+      <c r="U45" s="26">
+        <v>7.618824</v>
+      </c>
+      <c r="V45" s="26">
+        <v>7.6751269999999998</v>
+      </c>
+    </row>
+    <row r="46" spans="1:23">
+      <c r="A46" s="25"/>
+      <c r="B46" s="104" t="s">
+        <v>286</v>
+      </c>
+      <c r="C46" s="38">
+        <v>0.23223199999999999</v>
+      </c>
+      <c r="D46" s="38">
+        <v>0.23119400000000001</v>
+      </c>
+      <c r="E46" s="38">
+        <v>0.214865</v>
+      </c>
+      <c r="F46" s="38">
+        <v>0.20364099999999999</v>
+      </c>
+      <c r="G46" s="38">
+        <v>0.198519</v>
+      </c>
+      <c r="H46" s="38">
+        <v>0.20847399999999999</v>
+      </c>
+      <c r="I46" s="38">
+        <v>0.21079500000000001</v>
+      </c>
+      <c r="J46" s="38">
+        <v>0.219165</v>
+      </c>
+      <c r="K46" s="38">
+        <v>0.24642</v>
+      </c>
+      <c r="L46" s="38">
+        <v>0.234096</v>
+      </c>
+      <c r="M46" s="38">
+        <v>0.19327</v>
+      </c>
+      <c r="N46" s="38">
+        <v>0.21604499999999999</v>
+      </c>
+      <c r="O46" s="38">
+        <v>0.185975</v>
+      </c>
+      <c r="P46" s="38">
+        <v>0.16419</v>
+      </c>
+      <c r="Q46" s="38">
+        <v>0.155251</v>
+      </c>
+      <c r="R46" s="38">
+        <v>0.15648699999999999</v>
+      </c>
+      <c r="S46" s="38">
+        <v>0.15814900000000001</v>
+      </c>
+      <c r="T46" s="38">
+        <v>0.17879300000000001</v>
+      </c>
+      <c r="U46" s="38">
+        <v>0.17471100000000001</v>
+      </c>
+      <c r="V46" s="38">
+        <v>0.17904600000000001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:23">
+      <c r="A47" s="25"/>
+      <c r="B47" s="104" t="s">
+        <v>287</v>
+      </c>
+      <c r="C47" s="38">
+        <v>6.3648559999999996</v>
+      </c>
+      <c r="D47" s="38">
+        <v>6.3051389999999996</v>
+      </c>
+      <c r="E47" s="38">
+        <v>5.7379759999999997</v>
+      </c>
+      <c r="F47" s="38">
+        <v>5.8062839999999998</v>
+      </c>
+      <c r="G47" s="38">
+        <v>5.9814870000000004</v>
+      </c>
+      <c r="H47" s="38">
+        <v>6.3765879999999999</v>
+      </c>
+      <c r="I47" s="38">
+        <v>6.6827240000000003</v>
+      </c>
+      <c r="J47" s="38">
+        <v>7.1649180000000001</v>
+      </c>
+      <c r="K47" s="38">
+        <v>7.5497480000000001</v>
+      </c>
+      <c r="L47" s="38">
+        <v>6.4314770000000001</v>
+      </c>
+      <c r="M47" s="38">
+        <v>6.3448589999999996</v>
+      </c>
+      <c r="N47" s="38">
+        <v>7.152577</v>
+      </c>
+      <c r="O47" s="38">
+        <v>7.3558519999999996</v>
+      </c>
+      <c r="P47" s="38">
+        <v>7.1021340000000004</v>
+      </c>
+      <c r="Q47" s="38">
+        <v>7.2950530000000002</v>
+      </c>
+      <c r="R47" s="38">
+        <v>6.9385060000000003</v>
+      </c>
+      <c r="S47" s="38">
+        <v>6.360614</v>
+      </c>
+      <c r="T47" s="38">
+        <v>7.2802569999999998</v>
+      </c>
+      <c r="U47" s="38">
+        <v>7.4441129999999998</v>
+      </c>
+      <c r="V47" s="38">
+        <v>7.4960810000000002</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23">
+      <c r="B48" s="105" t="s">
+        <v>75</v>
+      </c>
+      <c r="C48" s="16"/>
+      <c r="D48" s="16"/>
+      <c r="E48" s="16"/>
+      <c r="F48" s="16"/>
+      <c r="G48" s="16"/>
+      <c r="H48" s="16"/>
+      <c r="I48" s="16"/>
+      <c r="J48" s="16"/>
+      <c r="K48" s="16"/>
+      <c r="L48" s="16"/>
+      <c r="M48" s="16"/>
+      <c r="N48" s="16"/>
+      <c r="O48" s="16"/>
+      <c r="P48" s="16"/>
+      <c r="Q48" s="16"/>
+      <c r="R48" s="16"/>
+      <c r="S48" s="16"/>
+      <c r="T48" s="16"/>
+      <c r="U48" s="16"/>
+      <c r="V48" s="16"/>
+    </row>
+    <row r="49" spans="2:22">
+      <c r="B49" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="C49" s="16">
+        <v>0</v>
+      </c>
+      <c r="D49" s="16">
+        <v>0</v>
+      </c>
+      <c r="E49" s="16">
+        <v>0</v>
+      </c>
+      <c r="F49" s="16">
+        <v>0</v>
+      </c>
+      <c r="G49" s="16">
+        <v>0</v>
+      </c>
+      <c r="H49" s="16">
+        <v>0</v>
+      </c>
+      <c r="I49" s="16">
+        <v>0</v>
+      </c>
+      <c r="J49" s="16">
+        <v>0</v>
+      </c>
+      <c r="K49" s="16">
+        <v>0</v>
+      </c>
+      <c r="L49" s="16">
+        <v>0</v>
+      </c>
+      <c r="M49" s="16">
+        <v>0</v>
+      </c>
+      <c r="N49" s="16">
+        <v>0</v>
+      </c>
+      <c r="O49" s="16">
+        <v>0</v>
+      </c>
+      <c r="P49" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q49" s="16">
+        <v>0</v>
+      </c>
+      <c r="R49" s="16">
+        <v>0</v>
+      </c>
+      <c r="S49" s="16">
+        <v>0</v>
+      </c>
+      <c r="T49" s="16">
+        <v>0</v>
+      </c>
+      <c r="U49" s="16">
+        <v>0</v>
+      </c>
+      <c r="V49" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="2:22">
+      <c r="B50" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="C50" s="16">
+        <v>0</v>
+      </c>
+      <c r="D50" s="16">
+        <v>0</v>
+      </c>
+      <c r="E50" s="16">
+        <v>0</v>
+      </c>
+      <c r="F50" s="16">
+        <v>0</v>
+      </c>
+      <c r="G50" s="16">
+        <v>0</v>
+      </c>
+      <c r="H50" s="16">
+        <v>0</v>
+      </c>
+      <c r="I50" s="16">
+        <v>0</v>
+      </c>
+      <c r="J50" s="16">
+        <v>0</v>
+      </c>
+      <c r="K50" s="16">
+        <v>0</v>
+      </c>
+      <c r="L50" s="16">
+        <v>0</v>
+      </c>
+      <c r="M50" s="16">
+        <v>0</v>
+      </c>
+      <c r="N50" s="16">
+        <v>0</v>
+      </c>
+      <c r="O50" s="16">
+        <v>0</v>
+      </c>
+      <c r="P50" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q50" s="16">
+        <v>0</v>
+      </c>
+      <c r="R50" s="16">
+        <v>0</v>
+      </c>
+      <c r="S50" s="16">
+        <v>0</v>
+      </c>
+      <c r="T50" s="16">
+        <v>0</v>
+      </c>
+      <c r="U50" s="16">
+        <v>0</v>
+      </c>
+      <c r="V50" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="2:22">
+      <c r="B51" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="C51" s="16">
+        <v>7.3638999999999996E-2</v>
+      </c>
+      <c r="D51" s="16">
+        <v>6.9110000000000005E-2</v>
+      </c>
+      <c r="E51" s="16">
+        <v>7.7310000000000004E-2</v>
+      </c>
+      <c r="F51" s="16">
+        <v>0.16461500000000001</v>
+      </c>
+      <c r="G51" s="16">
+        <v>0.11752600000000001</v>
+      </c>
+      <c r="H51" s="16">
+        <v>0.11479300000000001</v>
+      </c>
+      <c r="I51" s="16">
+        <v>0.10432900000000001</v>
+      </c>
+      <c r="J51" s="16">
+        <v>0.15485399999999999</v>
+      </c>
+      <c r="K51" s="16">
+        <v>0.13868900000000001</v>
+      </c>
+      <c r="L51" s="16">
+        <v>0.11518399999999999</v>
+      </c>
+      <c r="M51" s="16">
+        <v>0.13650200000000001</v>
+      </c>
+      <c r="N51" s="16">
+        <v>0.169847</v>
+      </c>
+      <c r="O51" s="16">
+        <v>0.13088</v>
+      </c>
+      <c r="P51" s="16">
+        <v>0.104407</v>
+      </c>
+      <c r="Q51" s="16">
+        <v>0.108233</v>
+      </c>
+      <c r="R51" s="16">
+        <v>0.117995</v>
+      </c>
+      <c r="S51" s="16">
+        <v>0.119244</v>
+      </c>
+      <c r="T51" s="16">
+        <v>0.151339</v>
+      </c>
+      <c r="U51" s="16">
+        <v>0.162663</v>
+      </c>
+      <c r="V51" s="16">
+        <v>0.15836800000000001</v>
+      </c>
+    </row>
+    <row r="52" spans="2:22">
+      <c r="B52" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="C52" s="16">
+        <v>0.233178</v>
+      </c>
+      <c r="D52" s="16">
+        <v>0.259573</v>
+      </c>
+      <c r="E52" s="16">
+        <v>0.25840200000000002</v>
+      </c>
+      <c r="F52" s="16">
+        <v>0.28112599999999999</v>
+      </c>
+      <c r="G52" s="16">
+        <v>0.29120000000000001</v>
+      </c>
+      <c r="H52" s="16">
+        <v>0.28448400000000001</v>
+      </c>
+      <c r="I52" s="16">
+        <v>0.28276600000000002</v>
+      </c>
+      <c r="J52" s="16">
+        <v>0.28573300000000001</v>
+      </c>
+      <c r="K52" s="16">
+        <v>0.245673</v>
+      </c>
+      <c r="L52" s="16">
+        <v>0.252467</v>
+      </c>
+      <c r="M52" s="16">
+        <v>0.306037</v>
+      </c>
+      <c r="N52" s="16">
+        <v>0.28948200000000002</v>
+      </c>
+      <c r="O52" s="16">
+        <v>0.27284799999999998</v>
+      </c>
+      <c r="P52" s="16">
+        <v>0.197881</v>
+      </c>
+      <c r="Q52" s="16">
+        <v>0.204129</v>
+      </c>
+      <c r="R52" s="16">
+        <v>0.17133100000000001</v>
+      </c>
+      <c r="S52" s="16">
+        <v>0.159695</v>
+      </c>
+      <c r="T52" s="16">
+        <v>0.157196</v>
+      </c>
+      <c r="U52" s="16">
+        <v>0.15961700000000001</v>
+      </c>
+      <c r="V52" s="16">
+        <v>0.15063699999999999</v>
+      </c>
+    </row>
+    <row r="53" spans="2:22">
+      <c r="B53" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="C53" s="16">
+        <v>0.80566000000000004</v>
+      </c>
+      <c r="D53" s="16">
+        <v>0.75693100000000002</v>
+      </c>
+      <c r="E53" s="16">
+        <v>0.74615500000000001</v>
+      </c>
+      <c r="F53" s="16">
+        <v>0.741313</v>
+      </c>
+      <c r="G53" s="16">
+        <v>0.81159499999999996</v>
+      </c>
+      <c r="H53" s="16">
+        <v>0.70547000000000004</v>
+      </c>
+      <c r="I53" s="16">
+        <v>0.76653700000000002</v>
+      </c>
+      <c r="J53" s="16">
+        <v>0.88109499999999996</v>
+      </c>
+      <c r="K53" s="16">
+        <v>0.88890400000000003</v>
+      </c>
+      <c r="L53" s="16">
+        <v>0.92505999999999999</v>
+      </c>
+      <c r="M53" s="16">
+        <v>0.84369000000000005</v>
+      </c>
+      <c r="N53" s="16">
+        <v>0.88945099999999999</v>
+      </c>
+      <c r="O53" s="16">
+        <v>0.92857400000000001</v>
+      </c>
+      <c r="P53" s="16">
+        <v>0.86680500000000005</v>
+      </c>
+      <c r="Q53" s="16">
+        <v>0.77411099999999999</v>
+      </c>
+      <c r="R53" s="16">
+        <v>0.67985600000000002</v>
+      </c>
+      <c r="S53" s="16">
+        <v>0.67118800000000001</v>
+      </c>
+      <c r="T53" s="16">
+        <v>0.619336</v>
+      </c>
+      <c r="U53" s="16">
+        <v>0.69406900000000005</v>
+      </c>
+      <c r="V53" s="16">
+        <v>0.63667200000000002</v>
+      </c>
+    </row>
+    <row r="54" spans="2:22">
+      <c r="B54" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="16">
+        <v>1.6696530000000001</v>
+      </c>
+      <c r="D54" s="16">
+        <v>1.580084</v>
+      </c>
+      <c r="E54" s="16">
+        <v>1.460917</v>
+      </c>
+      <c r="F54" s="16">
+        <v>1.2817000000000001</v>
+      </c>
+      <c r="G54" s="16">
+        <v>1.4457679999999999</v>
+      </c>
+      <c r="H54" s="16">
+        <v>1.5522830000000001</v>
+      </c>
+      <c r="I54" s="16">
+        <v>1.472475</v>
+      </c>
+      <c r="J54" s="16">
+        <v>1.533776</v>
+      </c>
+      <c r="K54" s="16">
+        <v>1.5319799999999999</v>
+      </c>
+      <c r="L54" s="16">
+        <v>1.1497269999999999</v>
+      </c>
+      <c r="M54" s="16">
+        <v>1.253665</v>
+      </c>
+      <c r="N54" s="16">
+        <v>1.3213699999999999</v>
+      </c>
+      <c r="O54" s="16">
+        <v>1.239687</v>
+      </c>
+      <c r="P54" s="16">
+        <v>1.313483</v>
+      </c>
+      <c r="Q54" s="16">
+        <v>1.4093</v>
+      </c>
+      <c r="R54" s="16">
+        <v>1.427573</v>
+      </c>
+      <c r="S54" s="16">
+        <v>1.44733</v>
+      </c>
+      <c r="T54" s="16">
+        <v>1.4411609999999999</v>
+      </c>
+      <c r="U54" s="16">
+        <v>1.5318240000000001</v>
+      </c>
+      <c r="V54" s="16">
+        <v>1.549863</v>
+      </c>
+    </row>
+    <row r="55" spans="2:22">
+      <c r="B55" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="C55" s="16">
+        <v>0.320718</v>
+      </c>
+      <c r="D55" s="16">
+        <v>0.243564</v>
+      </c>
+      <c r="E55" s="16">
+        <v>9.0351000000000001E-2</v>
+      </c>
+      <c r="F55" s="16">
+        <v>0.202567</v>
+      </c>
+      <c r="G55" s="16">
+        <v>0.293464</v>
+      </c>
+      <c r="H55" s="16">
+        <v>0.298931</v>
+      </c>
+      <c r="I55" s="16">
+        <v>0.292215</v>
+      </c>
+      <c r="J55" s="16">
+        <v>0.25379400000000002</v>
+      </c>
+      <c r="K55" s="16">
+        <v>0.27495700000000001</v>
+      </c>
+      <c r="L55" s="16">
+        <v>0.52250399999999997</v>
+      </c>
+      <c r="M55" s="16">
+        <v>0.62378699999999998</v>
+      </c>
+      <c r="N55" s="16">
+        <v>0.69032000000000004</v>
+      </c>
+      <c r="O55" s="16">
+        <v>0.61558800000000002</v>
+      </c>
+      <c r="P55" s="16">
+        <v>0.56826500000000002</v>
+      </c>
+      <c r="Q55" s="16">
+        <v>0.65369600000000005</v>
+      </c>
+      <c r="R55" s="16">
+        <v>0.702268</v>
+      </c>
+      <c r="S55" s="16">
+        <v>0.65853700000000004</v>
+      </c>
+      <c r="T55" s="16">
+        <v>0.80089600000000005</v>
+      </c>
+      <c r="U55" s="16">
+        <v>0.87836199999999998</v>
+      </c>
+      <c r="V55" s="16">
+        <v>0.89062200000000002</v>
+      </c>
+    </row>
+    <row r="56" spans="2:22">
+      <c r="B56" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="C56" s="16">
+        <v>0.40903800000000001</v>
+      </c>
+      <c r="D56" s="16">
+        <v>0.30353799999999997</v>
+      </c>
+      <c r="E56" s="16">
+        <v>0.245282</v>
+      </c>
+      <c r="F56" s="16">
+        <v>0.18835399999999999</v>
+      </c>
+      <c r="G56" s="16">
+        <v>0.169847</v>
+      </c>
+      <c r="H56" s="16">
+        <v>0.41021000000000002</v>
+      </c>
+      <c r="I56" s="16">
+        <v>0.380691</v>
+      </c>
+      <c r="J56" s="16">
+        <v>0.24848400000000001</v>
+      </c>
+      <c r="K56" s="16">
+        <v>0.471354</v>
+      </c>
+      <c r="L56" s="16">
+        <v>0.378973</v>
+      </c>
+      <c r="M56" s="16">
+        <v>0.69297500000000001</v>
+      </c>
+      <c r="N56" s="16">
+        <v>0.71991700000000003</v>
+      </c>
+      <c r="O56" s="16">
+        <v>0.56108000000000002</v>
+      </c>
+      <c r="P56" s="16">
+        <v>0.69313100000000005</v>
+      </c>
+      <c r="Q56" s="16">
+        <v>0.71585600000000005</v>
+      </c>
+      <c r="R56" s="16">
+        <v>0.79972500000000002</v>
+      </c>
+      <c r="S56" s="16">
+        <v>0.77918699999999996</v>
+      </c>
+      <c r="T56" s="16">
+        <v>1.121302</v>
+      </c>
+      <c r="U56" s="16">
+        <v>1.2774829999999999</v>
+      </c>
+      <c r="V56" s="16">
+        <v>1.354168</v>
+      </c>
+    </row>
+    <row r="57" spans="2:22">
+      <c r="B57" s="106" t="s">
+        <v>68</v>
+      </c>
+      <c r="C57" s="16">
+        <v>1.8057650000000001</v>
+      </c>
+      <c r="D57" s="16">
+        <v>2.262985</v>
+      </c>
+      <c r="E57" s="16">
+        <v>2.2084779999999999</v>
+      </c>
+      <c r="F57" s="16">
+        <v>2.5774560000000002</v>
+      </c>
+      <c r="G57" s="16">
+        <v>2.6468780000000001</v>
+      </c>
+      <c r="H57" s="16">
+        <v>2.7828339999999998</v>
+      </c>
+      <c r="I57" s="16">
+        <v>3.1692260000000001</v>
+      </c>
+      <c r="J57" s="16">
+        <v>3.5981770000000002</v>
+      </c>
+      <c r="K57" s="16">
+        <v>3.5826370000000001</v>
+      </c>
+      <c r="L57" s="16">
+        <v>2.8730280000000001</v>
+      </c>
+      <c r="M57" s="16">
+        <v>2.1630289999999999</v>
+      </c>
+      <c r="N57" s="16">
+        <v>2.6110350000000002</v>
+      </c>
+      <c r="O57" s="16">
+        <v>3.1013649999999999</v>
+      </c>
+      <c r="P57" s="16">
+        <v>2.980715</v>
+      </c>
+      <c r="Q57" s="16">
+        <v>2.9064510000000001</v>
+      </c>
+      <c r="R57" s="16">
+        <v>2.5195129999999999</v>
+      </c>
+      <c r="S57" s="16">
+        <v>1.886042</v>
+      </c>
+      <c r="T57" s="16">
+        <v>2.0617459999999999</v>
+      </c>
+      <c r="U57" s="16">
+        <v>1.902207</v>
+      </c>
+      <c r="V57" s="16">
+        <v>1.9419550000000001</v>
+      </c>
+    </row>
+    <row r="58" spans="2:22">
+      <c r="B58" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="C58" s="16">
+        <v>1.2794350000000001</v>
+      </c>
+      <c r="D58" s="16">
+        <v>1.0605469999999999</v>
+      </c>
+      <c r="E58" s="16">
+        <v>0.86594599999999999</v>
+      </c>
+      <c r="F58" s="16">
+        <v>0.57279400000000003</v>
+      </c>
+      <c r="G58" s="16">
+        <v>0.40372799999999998</v>
+      </c>
+      <c r="H58" s="16">
+        <v>0.43605699999999997</v>
+      </c>
+      <c r="I58" s="16">
+        <v>0.42528100000000002</v>
+      </c>
+      <c r="J58" s="16">
+        <v>0.42817</v>
+      </c>
+      <c r="K58" s="16">
+        <v>0.66197300000000003</v>
+      </c>
+      <c r="L58" s="16">
+        <v>0.44862999999999997</v>
+      </c>
+      <c r="M58" s="16">
+        <v>0.51844299999999999</v>
+      </c>
+      <c r="N58" s="16">
+        <v>0.67720100000000005</v>
+      </c>
+      <c r="O58" s="16">
+        <v>0.69180399999999997</v>
+      </c>
+      <c r="P58" s="16">
+        <v>0.54163600000000001</v>
+      </c>
+      <c r="Q58" s="16">
+        <v>0.67852900000000005</v>
+      </c>
+      <c r="R58" s="16">
+        <v>0.676732</v>
+      </c>
+      <c r="S58" s="16">
+        <v>0.797539</v>
+      </c>
+      <c r="T58" s="16">
+        <v>1.106074</v>
+      </c>
+      <c r="U58" s="16">
+        <v>1.0125999999999999</v>
+      </c>
+      <c r="V58" s="16">
+        <v>0.99284300000000003</v>
+      </c>
+    </row>
+    <row r="59" spans="2:22">
+      <c r="B59" s="104"/>
+      <c r="C59" s="16"/>
+      <c r="D59" s="16"/>
+      <c r="E59" s="16"/>
+      <c r="F59" s="16"/>
+      <c r="G59" s="16"/>
+      <c r="H59" s="16"/>
+      <c r="I59" s="16"/>
+      <c r="J59" s="16"/>
+      <c r="K59" s="16"/>
+      <c r="L59" s="16"/>
+      <c r="M59" s="16"/>
+      <c r="N59" s="16"/>
+      <c r="O59" s="16"/>
+      <c r="P59" s="16"/>
+      <c r="Q59" s="16"/>
+      <c r="R59" s="16"/>
+      <c r="S59" s="16"/>
+      <c r="T59" s="16"/>
+      <c r="U59" s="16"/>
+      <c r="V59" s="16"/>
+    </row>
+    <row r="60" spans="2:22">
+      <c r="B60" s="105" t="s">
+        <v>70</v>
+      </c>
+      <c r="C60" s="16"/>
+      <c r="D60" s="16"/>
+      <c r="E60" s="16"/>
+      <c r="F60" s="16"/>
+      <c r="G60" s="16"/>
+      <c r="H60" s="16"/>
+      <c r="I60" s="16"/>
+      <c r="J60" s="16"/>
+      <c r="K60" s="16"/>
+      <c r="L60" s="16"/>
+      <c r="M60" s="16"/>
+      <c r="N60" s="16"/>
+      <c r="O60" s="16"/>
+      <c r="P60" s="16"/>
+      <c r="Q60" s="16"/>
+      <c r="R60" s="16"/>
+      <c r="S60" s="16"/>
+      <c r="T60" s="16"/>
+      <c r="U60" s="16"/>
+      <c r="V60" s="16"/>
+    </row>
+    <row r="61" spans="2:22">
+      <c r="B61" s="104" t="s">
+        <v>60</v>
+      </c>
+      <c r="C61" s="16">
+        <v>0</v>
+      </c>
+      <c r="D61" s="16">
+        <v>0</v>
+      </c>
+      <c r="E61" s="16">
+        <v>0</v>
+      </c>
+      <c r="F61" s="16">
+        <v>0</v>
+      </c>
+      <c r="G61" s="16">
+        <v>0</v>
+      </c>
+      <c r="H61" s="16">
+        <v>0</v>
+      </c>
+      <c r="I61" s="16">
+        <v>0</v>
+      </c>
+      <c r="J61" s="16">
+        <v>0</v>
+      </c>
+      <c r="K61" s="16">
+        <v>0</v>
+      </c>
+      <c r="L61" s="16">
+        <v>0</v>
+      </c>
+      <c r="M61" s="16">
+        <v>0</v>
+      </c>
+      <c r="N61" s="16">
+        <v>0</v>
+      </c>
+      <c r="O61" s="16">
+        <v>0</v>
+      </c>
+      <c r="P61" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q61" s="16">
+        <v>0</v>
+      </c>
+      <c r="R61" s="16">
+        <v>0</v>
+      </c>
+      <c r="S61" s="16">
+        <v>0</v>
+      </c>
+      <c r="T61" s="16">
+        <v>0</v>
+      </c>
+      <c r="U61" s="16">
+        <v>0</v>
+      </c>
+      <c r="V61" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="2:22">
+      <c r="B62" s="104" t="s">
+        <v>61</v>
+      </c>
+      <c r="C62" s="16">
+        <v>0</v>
+      </c>
+      <c r="D62" s="16">
+        <v>0</v>
+      </c>
+      <c r="E62" s="16">
+        <v>0</v>
+      </c>
+      <c r="F62" s="16">
+        <v>0</v>
+      </c>
+      <c r="G62" s="16">
+        <v>0</v>
+      </c>
+      <c r="H62" s="16">
+        <v>0</v>
+      </c>
+      <c r="I62" s="16">
+        <v>0</v>
+      </c>
+      <c r="J62" s="16">
+        <v>0</v>
+      </c>
+      <c r="K62" s="16">
+        <v>0</v>
+      </c>
+      <c r="L62" s="16">
+        <v>0</v>
+      </c>
+      <c r="M62" s="16">
+        <v>0</v>
+      </c>
+      <c r="N62" s="16">
+        <v>0</v>
+      </c>
+      <c r="O62" s="16">
+        <v>0</v>
+      </c>
+      <c r="P62" s="16">
+        <v>0</v>
+      </c>
+      <c r="Q62" s="16">
+        <v>0</v>
+      </c>
+      <c r="R62" s="16">
+        <v>0</v>
+      </c>
+      <c r="S62" s="16">
+        <v>0</v>
+      </c>
+      <c r="T62" s="16">
+        <v>0</v>
+      </c>
+      <c r="U62" s="16">
+        <v>0</v>
+      </c>
+      <c r="V62" s="16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="2:22">
+      <c r="B63" s="104" t="s">
+        <v>62</v>
+      </c>
+      <c r="C63" s="16">
+        <v>1.116241</v>
+      </c>
+      <c r="D63" s="16">
+        <v>1.0573220000000001</v>
+      </c>
+      <c r="E63" s="16">
+        <v>1.2987010000000001</v>
+      </c>
+      <c r="F63" s="16">
+        <v>2.7390500000000002</v>
+      </c>
+      <c r="G63" s="16">
+        <v>1.9017170000000001</v>
+      </c>
+      <c r="H63" s="16">
+        <v>1.7432350000000001</v>
+      </c>
+      <c r="I63" s="16">
+        <v>1.5134350000000001</v>
+      </c>
+      <c r="J63" s="16">
+        <v>2.0971259999999998</v>
+      </c>
+      <c r="K63" s="16">
+        <v>1.7789349999999999</v>
+      </c>
+      <c r="L63" s="16">
+        <v>1.7280359999999999</v>
+      </c>
+      <c r="M63" s="16">
+        <v>2.0877870000000001</v>
+      </c>
+      <c r="N63" s="16">
+        <v>2.305002</v>
+      </c>
+      <c r="O63" s="16">
+        <v>1.735385</v>
+      </c>
+      <c r="P63" s="16">
+        <v>1.4368620000000001</v>
+      </c>
+      <c r="Q63" s="16">
+        <v>1.452739</v>
+      </c>
+      <c r="R63" s="16">
+        <v>1.663071</v>
+      </c>
+      <c r="S63" s="16">
+        <v>1.8292459999999999</v>
+      </c>
+      <c r="T63" s="16">
+        <v>2.028937</v>
+      </c>
+      <c r="U63" s="16">
+        <v>2.1350090000000002</v>
+      </c>
+      <c r="V63" s="16">
+        <v>2.0633870000000001</v>
+      </c>
+    </row>
+    <row r="64" spans="2:22">
+      <c r="B64" s="104" t="s">
+        <v>63</v>
+      </c>
+      <c r="C64" s="16">
+        <v>3.534564</v>
+      </c>
+      <c r="D64" s="16">
+        <v>3.971231</v>
+      </c>
+      <c r="E64" s="16">
+        <v>4.3408110000000004</v>
+      </c>
+      <c r="F64" s="16">
+        <v>4.6776939999999998</v>
+      </c>
+      <c r="G64" s="16">
+        <v>4.7119619999999998</v>
+      </c>
+      <c r="H64" s="16">
+        <v>4.3201390000000002</v>
+      </c>
+      <c r="I64" s="16">
+        <v>4.1019079999999999</v>
+      </c>
+      <c r="J64" s="16">
+        <v>3.869583</v>
+      </c>
+      <c r="K64" s="16">
+        <v>3.1511990000000001</v>
+      </c>
+      <c r="L64" s="16">
+        <v>3.7876210000000001</v>
+      </c>
+      <c r="M64" s="16">
+        <v>4.6807999999999996</v>
+      </c>
+      <c r="N64" s="16">
+        <v>3.9285709999999998</v>
+      </c>
+      <c r="O64" s="16">
+        <v>3.617801</v>
+      </c>
+      <c r="P64" s="16">
+        <v>2.7232669999999999</v>
+      </c>
+      <c r="Q64" s="16">
+        <v>2.7398699999999998</v>
+      </c>
+      <c r="R64" s="16">
+        <v>2.4148100000000001</v>
+      </c>
+      <c r="S64" s="16">
+        <v>2.4497770000000001</v>
+      </c>
+      <c r="T64" s="16">
+        <v>2.107456</v>
+      </c>
+      <c r="U64" s="16">
+        <v>2.0950350000000002</v>
+      </c>
+      <c r="V64" s="16">
+        <v>1.9626600000000001</v>
+      </c>
+    </row>
+    <row r="65" spans="1:22">
+      <c r="B65" s="106" t="s">
+        <v>64</v>
+      </c>
+      <c r="C65" s="16">
+        <v>12.212358</v>
+      </c>
+      <c r="D65" s="16">
+        <v>11.580368</v>
+      </c>
+      <c r="E65" s="16">
+        <v>12.534435</v>
+      </c>
+      <c r="F65" s="16">
+        <v>12.334819</v>
+      </c>
+      <c r="G65" s="16">
+        <v>13.132588999999999</v>
+      </c>
+      <c r="H65" s="16">
+        <v>10.713184999999999</v>
+      </c>
+      <c r="I65" s="16">
+        <v>11.119669999999999</v>
+      </c>
+      <c r="J65" s="16">
+        <v>11.932359</v>
+      </c>
+      <c r="K65" s="16">
+        <v>11.401813000000001</v>
+      </c>
+      <c r="L65" s="16">
+        <v>13.878182000000001</v>
+      </c>
+      <c r="M65" s="16">
+        <v>12.90415</v>
+      </c>
+      <c r="N65" s="16">
+        <v>12.070793</v>
+      </c>
+      <c r="O65" s="16">
+        <v>12.312328000000001</v>
+      </c>
+      <c r="P65" s="16">
+        <v>11.929069999999999</v>
+      </c>
+      <c r="Q65" s="16">
+        <v>10.390332000000001</v>
+      </c>
+      <c r="R65" s="16">
+        <v>9.5821959999999997</v>
+      </c>
+      <c r="S65" s="16">
+        <v>10.296249</v>
+      </c>
+      <c r="T65" s="16">
+        <v>8.3031469999999992</v>
+      </c>
+      <c r="U65" s="16">
+        <v>9.1099180000000004</v>
+      </c>
+      <c r="V65" s="16">
+        <v>8.2952639999999995</v>
+      </c>
+    </row>
+    <row r="66" spans="1:22">
+      <c r="B66" s="106" t="s">
+        <v>65</v>
+      </c>
+      <c r="C66" s="16">
+        <v>25.308948999999998</v>
+      </c>
+      <c r="D66" s="16">
+        <v>24.173855</v>
+      </c>
+      <c r="E66" s="16">
+        <v>24.541519000000001</v>
+      </c>
+      <c r="F66" s="16">
+        <v>21.326385999999999</v>
+      </c>
+      <c r="G66" s="16">
+        <v>23.394280999999999</v>
+      </c>
+      <c r="H66" s="16">
+        <v>23.572800999999998</v>
+      </c>
+      <c r="I66" s="16">
+        <v>21.360278999999998</v>
+      </c>
+      <c r="J66" s="16">
+        <v>20.771377999999999</v>
+      </c>
+      <c r="K66" s="16">
+        <v>19.650423</v>
+      </c>
+      <c r="L66" s="16">
+        <v>17.248732</v>
+      </c>
+      <c r="M66" s="16">
+        <v>19.174679000000001</v>
+      </c>
+      <c r="N66" s="16">
+        <v>17.932386999999999</v>
+      </c>
+      <c r="O66" s="16">
+        <v>16.437491000000001</v>
+      </c>
+      <c r="P66" s="16">
+        <v>18.076302999999999</v>
+      </c>
+      <c r="Q66" s="16">
+        <v>18.916001000000001</v>
+      </c>
+      <c r="R66" s="16">
+        <v>20.120850999999998</v>
+      </c>
+      <c r="S66" s="16">
+        <v>22.202522999999999</v>
+      </c>
+      <c r="T66" s="16">
+        <v>19.320965999999999</v>
+      </c>
+      <c r="U66" s="16">
+        <v>20.105777</v>
+      </c>
+      <c r="V66" s="16">
+        <v>20.193314999999998</v>
+      </c>
+    </row>
+    <row r="67" spans="1:22">
+      <c r="B67" s="106" t="s">
+        <v>66</v>
+      </c>
+      <c r="C67" s="16">
+        <v>4.8615060000000003</v>
+      </c>
+      <c r="D67" s="16">
+        <v>3.726315</v>
+      </c>
+      <c r="E67" s="16">
+        <v>1.5177750000000001</v>
+      </c>
+      <c r="F67" s="16">
+        <v>3.3705379999999998</v>
+      </c>
+      <c r="G67" s="16">
+        <v>4.7486069999999998</v>
+      </c>
+      <c r="H67" s="16">
+        <v>4.5395250000000003</v>
+      </c>
+      <c r="I67" s="16">
+        <v>4.2389780000000004</v>
+      </c>
+      <c r="J67" s="16">
+        <v>3.4370440000000002</v>
+      </c>
+      <c r="K67" s="16">
+        <v>3.5268190000000001</v>
+      </c>
+      <c r="L67" s="16">
+        <v>7.8388419999999996</v>
+      </c>
+      <c r="M67" s="16">
+        <v>9.5407580000000003</v>
+      </c>
+      <c r="N67" s="16">
+        <v>9.3683759999999996</v>
+      </c>
+      <c r="O67" s="16">
+        <v>8.1623140000000003</v>
+      </c>
+      <c r="P67" s="16">
+        <v>7.8205270000000002</v>
+      </c>
+      <c r="Q67" s="16">
+        <v>8.7740810000000007</v>
+      </c>
+      <c r="R67" s="16">
+        <v>9.8980800000000002</v>
+      </c>
+      <c r="S67" s="16">
+        <v>10.102183999999999</v>
+      </c>
+      <c r="T67" s="16">
+        <v>10.737242999999999</v>
+      </c>
+      <c r="U67" s="16">
+        <v>11.528843</v>
+      </c>
+      <c r="V67" s="16">
+        <v>11.604009</v>
+      </c>
+    </row>
+    <row r="68" spans="1:22">
+      <c r="B68" s="106" t="s">
+        <v>67</v>
+      </c>
+      <c r="C68" s="16">
+        <v>6.2002839999999999</v>
+      </c>
+      <c r="D68" s="16">
+        <v>4.6438560000000004</v>
+      </c>
+      <c r="E68" s="16">
+        <v>4.120425</v>
+      </c>
+      <c r="F68" s="16">
+        <v>3.134055</v>
+      </c>
+      <c r="G68" s="16">
+        <v>2.748329</v>
+      </c>
+      <c r="H68" s="16">
+        <v>6.2293950000000002</v>
+      </c>
+      <c r="I68" s="16">
+        <v>5.5224520000000004</v>
+      </c>
+      <c r="J68" s="16">
+        <v>3.3651300000000002</v>
+      </c>
+      <c r="K68" s="16">
+        <v>6.0459759999999996</v>
+      </c>
+      <c r="L68" s="16">
+        <v>5.6855330000000004</v>
+      </c>
+      <c r="M68" s="16">
+        <v>10.598985000000001</v>
+      </c>
+      <c r="N68" s="16">
+        <v>9.7700300000000002</v>
+      </c>
+      <c r="O68" s="16">
+        <v>7.4395829999999998</v>
+      </c>
+      <c r="P68" s="16">
+        <v>9.5389579999999992</v>
+      </c>
+      <c r="Q68" s="16">
+        <v>9.6084099999999992</v>
+      </c>
+      <c r="R68" s="16">
+        <v>11.271682999999999</v>
+      </c>
+      <c r="S68" s="16">
+        <v>11.952992999999999</v>
+      </c>
+      <c r="T68" s="16">
+        <v>15.032769</v>
+      </c>
+      <c r="U68" s="16">
+        <v>16.767455000000002</v>
+      </c>
+      <c r="V68" s="16">
+        <v>17.643588000000001</v>
+      </c>
+    </row>
+    <row r="69" spans="1:22">
+      <c r="B69" s="106" t="s">
+        <v>68</v>
+      </c>
+      <c r="C69" s="16">
+        <v>27.372159</v>
+      </c>
+      <c r="D69" s="16">
+        <v>34.621634</v>
+      </c>
+      <c r="E69" s="16">
+        <v>37.099567</v>
+      </c>
+      <c r="F69" s="16">
+        <v>42.886657</v>
+      </c>
+      <c r="G69" s="16">
+        <v>42.829704999999997</v>
+      </c>
+      <c r="H69" s="16">
+        <v>42.259801000000003</v>
+      </c>
+      <c r="I69" s="16">
+        <v>45.973990999999998</v>
+      </c>
+      <c r="J69" s="16">
+        <v>48.728822999999998</v>
+      </c>
+      <c r="K69" s="16">
+        <v>45.953823999999997</v>
+      </c>
+      <c r="L69" s="16">
+        <v>43.102499000000002</v>
+      </c>
+      <c r="M69" s="16">
+        <v>33.083308000000002</v>
+      </c>
+      <c r="N69" s="16">
+        <v>35.434505999999999</v>
+      </c>
+      <c r="O69" s="16">
+        <v>41.122202000000001</v>
+      </c>
+      <c r="P69" s="16">
+        <v>41.020955999999998</v>
+      </c>
+      <c r="Q69" s="16">
+        <v>39.011172999999999</v>
+      </c>
+      <c r="R69" s="16">
+        <v>35.511139</v>
+      </c>
+      <c r="S69" s="16">
+        <v>28.93252</v>
+      </c>
+      <c r="T69" s="16">
+        <v>27.640864000000001</v>
+      </c>
+      <c r="U69" s="16">
+        <v>24.967200999999999</v>
+      </c>
+      <c r="V69" s="16">
+        <v>25.301928</v>
+      </c>
+    </row>
+    <row r="70" spans="1:22">
+      <c r="B70" s="106" t="s">
+        <v>69</v>
+      </c>
+      <c r="C70" s="16">
+        <v>19.393939</v>
+      </c>
+      <c r="D70" s="16">
+        <v>16.225418999999999</v>
+      </c>
+      <c r="E70" s="16">
+        <v>14.546766</v>
+      </c>
+      <c r="F70" s="16">
+        <v>9.5308010000000003</v>
+      </c>
+      <c r="G70" s="16">
+        <v>6.5328090000000003</v>
+      </c>
+      <c r="H70" s="16">
+        <v>6.6219200000000003</v>
+      </c>
+      <c r="I70" s="16">
+        <v>6.1692869999999997</v>
+      </c>
+      <c r="J70" s="16">
+        <v>5.7985569999999997</v>
+      </c>
+      <c r="K70" s="16">
+        <v>8.4910099999999993</v>
+      </c>
+      <c r="L70" s="16">
+        <v>6.7305549999999998</v>
+      </c>
+      <c r="M70" s="16">
+        <v>7.9295309999999999</v>
+      </c>
+      <c r="N70" s="16">
+        <v>9.1903349999999993</v>
+      </c>
+      <c r="O70" s="16">
+        <v>9.1728970000000007</v>
+      </c>
+      <c r="P70" s="16">
+        <v>7.4540569999999997</v>
+      </c>
+      <c r="Q70" s="16">
+        <v>9.1073939999999993</v>
+      </c>
+      <c r="R70" s="16">
+        <v>9.5381699999999991</v>
+      </c>
+      <c r="S70" s="16">
+        <v>12.234508</v>
+      </c>
+      <c r="T70" s="16">
+        <v>14.828619</v>
+      </c>
+      <c r="U70" s="16">
+        <v>13.290763</v>
+      </c>
+      <c r="V70" s="16">
+        <v>12.93585</v>
+      </c>
+    </row>
+    <row r="71" spans="1:22">
+      <c r="B71" s="104"/>
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
+      <c r="E71" s="16"/>
+      <c r="F71" s="16"/>
+      <c r="G71" s="16"/>
+      <c r="H71" s="16"/>
+      <c r="I71" s="16"/>
+      <c r="J71" s="16"/>
+      <c r="K71" s="16"/>
+      <c r="L71" s="16"/>
+      <c r="M71" s="16"/>
+      <c r="N71" s="16"/>
+      <c r="O71" s="16"/>
+      <c r="P71" s="16"/>
+      <c r="Q71" s="16"/>
+      <c r="R71" s="16"/>
+      <c r="S71" s="16"/>
+      <c r="T71" s="16"/>
+      <c r="U71" s="16"/>
+      <c r="V71" s="16"/>
+    </row>
+    <row r="72" spans="1:22" ht="26.25">
+      <c r="A72" s="25"/>
+      <c r="B72" s="107" t="s">
+        <v>291</v>
+      </c>
+      <c r="C72" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="D72" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="E72" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="F72" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="G72" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="H72" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="I72" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="J72" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="K72" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="L72" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="M72" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="N72" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="O72" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="P72" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="Q72" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="R72" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="S72" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="T72" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="U72" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="V72" s="26">
+        <v>78.090522000000007</v>
+      </c>
+    </row>
+    <row r="73" spans="1:22" ht="26.25">
+      <c r="B73" s="107" t="s">
+        <v>292</v>
+      </c>
+      <c r="C73" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="D73" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="E73" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="F73" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="G73" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="H73" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="I73" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="J73" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="K73" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="L73" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="M73" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="N73" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="O73" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="P73" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="Q73" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="R73" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="S73" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="T73" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="U73" s="26">
+        <v>78.090522000000007</v>
+      </c>
+      <c r="V73" s="26">
+        <v>78.090522000000007</v>
+      </c>
+    </row>
+    <row r="74" spans="1:22">
+      <c r="B74" s="107"/>
+    </row>
+    <row r="75" spans="1:22">
+      <c r="A75" s="34" t="s">
+        <v>293</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{91A1C2FD-DA69-4D0C-A072-DA4DEBC04593}">
+  <sheetPr>
+    <tabColor theme="9" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:U247"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" workbookViewId="0">
-      <selection activeCell="G38" sqref="G38"/>
+    <sheetView topLeftCell="A176" workbookViewId="0">
+      <selection activeCell="G179" sqref="G179"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -45913,7 +48918,7 @@
         <v>40</v>
       </c>
       <c r="D27" s="76">
-        <v>218.50707697142599</v>
+        <v>0</v>
       </c>
       <c r="E27" s="76">
         <v>0</v>
@@ -46464,14 +49469,17 @@
       <c r="C64" t="s">
         <v>40</v>
       </c>
-      <c r="D64" s="77">
-        <v>74125.23247371272</v>
-      </c>
-      <c r="E64" s="77">
-        <v>74125.23247371272</v>
-      </c>
-      <c r="F64" s="77">
-        <v>74125.23247371272</v>
+      <c r="D64" s="110">
+        <f>'Table 25_rail'!W38/G27/D7</f>
+        <v>35466.573884649748</v>
+      </c>
+      <c r="E64" s="110">
+        <f>D64</f>
+        <v>35466.573884649748</v>
+      </c>
+      <c r="F64" s="110">
+        <f>E64</f>
+        <v>35466.573884649748</v>
       </c>
     </row>
     <row r="65" spans="2:10">
@@ -46580,14 +49588,17 @@
       <c r="C73" t="s">
         <v>40</v>
       </c>
-      <c r="D73" s="77">
-        <v>40944.490505207716</v>
-      </c>
-      <c r="E73" s="77">
-        <v>40944.490505207716</v>
-      </c>
-      <c r="F73" s="77">
-        <v>40944.490505207716</v>
+      <c r="D73" s="110">
+        <f>'Table 25_rail'!W39/G36/D16</f>
+        <v>31338.252285859668</v>
+      </c>
+      <c r="E73" s="110">
+        <f>D73</f>
+        <v>31338.252285859668</v>
+      </c>
+      <c r="F73" s="110">
+        <f>E73</f>
+        <v>31338.252285859668</v>
       </c>
     </row>
     <row r="74" spans="2:10">
@@ -46753,13 +49764,13 @@
         <v>1.2405209526886144E-3</v>
       </c>
       <c r="E83">
-        <v>4.2438874697242065E-4</v>
+        <v>4.511510075790323E-4</v>
       </c>
       <c r="F83">
-        <v>4.2438874697242065E-4</v>
+        <v>4.511510075790323E-4</v>
       </c>
       <c r="G83">
-        <v>4.2438874697242065E-4</v>
+        <v>4.511510075790323E-4</v>
       </c>
       <c r="H83">
         <v>0</v>
@@ -46953,13 +49964,13 @@
         <v>1.1140743815291445E-2</v>
       </c>
       <c r="E92">
-        <v>3.4668839999999999E-3</v>
+        <v>2.7959561517409449E-3</v>
       </c>
       <c r="F92">
-        <v>3.4668839999999999E-3</v>
+        <v>2.7959561517409449E-3</v>
       </c>
       <c r="G92">
-        <v>3.4668839999999999E-3</v>
+        <v>2.7959561517409449E-3</v>
       </c>
       <c r="H92">
         <v>0</v>
@@ -47217,7 +50228,7 @@
       </c>
       <c r="D105" s="77">
         <f t="shared" si="1"/>
-        <v>7974704783.5681906</v>
+        <v>0</v>
       </c>
       <c r="E105" s="77">
         <f t="shared" si="1"/>
@@ -47228,8 +50239,8 @@
         <v>0</v>
       </c>
       <c r="G105" s="79">
-        <f t="shared" si="1"/>
-        <v>2071636278.5857656</v>
+        <f>$D7*G27*$F64*$D46</f>
+        <v>991212286.08138514</v>
       </c>
       <c r="H105" s="77">
         <f t="shared" si="1"/>
@@ -47526,8 +50537,8 @@
         <v>0</v>
       </c>
       <c r="G114" s="79">
-        <f t="shared" si="3"/>
-        <v>337799961708.83154</v>
+        <f>$D16*G36*$F73*$D55</f>
+        <v>258546639402.89264</v>
       </c>
       <c r="H114" s="77">
         <f t="shared" si="3"/>
@@ -47794,7 +50805,7 @@
       </c>
       <c r="D125" s="80">
         <f>IFERROR(D105/D83,0)</f>
-        <v>6428512768191.7813</v>
+        <v>0</v>
       </c>
       <c r="E125" s="80">
         <f t="shared" si="5"/>
@@ -47806,7 +50817,7 @@
       </c>
       <c r="G125" s="80">
         <f t="shared" si="5"/>
-        <v>4881459023983.9541</v>
+        <v>2197074304234.4758</v>
       </c>
       <c r="H125" s="80">
         <f t="shared" si="5"/>
@@ -47909,7 +50920,7 @@
       </c>
       <c r="D129" s="81">
         <f>SUM(D122:D127)</f>
-        <v>8324004743178.1553</v>
+        <v>1895491974986.3743</v>
       </c>
       <c r="E129" s="81">
         <f t="shared" ref="E129:J129" si="6">SUM(E122:E127)</f>
@@ -47921,7 +50932,7 @@
       </c>
       <c r="G129" s="81">
         <f t="shared" si="6"/>
-        <v>2279439035840328</v>
+        <v>2276754651120578.5</v>
       </c>
       <c r="H129" s="81">
         <f t="shared" si="6"/>
@@ -47954,7 +50965,7 @@
       </c>
       <c r="G130" s="75">
         <f t="shared" si="7"/>
-        <v>11.100140133903317</v>
+        <v>11.087068037613827</v>
       </c>
       <c r="H130" s="75" t="e">
         <f t="shared" si="7"/>
@@ -48123,8 +51134,8 @@
         <v>0</v>
       </c>
       <c r="G136" s="80">
-        <f t="shared" si="8"/>
-        <v>97436188147290.641</v>
+        <f>IFERROR(G114/G92,0)</f>
+        <v>92471635952482.516</v>
       </c>
       <c r="H136" s="80">
         <f t="shared" si="8"/>
@@ -48229,7 +51240,7 @@
       </c>
       <c r="G140" s="81">
         <f t="shared" si="9"/>
-        <v>606425823874706</v>
+        <v>601461271679897.88</v>
       </c>
       <c r="H140" s="81">
         <f t="shared" si="9"/>
@@ -48262,7 +51273,7 @@
       </c>
       <c r="G141" s="75">
         <f t="shared" si="10"/>
-        <v>0.90651442862553844</v>
+        <v>0.89909317771721964</v>
       </c>
       <c r="H141" s="75" t="e">
         <f t="shared" si="10"/>
@@ -49127,7 +52138,7 @@
         <f>SUMIFS(NRCAN!$J:$J,NRCAN!$N:$N,$B169,NRCAN!$O:$O,$C169,NRCAN!$P:$P,F$146)*$B$164</f>
         <v>0</v>
       </c>
-      <c r="G169" s="91">
+      <c r="G169" s="111">
         <f>SUMIFS(NRCAN!$J:$J,NRCAN!$N:$N,$B169,NRCAN!$O:$O,$C169,NRCAN!$P:$P,G$146)*$B$164</f>
         <v>1827447069909.8308</v>
       </c>
@@ -49421,7 +52432,7 @@
         <f>SUMIFS(NRCAN!$J:$J,NRCAN!$N:$N,$B179,NRCAN!$O:$O,$C179,NRCAN!$P:$P,F$146)*$B$164</f>
         <v>0</v>
       </c>
-      <c r="G179" s="91">
+      <c r="G179" s="111">
         <f>SUMIFS(NRCAN!$J:$J,NRCAN!$N:$N,$B179,NRCAN!$O:$O,$C179,NRCAN!$P:$P,G$146)*$B$164</f>
         <v>74411689912129.906</v>
       </c>
@@ -49723,7 +52734,7 @@
       </c>
       <c r="G196" s="97">
         <f t="shared" si="14"/>
-        <v>2.6711903750103216</v>
+        <v>1.202264262758036</v>
       </c>
       <c r="H196" s="97">
         <f t="shared" si="14"/>
@@ -49983,7 +52994,7 @@
       </c>
       <c r="G205" s="97">
         <f t="shared" si="16"/>
-        <v>1.3094204453943936</v>
+        <v>1.2427030761118172</v>
       </c>
       <c r="H205" s="97">
         <f t="shared" si="16"/>
@@ -50417,6 +53428,7 @@
         <v>38</v>
       </c>
       <c r="D233" s="77">
+        <f>D61</f>
         <v>9554.1234147952946</v>
       </c>
       <c r="E233" s="101">
@@ -50435,6 +53447,7 @@
         <v>39</v>
       </c>
       <c r="D234" s="77">
+        <f t="shared" ref="D234:D238" si="19">D62</f>
         <v>25324.227647595919</v>
       </c>
       <c r="E234" s="101">
@@ -50453,10 +53466,11 @@
         <v>28</v>
       </c>
       <c r="D235" s="77">
+        <f t="shared" si="19"/>
         <v>1485182.7840096201</v>
       </c>
       <c r="E235" s="101">
-        <f t="shared" ref="E235:E236" si="19">G168*G82/D45/G26/D6</f>
+        <f t="shared" ref="E235:E236" si="20">G168*G82/D45/G26/D6</f>
         <v>105675.97361082943</v>
       </c>
     </row>
@@ -50471,11 +53485,12 @@
         <v>40</v>
       </c>
       <c r="D236" s="77">
-        <v>74125.23247371272</v>
-      </c>
-      <c r="E236" s="101">
         <f t="shared" si="19"/>
-        <v>27749.887528486739</v>
+        <v>35466.573884649748</v>
+      </c>
+      <c r="E236" s="102">
+        <f>G169*G83/D46/G27/D7</f>
+        <v>29499.815459280308</v>
       </c>
     </row>
     <row r="237" spans="1:10">
@@ -50489,6 +53504,7 @@
         <v>41</v>
       </c>
       <c r="D237" s="77">
+        <f t="shared" si="19"/>
         <v>194.17552144824873</v>
       </c>
       <c r="E237" s="101">
@@ -50506,6 +53522,7 @@
         <v>42</v>
       </c>
       <c r="D238" s="77">
+        <f t="shared" si="19"/>
         <v>2681.3344716853576</v>
       </c>
       <c r="E238" s="101">
@@ -50536,6 +53553,7 @@
         <v>38</v>
       </c>
       <c r="D242" s="77">
+        <f>D70</f>
         <v>11455.768780944287</v>
       </c>
       <c r="E242" s="101">
@@ -50554,6 +53572,7 @@
         <v>39</v>
       </c>
       <c r="D243" s="77">
+        <f t="shared" ref="D243:D247" si="21">D71</f>
         <v>53982.060464387978</v>
       </c>
       <c r="E243" s="101">
@@ -50572,10 +53591,11 @@
         <v>28</v>
       </c>
       <c r="D244" s="77">
+        <f t="shared" si="21"/>
         <v>914424.70637909963</v>
       </c>
       <c r="E244" s="101">
-        <f t="shared" ref="E244:E246" si="20">G178*G91/D54/G35/D15</f>
+        <f t="shared" ref="E244:E246" si="22">G178*G91/D54/G35/D15</f>
         <v>75176.707352204467</v>
       </c>
     </row>
@@ -50590,11 +53610,12 @@
         <v>40</v>
       </c>
       <c r="D245" s="77">
-        <v>40944.490505207716</v>
-      </c>
-      <c r="E245" s="101">
-        <f t="shared" si="20"/>
-        <v>31269.169997475758</v>
+        <f t="shared" si="21"/>
+        <v>31338.252285859668</v>
+      </c>
+      <c r="E245" s="102">
+        <f t="shared" si="22"/>
+        <v>25217.81179130185</v>
       </c>
     </row>
     <row r="246" spans="1:5">
@@ -50608,10 +53629,11 @@
         <v>41</v>
       </c>
       <c r="D246" s="77">
+        <f t="shared" si="21"/>
         <v>128611.990951</v>
       </c>
       <c r="E246" s="101">
-        <f t="shared" si="20"/>
+        <f t="shared" si="22"/>
         <v>169274.2000705527</v>
       </c>
     </row>
@@ -50626,6 +53648,7 @@
         <v>42</v>
       </c>
       <c r="D247" s="77">
+        <f t="shared" si="21"/>
         <v>15369.008426414737</v>
       </c>
       <c r="E247" s="101">
@@ -50640,14 +53663,966 @@
 </file>
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0C00-000000000000}">
+  <sheetPr>
+    <tabColor theme="3"/>
+  </sheetPr>
+  <dimension ref="A1:AH9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
+  <cols>
+    <col min="1" max="1" width="16.5703125" customWidth="1"/>
+    <col min="2" max="2" width="18.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" ht="30">
+      <c r="A1" s="6" t="s">
+        <v>117</v>
+      </c>
+      <c r="B1" s="5">
+        <v>2018</v>
+      </c>
+      <c r="C1" s="5">
+        <v>2019</v>
+      </c>
+      <c r="D1" s="5">
+        <v>2020</v>
+      </c>
+      <c r="E1" s="5">
+        <v>2021</v>
+      </c>
+      <c r="F1" s="5">
+        <v>2022</v>
+      </c>
+      <c r="G1" s="5">
+        <v>2023</v>
+      </c>
+      <c r="H1" s="5">
+        <v>2024</v>
+      </c>
+      <c r="I1" s="5">
+        <v>2025</v>
+      </c>
+      <c r="J1" s="5">
+        <v>2026</v>
+      </c>
+      <c r="K1" s="5">
+        <v>2027</v>
+      </c>
+      <c r="L1" s="5">
+        <v>2028</v>
+      </c>
+      <c r="M1" s="5">
+        <v>2029</v>
+      </c>
+      <c r="N1" s="5">
+        <v>2030</v>
+      </c>
+      <c r="O1" s="5">
+        <v>2031</v>
+      </c>
+      <c r="P1" s="5">
+        <v>2032</v>
+      </c>
+      <c r="Q1" s="5">
+        <v>2033</v>
+      </c>
+      <c r="R1" s="5">
+        <v>2034</v>
+      </c>
+      <c r="S1" s="5">
+        <v>2035</v>
+      </c>
+      <c r="T1" s="5">
+        <v>2036</v>
+      </c>
+      <c r="U1" s="5">
+        <v>2037</v>
+      </c>
+      <c r="V1" s="5">
+        <v>2038</v>
+      </c>
+      <c r="W1" s="5">
+        <v>2039</v>
+      </c>
+      <c r="X1" s="5">
+        <v>2040</v>
+      </c>
+      <c r="Y1" s="5">
+        <v>2041</v>
+      </c>
+      <c r="Z1" s="5">
+        <v>2042</v>
+      </c>
+      <c r="AA1" s="5">
+        <v>2043</v>
+      </c>
+      <c r="AB1" s="5">
+        <v>2044</v>
+      </c>
+      <c r="AC1" s="5">
+        <v>2045</v>
+      </c>
+      <c r="AD1" s="5">
+        <v>2046</v>
+      </c>
+      <c r="AE1" s="5">
+        <v>2047</v>
+      </c>
+      <c r="AF1" s="5">
+        <v>2048</v>
+      </c>
+      <c r="AG1" s="5">
+        <v>2049</v>
+      </c>
+      <c r="AH1" s="5">
+        <v>2050</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34">
+      <c r="A2" t="s">
+        <v>38</v>
+      </c>
+      <c r="B2" s="7">
+        <f>CONVERT((('Passenger Cars'!U13*'Passenger Cars'!U16)+(Trucks!U23*Trucks!U35))/('Passenger Cars'!U13+Trucks!U23),"km","mi")</f>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="C2" s="7">
+        <f>B2</f>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="D2" s="7">
+        <f t="shared" ref="D2:AH7" si="0">C2</f>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="E2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="F2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="G2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="H2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="I2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="J2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="K2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="L2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="M2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="N2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="O2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="P2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="Q2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="R2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="S2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="T2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="U2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="V2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="W2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="X2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="Y2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="Z2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="AA2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="AB2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="AC2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="AD2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="AE2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="AF2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="AG2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+      <c r="AH2" s="7">
+        <f t="shared" si="0"/>
+        <v>9554.1234147952946</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34">
+      <c r="A3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="7">
+        <f>DATA_inputdata!E234</f>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="C3" s="7">
+        <f t="shared" ref="C3:R7" si="1">B3</f>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="D3" s="7">
+        <f t="shared" si="1"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="E3" s="7">
+        <f t="shared" si="1"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="F3" s="7">
+        <f t="shared" si="1"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="G3" s="7">
+        <f t="shared" si="1"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="H3" s="7">
+        <f t="shared" si="1"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="I3" s="7">
+        <f t="shared" si="1"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="J3" s="7">
+        <f t="shared" si="1"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="K3" s="7">
+        <f t="shared" si="1"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="L3" s="7">
+        <f t="shared" si="1"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="M3" s="7">
+        <f t="shared" si="1"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="N3" s="7">
+        <f t="shared" si="1"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="O3" s="7">
+        <f t="shared" si="1"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="P3" s="7">
+        <f t="shared" si="1"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="Q3" s="7">
+        <f t="shared" si="1"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="R3" s="7">
+        <f t="shared" si="1"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="S3" s="7">
+        <f t="shared" si="0"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="T3" s="7">
+        <f t="shared" si="0"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="U3" s="7">
+        <f t="shared" si="0"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="V3" s="7">
+        <f t="shared" si="0"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="W3" s="7">
+        <f t="shared" si="0"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="X3" s="7">
+        <f t="shared" si="0"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="Y3" s="7">
+        <f t="shared" si="0"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="Z3" s="7">
+        <f t="shared" si="0"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="AA3" s="7">
+        <f t="shared" si="0"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="AB3" s="7">
+        <f t="shared" si="0"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="AC3" s="7">
+        <f t="shared" si="0"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="AD3" s="7">
+        <f t="shared" si="0"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="AE3" s="7">
+        <f t="shared" si="0"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="AF3" s="7">
+        <f t="shared" si="0"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="AG3" s="7">
+        <f t="shared" si="0"/>
+        <v>33500.419733409915</v>
+      </c>
+      <c r="AH3" s="7">
+        <f t="shared" si="0"/>
+        <v>33500.419733409915</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="7">
+        <f>DATA_inputdata!E235</f>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="C4" s="7">
+        <f t="shared" si="1"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="D4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="E4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="F4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="G4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="H4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="I4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="J4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="K4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="L4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="M4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="N4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="O4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="P4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="Q4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="R4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="S4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="T4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="U4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="V4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="W4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="X4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="Y4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="Z4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="AA4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="AB4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="AC4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="AD4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="AE4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="AF4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="AG4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+      <c r="AH4" s="7">
+        <f t="shared" si="0"/>
+        <v>105675.97361082943</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34">
+      <c r="A5" t="s">
+        <v>40</v>
+      </c>
+      <c r="B5" s="7">
+        <f>DATA_inputdata!E236</f>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="C5" s="7">
+        <f t="shared" si="1"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="D5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="E5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="F5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="G5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="H5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="I5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="J5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="K5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="L5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="M5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="N5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="O5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="P5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="Q5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="R5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="S5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="T5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="U5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="V5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="W5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="X5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="Y5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="Z5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="AA5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="AB5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="AC5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="AD5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="AE5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="AF5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="AG5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+      <c r="AH5" s="7">
+        <f t="shared" si="0"/>
+        <v>29499.815459280308</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34">
+      <c r="A6" t="s">
+        <v>41</v>
+      </c>
+      <c r="B6" s="7">
+        <f>DATA_inputdata!E237</f>
+        <v>0</v>
+      </c>
+      <c r="C6" s="7">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="D6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="E6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="G6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="H6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="I6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="J6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="K6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="L6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="M6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="N6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="O6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="P6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Q6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="R6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="S6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="T6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="U6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="V6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="W6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="X6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Y6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="Z6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AA6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AB6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AC6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AD6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AE6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AF6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AG6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="AH6" s="7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:34">
+      <c r="A7" t="s">
+        <v>42</v>
+      </c>
+      <c r="B7" s="7">
+        <f>DATA_inputdata!E238</f>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="C7" s="7">
+        <f t="shared" si="1"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="D7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="E7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="F7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="G7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="H7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="I7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="J7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="K7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="L7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="M7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="N7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="O7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="P7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="Q7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="R7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="S7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="T7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="U7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="V7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="W7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="X7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="Y7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="Z7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="AA7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="AB7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="AC7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="AD7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="AE7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="AF7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="AG7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+      <c r="AH7" s="7">
+        <f t="shared" si="0"/>
+        <v>17647.108681345879</v>
+      </c>
+    </row>
+    <row r="9" spans="1:34">
+      <c r="B9" s="7"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -51162,131 +55137,131 @@
       </c>
       <c r="B5" s="7">
         <f>DATA_inputdata!E245</f>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="C5" s="7">
         <f t="shared" si="0"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="D5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="E5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="F5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="G5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="H5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="I5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="J5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="K5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="L5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="M5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="N5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="O5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="P5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="Q5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="R5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="S5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="T5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="U5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="V5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="W5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="X5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="Y5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="Z5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="AA5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="AB5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="AC5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="AD5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="AE5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="AF5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
       <c r="AG5" s="7">
         <f t="shared" si="1"/>
-        <v>31269.169997475758</v>
+        <v>25217.81179130185</v>
       </c>
     </row>
     <row r="6" spans="1:33">
@@ -58277,8 +62252,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1CBC9382-15F5-4621-BDDA-39A7DFAB43C1}">
   <dimension ref="A1:B86"/>
   <sheetViews>
-    <sheetView topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="B84" sqref="A84:B84"/>
+    <sheetView topLeftCell="A82" workbookViewId="0">
+      <selection activeCell="B82" sqref="B82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -58913,7 +62888,7 @@
   <dimension ref="B28:D30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -58955,6 +62930,35 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -59214,36 +63218,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74EA060D-CED2-4063-B27A-58CD5DBC378A}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84A60017-B994-4337-A2F2-69F78EF8A701}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39F7DF89-CE40-4377-A3DD-38A89AE86693}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -59261,23 +63255,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84A60017-B994-4337-A2F2-69F78EF8A701}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74EA060D-CED2-4063-B27A-58CD5DBC378A}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/InputData/trans/BAADTbVT/BAU Avg Annual Dist Traveled by Veh Type.xlsx
+++ b/InputData/trans/BAADTbVT/BAU Avg Annual Dist Traveled by Veh Type.xlsx
@@ -62959,8 +62959,8 @@
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="20" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="fdee17017a9ad5b872047a216f95da93">
-  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="37825e9edfcb807d863c63152c6d8635" ns2:_="" ns3:_="" ns4:_="">
+<ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
+  <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
     <xsd:import namespace="de340059-046a-4f1a-8b62-ade039df3700"/>
     <xsd:import namespace="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
@@ -62986,6 +62986,7 @@
                 <xsd:element ref="ns3:MediaServiceEventHashCode" minOccurs="0"/>
                 <xsd:element ref="ns3:lcf76f155ced4ddcb4097134ff3c332f" minOccurs="0"/>
                 <xsd:element ref="ns3:MediaServiceDateTaken" minOccurs="0"/>
+                <xsd:element ref="ns3:MediaLengthInSeconds" minOccurs="0"/>
               </xsd:all>
             </xsd:complexType>
           </xsd:element>
@@ -63086,6 +63087,11 @@
     <xsd:element name="MediaServiceDateTaken" ma:index="27" nillable="true" ma:displayName="MediaServiceDateTaken" ma:hidden="true" ma:internalName="MediaServiceDateTaken" ma:readOnly="true">
       <xsd:simpleType>
         <xsd:restriction base="dms:Text"/>
+      </xsd:simpleType>
+    </xsd:element>
+    <xsd:element name="MediaLengthInSeconds" ma:index="28" nillable="true" ma:displayName="MediaLengthInSeconds" ma:hidden="true" ma:internalName="MediaLengthInSeconds" ma:readOnly="true">
+      <xsd:simpleType>
+        <xsd:restriction base="dms:Unknown"/>
       </xsd:simpleType>
     </xsd:element>
   </xsd:schema>
@@ -63238,21 +63244,5 @@
 </file>
 
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{39F7DF89-CE40-4377-A3DD-38A89AE86693}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
-    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
-    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44E194D3-7EB7-4675-A33D-0528024C0F32}"/>
 </file>
--- a/InputData/trans/BAADTbVT/BAU Avg Annual Dist Traveled by Veh Type.xlsx
+++ b/InputData/trans/BAADTbVT/BAU Avg Annual Dist Traveled by Veh Type.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Olivia Ashmoore\Documents\EPS_Models by Region\Canada\eps-canada\InputData\trans\BAADTbVT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pembinainstitute.sharepoint.com/sites/PRO-EnergyPolicySimulator2021/Shared Documents/Research and Analysis/CANADA-inputData/trans/BAADTbVT/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C05303C9-357E-4C2F-8992-4DCED69FA507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="13_ncr:1_{C05303C9-357E-4C2F-8992-4DCED69FA507}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{635B4E97-782D-4C03-B61A-61656480BD8E}"/>
   <bookViews>
-    <workbookView xWindow="9435" yWindow="930" windowWidth="18240" windowHeight="15930" tabRatio="1000" firstSheet="13" activeTab="17" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView minimized="1" xWindow="4230" yWindow="4230" windowWidth="21600" windowHeight="11295" tabRatio="1000" firstSheet="8" activeTab="18" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="About" sheetId="1" r:id="rId1"/>
@@ -41,27 +41,27 @@
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="13" hidden="1">crosswalk!$A$1:$D$42</definedName>
-    <definedName name="btu_per_pj">[4]About!$A$28</definedName>
-    <definedName name="elec_reduction_HDVs">'[4]Fuel Efficiency Adjustments'!$B$3</definedName>
-    <definedName name="elec_reduction_LDVs">'[4]Fuel Efficiency Adjustments'!$B$2</definedName>
-    <definedName name="elec_share">'[4]Fuel Efficiency Adjustments'!$B$6</definedName>
-    <definedName name="Eno_TM" localSheetId="12">'[1]1997  Table 1a Modified'!#REF!</definedName>
-    <definedName name="Eno_TM" localSheetId="11">'[1]1997  Table 1a Modified'!#REF!</definedName>
-    <definedName name="Eno_TM" localSheetId="15">'[1]1997  Table 1a Modified'!#REF!</definedName>
-    <definedName name="Eno_TM">'[1]1997  Table 1a Modified'!#REF!</definedName>
-    <definedName name="Eno_Tons" localSheetId="12">'[1]1997  Table 1a Modified'!#REF!</definedName>
-    <definedName name="Eno_Tons" localSheetId="11">'[1]1997  Table 1a Modified'!#REF!</definedName>
-    <definedName name="Eno_Tons">'[1]1997  Table 1a Modified'!#REF!</definedName>
-    <definedName name="gal_per_barrel">[2]About!$A$63</definedName>
-    <definedName name="km_per_mile">[4]About!$A$27</definedName>
-    <definedName name="Regions">[3]Conversion!$B$43:$B$56</definedName>
-    <definedName name="Sum_T2" localSheetId="12">'[1]1997  Table 1a Modified'!#REF!</definedName>
-    <definedName name="Sum_T2" localSheetId="11">'[1]1997  Table 1a Modified'!#REF!</definedName>
-    <definedName name="Sum_T2" localSheetId="15">'[1]1997  Table 1a Modified'!#REF!</definedName>
-    <definedName name="Sum_T2">'[1]1997  Table 1a Modified'!#REF!</definedName>
-    <definedName name="Sum_TTM" localSheetId="12">'[1]1997  Table 1a Modified'!#REF!</definedName>
-    <definedName name="Sum_TTM" localSheetId="11">'[1]1997  Table 1a Modified'!#REF!</definedName>
-    <definedName name="Sum_TTM">'[1]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="btu_per_pj">[1]About!$A$28</definedName>
+    <definedName name="elec_reduction_HDVs">'[1]Fuel Efficiency Adjustments'!$B$3</definedName>
+    <definedName name="elec_reduction_LDVs">'[1]Fuel Efficiency Adjustments'!$B$2</definedName>
+    <definedName name="elec_share">'[1]Fuel Efficiency Adjustments'!$B$6</definedName>
+    <definedName name="Eno_TM" localSheetId="12">'[2]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Eno_TM" localSheetId="11">'[2]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Eno_TM" localSheetId="15">'[2]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Eno_TM">'[2]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Eno_Tons" localSheetId="12">'[2]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Eno_Tons" localSheetId="11">'[2]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Eno_Tons">'[2]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="gal_per_barrel">[3]About!$A$63</definedName>
+    <definedName name="km_per_mile">[1]About!$A$27</definedName>
+    <definedName name="Regions">[4]Conversion!$B$43:$B$56</definedName>
+    <definedName name="Sum_T2" localSheetId="12">'[2]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Sum_T2" localSheetId="11">'[2]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Sum_T2" localSheetId="15">'[2]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Sum_T2">'[2]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Sum_TTM" localSheetId="12">'[2]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Sum_TTM" localSheetId="11">'[2]1997  Table 1a Modified'!#REF!</definedName>
+    <definedName name="Sum_TTM">'[2]1997  Table 1a Modified'!#REF!</definedName>
     <definedName name="ti_tbl_50" localSheetId="12">#REF!</definedName>
     <definedName name="ti_tbl_50" localSheetId="11">#REF!</definedName>
     <definedName name="ti_tbl_50" localSheetId="15">#REF!</definedName>
@@ -85,35 +85,6 @@
     </ext>
   </extLst>
 </workbook>
-</file>
-
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
-  <authors>
-    <author>tc={EBCBA153-7AAA-4E57-BC99-57E5E932894B}</author>
-    <author>tc={09E5AE5C-8E3F-4702-933C-4B48D7410B7A}</author>
-  </authors>
-  <commentList>
-    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{EBCBA153-7AAA-4E57-BC99-57E5E932894B}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Previously:
-=CONVERT((((Trucks!U25*Trucks!U37)+(Trucks!U26*Trucks!U38))/(Trucks!U25+Trucks!U26)),"km","mi")</t>
-      </text>
-    </comment>
-    <comment ref="B7" authorId="1" shapeId="0" xr:uid="{09E5AE5C-8E3F-4702-933C-4B48D7410B7A}">
-      <text>
-        <t>[Threaded comment]
-Your version of Excel allows you to read this threaded comment; however, any edits to it will get removed if the file is opened in a newer version of Excel. Learn more: https://go.microsoft.com/fwlink/?linkid=870924
-Comment:
-    Previously:
-0</t>
-      </text>
-    </comment>
-  </commentList>
-</comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3059,6 +3030,81 @@
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
+    <xxl21:alternateUrls>
+      <xxl21:absoluteUrl r:id="rId2"/>
+    </xxl21:alternateUrls>
+    <sheetNames>
+      <sheetName val="About"/>
+      <sheetName val="EUDH T4"/>
+      <sheetName val="EUDH T8"/>
+      <sheetName val="Offroad Calcs"/>
+      <sheetName val="Fuel Efficiency Adjustments"/>
+      <sheetName val="Freight Fleet Data"/>
+      <sheetName val="Calibration Adjustments"/>
+      <sheetName val="Freight Energy Data"/>
+      <sheetName val="Passenger Fleet Data"/>
+      <sheetName val="Passenger Energy Data"/>
+      <sheetName val="Onroad Calcs"/>
+      <sheetName val="Marine Energy Consumption"/>
+      <sheetName val="marine calcs"/>
+      <sheetName val="rail calcs"/>
+      <sheetName val="Table 25_rail"/>
+      <sheetName val="SYFAFE-psgr"/>
+      <sheetName val="SYFAFE-frgt"/>
+    </sheetNames>
+    <sheetDataSet>
+      <sheetData sheetId="0">
+        <row r="27">
+          <cell r="A27">
+            <v>1.60934</v>
+          </cell>
+        </row>
+        <row r="28">
+          <cell r="A28">
+            <v>947817000000</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="1" refreshError="1"/>
+      <sheetData sheetId="2" refreshError="1"/>
+      <sheetData sheetId="3" refreshError="1"/>
+      <sheetData sheetId="4">
+        <row r="2">
+          <cell r="B2">
+            <v>0.68595041322314043</v>
+          </cell>
+        </row>
+        <row r="3">
+          <cell r="B3">
+            <v>0.68881036513545346</v>
+          </cell>
+        </row>
+        <row r="6">
+          <cell r="B6">
+            <v>0.55000000000000004</v>
+          </cell>
+        </row>
+      </sheetData>
+      <sheetData sheetId="5" refreshError="1"/>
+      <sheetData sheetId="6" refreshError="1"/>
+      <sheetData sheetId="7" refreshError="1"/>
+      <sheetData sheetId="8" refreshError="1"/>
+      <sheetData sheetId="9" refreshError="1"/>
+      <sheetData sheetId="10" refreshError="1"/>
+      <sheetData sheetId="11" refreshError="1"/>
+      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="13" refreshError="1"/>
+      <sheetData sheetId="14" refreshError="1"/>
+      <sheetData sheetId="15" refreshError="1"/>
+      <sheetData sheetId="16"/>
+    </sheetDataSet>
+  </externalBook>
+</externalLink>
+</file>
+
+<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Rail shipments 93-97"/>
       <sheetName val="Waterborne Flows 93-97"/>
@@ -3137,7 +3183,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3168,7 +3214,7 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
@@ -3251,85 +3297,8 @@
 </externalLink>
 </file>
 
-<file path=xl/externalLinks/externalLink4.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="About"/>
-      <sheetName val="EUDH T4"/>
-      <sheetName val="EUDH T8"/>
-      <sheetName val="Offroad Calcs"/>
-      <sheetName val="Fuel Efficiency Adjustments"/>
-      <sheetName val="Freight Fleet Data"/>
-      <sheetName val="Calibration Adjustments"/>
-      <sheetName val="Freight Energy Data"/>
-      <sheetName val="Passenger Fleet Data"/>
-      <sheetName val="Passenger Energy Data"/>
-      <sheetName val="Onroad Calcs"/>
-      <sheetName val="Marine Energy Consumption"/>
-      <sheetName val="marine calcs"/>
-      <sheetName val="rail calcs"/>
-      <sheetName val="Table 25_rail"/>
-      <sheetName val="SYFAFE-psgr"/>
-      <sheetName val="SYFAFE-frgt"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="27">
-          <cell r="A27">
-            <v>1.60934</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28">
-            <v>947817000000</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4">
-        <row r="2">
-          <cell r="B2">
-            <v>0.68595041322314043</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="B3">
-            <v>0.68881036513545346</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="B6">
-            <v>0.55000000000000004</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="5" refreshError="1"/>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
-      <sheetData sheetId="13" refreshError="1"/>
-      <sheetData sheetId="14" refreshError="1"/>
-      <sheetData sheetId="15" refreshError="1"/>
-      <sheetData sheetId="16"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
-</file>
-
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <person displayName="Andre Dixon" id="{53198674-1DAA-456D-A39B-019AF0616DC6}" userId="Andre Dixon" providerId="None"/>
-</personList>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3651,24 +3620,11 @@
 </a:theme>
 </file>
 
-<file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
-<ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="B3" dT="2022-10-14T14:52:20.77" personId="{53198674-1DAA-456D-A39B-019AF0616DC6}" id="{EBCBA153-7AAA-4E57-BC99-57E5E932894B}">
-    <text>Previously:
-=CONVERT((((Trucks!U25*Trucks!U37)+(Trucks!U26*Trucks!U38))/(Trucks!U25+Trucks!U26)),"km","mi")</text>
-  </threadedComment>
-  <threadedComment ref="B7" dT="2022-10-14T14:52:05.35" personId="{53198674-1DAA-456D-A39B-019AF0616DC6}" id="{09E5AE5C-8E3F-4702-933C-4B48D7410B7A}">
-    <text>Previously:
-0</text>
-  </threadedComment>
-</ThreadedComments>
-</file>
-
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B50"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A22" workbookViewId="0">
       <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
@@ -3925,7 +3881,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B28AB04B-3634-4F4C-9A47-C504FCD075FB}">
   <dimension ref="B43:C54"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
@@ -5425,7 +5381,7 @@
   <dimension ref="B2:AH1355"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -13806,8 +13762,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6253F542-B137-4E6C-963F-19A550154108}">
   <dimension ref="A1:P575"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1"/>
+    <sheetView topLeftCell="A370" workbookViewId="0">
+      <selection activeCell="J387" sqref="J387"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -44875,7 +44831,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{015D1E9A-12D2-4650-BA7B-EFD7C00B0AA2}">
   <dimension ref="A1:W75"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
+    <sheetView topLeftCell="A54" workbookViewId="0">
       <selection activeCell="W37" sqref="W37"/>
     </sheetView>
   </sheetViews>
@@ -48602,8 +48558,8 @@
   </sheetPr>
   <dimension ref="A1:U247"/>
   <sheetViews>
-    <sheetView topLeftCell="A176" workbookViewId="0">
-      <selection activeCell="G179" sqref="G179"/>
+    <sheetView topLeftCell="A210" workbookViewId="0">
+      <selection activeCell="E246" sqref="E246"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -53470,7 +53426,7 @@
         <v>1485182.7840096201</v>
       </c>
       <c r="E235" s="101">
-        <f t="shared" ref="E235:E236" si="20">G168*G82/D45/G26/D6</f>
+        <f t="shared" ref="E235" si="20">G168*G82/D45/G26/D6</f>
         <v>105675.97361082943</v>
       </c>
     </row>
@@ -53669,8 +53625,8 @@
   </sheetPr>
   <dimension ref="A1:AH9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -54615,14 +54571,14 @@
 </file>
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0D00-000000000000}">
   <sheetPr>
     <tabColor theme="3"/>
   </sheetPr>
   <dimension ref="A1:AG7"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.28515625" defaultRowHeight="15"/>
@@ -55533,7 +55489,6 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -62939,26 +62894,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </of2ed5e60f3c4f8984f283882cb94320>
-    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </ff7c4ad8664a4671b57370e258acad6a>
-    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </l787e5950a9249679d0130235a9a791b>
-    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010010EB76B7FE121F489C7B2A4727FCE3E9" ma:contentTypeVersion="21" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b14dc5c440242a7f7d08dacad5c84df8">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="52604411-7aeb-406e-8b34-4ce79a7293cc" xmlns:ns3="de340059-046a-4f1a-8b62-ade039df3700" xmlns:ns4="d580559a-617d-4d7d-8fb9-71ff64b58360" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="71a713f9ca42e4f2f02aa83a9b465f65" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
@@ -63224,6 +63159,26 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <of2ed5e60f3c4f8984f283882cb94320 xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </of2ed5e60f3c4f8984f283882cb94320>
+    <ff7c4ad8664a4671b57370e258acad6a xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </ff7c4ad8664a4671b57370e258acad6a>
+    <l787e5950a9249679d0130235a9a791b xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </l787e5950a9249679d0130235a9a791b>
+    <TaxCatchAll xmlns="52604411-7aeb-406e-8b34-4ce79a7293cc" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="de340059-046a-4f1a-8b62-ade039df3700">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{74EA060D-CED2-4063-B27A-58CD5DBC378A}">
   <ds:schemaRefs>
@@ -63233,6 +63188,26 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44E194D3-7EB7-4675-A33D-0528024C0F32}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/2001/XMLSchema"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="52604411-7aeb-406e-8b34-4ce79a7293cc"/>
+    <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
+    <ds:schemaRef ds:uri="d580559a-617d-4d7d-8fb9-71ff64b58360"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{84A60017-B994-4337-A2F2-69F78EF8A701}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
@@ -63241,8 +63216,4 @@
     <ds:schemaRef ds:uri="de340059-046a-4f1a-8b62-ade039df3700"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{44E194D3-7EB7-4675-A33D-0528024C0F32}"/>
 </file>